--- a/output/Total_time_range_data/四川省/成都市_学习考察.xlsx
+++ b/output/Total_time_range_data/四川省/成都市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1278 +436,1400 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>227</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>成都市人民政府办公厅关于规范缔结国内友好城市管理工作的意见</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2005-11-29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.chengdu.gov.cn/gkml/cdsrmzfbgt/qtwj/1613191529696960512.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['成都市人民政府办公厅关于规范缔结国内友好城市管理工作的意见 - 其他文件 - 信息公开目录 - 成都市人民政府办公厅信息公开目录', '各区（市）县政府，市政府各部门： 为规范我市缔结国内友好城市管理工作，有序发展国内友好城市关系，促进国内合作交流，经市政府同意，现提出如下意见。 一、指导思想 我市与具有一定合作交流基础的城市建立友好城市关系，促进双方的了解和友谊，开展友好城市间政府、经济、科技、文化等领域的交流与合作，推动双方经济和社会发展。 二、缔结对象 有利于实现优势互补、共同发展的直辖市、副省级城市、省会城市。 三、缔结程序 （一）意向提出。根据两市主要领导互有结好意向的提议。 （二）论证呈报。由市经合局负责对拟结友好城市进行调研考察，就双方近年来开展合作与交流的情况，经济、社会、文化等方面的互补性进行了解，对双方建立长期友好合作关系的可行性、必要性进行分析论证，并根据友好城市的类别提出相应的缔结建议。市经合局同时与拟结友好城市相关职能部门协商缔结友好城市的相关事宜，分别拟制缔结友好城市协议书和缔结友好城市签约仪式方案报市政府分管领导审核。 （三）协议审议。缔结友好城市协议书和缔结友好城市签约仪式方案经市政府分管领导审核后，提交市长办公会议或市政府常务会议审议。 （四）协议批准。缔结友好城市协议书经市长办公会议或市政府常务会议讨论审定后，报市委批准。 （五）协议签定。双方城市市长（或市长授权其他市领导）在缔结友好城市协议书上签字后，两市正式结为友好城市。 （六）协议备案。签字后的缔结友好城市协议书报市人大常委会备案。 四、友好城市交流 （一）由市领导带队不定期到各友好城市访问，互通情况，或者参与友好城市举办的重大节庆活动。我市与友好城市之间一般不举行周年纪念活动，可在结好周年互致祝贺函电。 （二）充分利用我市举办或参与的重大节庆、会展活动，有计划地邀请友好城市的领导来蓉参观、考察，推动友好城市关系不断发展。 （三）市政府有关部门要引导和组织我市企业到友好城市考察、学习、投资创业，促进生产要素自由流动，推动区域经济协调发展。同时，积极为友好城市来我市开展经贸活动、投资创业等提供帮助和服务。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>227</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>施小琳等市领导在上海苏州考察学习开展项目对接</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-11-07</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c169603/2023-12/11/content_ba6223d2c8db4c988b006220515b3fcf.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['全面领会贯彻党的二十大精神 学习借鉴先发城市经验 聚力开放创新 构筑高质量发展独特优势', '11月4日至7日，四川省委常委、成都市委书记施小琳率队在上海、苏州考察学习，开展项目对接和投资促进活动。期间，施小琳等市领导参加了第五届中国国际进口博览会，先后来到上海城市规划展示馆、上海金桥经济技术开发区、苏州工业园、苏州高新区等地，交流学习各地在城市规划、产业发展、科技创新、营商环境等方面的先进经验。', '施小琳指出，学习宣传贯彻党的二十大精神是当前和今后一个时期的首要政治任务。成都要按照省委部署要求，全面领会党的二十大精神并真抓实干见行见效，特别要坚定践行以人民为中心的发展思想，学习借鉴先发城市经验，积极借助进博会等开放平台，抢抓机遇、乘势而为，主动融入和服务新发展格局，以建设践行新发展理念的公园城市示范区为统领，深化改革开放，坚持自主创新，高效统筹疫情防控和经济社会发展，全力以赴拼经济、抓发展、惠民生，加快构建现代化产业体系，加速推动城市转型升级，培育构筑高质量发展、高品质生活、高效能治理独特优势，努力打造中国西部具有全球影响力和美誉度的现代化国际大都市。', '第五届中国国际进口博览会11月4日在上海开幕。施小琳等市领导来到这里，认真学习了解新时代中国开放发展的成就，并和汽车、生物医药、电子信息等行业的重点企业深入交流。施小琳说，成都是“一带一路”建设和长江经济带发展的重要节点，正在加快建设国际门户枢纽，打造内陆改革开放新高地。成都将全面落实党中央和省委部署要求，坚定不移推进高水平对外开放，坚定不移推动创新驱动发展，坚定不移做优做强城市功能，坚定不移推动优质要素资源集聚，坚定不移持续优化营商环境，努力走出一条中国式现代化城市发展之路。希望大家充分发挥链主企业辐射带动作用，积极参与和支持成都产业建圈强链，帮助成都精准把握行业发展新趋势，携手抢占新赛道、壮大新动能，加快构建开放型现代产业体系。', '在沪期间，施小琳等市领导先后来到上海城市规划展示馆和金桥经济技术开发区，实地考察上汽通用凯迪拉克工厂、金鼎天地项目和中国移动（上海）5G产业研究院等，学习了解城市规划理念和重点片区开发经验做法。她指出，成都加快建设公园城市示范区，持续推动“三个做优做强”，因地制宜划定了24个重点片区，促进区域协调发展，推动城市功能整体提升。各级各部门要持续深化对片区人口经济承载能力的研究，持续深化对产业发展趋势规律的认识，以重大项目集群建设为抓手，推进产城融合、职住平衡，推动优势产业集聚成群、公共服务均衡共享。', '在苏州考察期间，施小琳一行与江苏省委常委、苏州市委书记曹路宝等苏州市领导进行了座谈交流，并先后参观考察苏州工业园区规划展示中心、苏州生物医药产业园、平江路历史文化街区、医疗器械产业园、中移（苏州）软件技术有限公司、清华苏州环境创新研究院等地，学习科技创新、现代产业、城市治理、历史文化保护等经验成果。', '施小琳指出，抓创新就是抓发展、谋创新就是谋未来。成都要始终坚持“四个面向”，深入实施创新驱动发展战略，高水平推进西部（成都）科学城建设，高标准打造天府实验室，汇聚高端创新要素、提升协同创新能力，加快建设具有全国影响力的科技创新中心。要不断增强对人才的凝聚力承载力，加快建设一批创新平台、科技服务中介和孵化转化平台，促进更多创新成果就地就近产品化、产业化，打造一流科技创新生态。要始终坚持把发展经济的着力点放在实体经济上，深入实施制造强市战略，紧紧围绕链主企业、公共平台、中介机构、投资基金、领军人才构建良好产业生态，加大对高新技术企业、“独角兽”企业、专精特新“小巨人”企业等政策扶持力度，推动制造业高端化、智能化、绿色化发展，促进产业链、创新链、价值链融合，构建竞争优势突出的现代产业体系。', '进博会期间，成都市还组织开展了“链接全球 汇聚天府”四川天府新区进口贸易创新促进示范区推介会、“港连亚欧 蓉通全球”亚蓉欧开放合作峰会等系列配套活动。部分区（市）县分别与重点企业、机构签约战略合作协议、项目投资协议28个。勃林格殷格翰成都霁达康复中心、赛默飞前沿生物技术联合创新实验室、岛津－未来医学城高性能医疗器械联合创新实验室等重点项目揭牌亮相。', '市领导刘筱柳、曹俊杰、杜海波、刘任远分别参加相关活动。（成都日报锦观新闻记者 张家华）']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>227</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>新都区行政审批局赴天府新区考察学习网络理政工作</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2020-09-28</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/12345/detail?id=201030&amp;infoID=1062</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['为进一步提高网络理政办理质效，增强市民获得感、幸福感、安全感。新都区行政审批局党组书记于9月17日率队赴天府新区考察学习网络理政工作，重点学习网络理政中心的管理、部门间推诿扯皮及疑难等问题的处理方法。', '会上，天府新区行政审批局党组书记、局长介绍了天府新区网络理政的运行情况。他表示，专业的网络理政队伍应当加强自身业务能力、提高业务素质，应当对区域经济发展、社会矛盾等问题进行深入思考。在于法于情于理的情况下，网络理政的重要任务是选择更好的方式让群众满意。', '天府新区行政审批局公园城市理政中心主任详细介绍了网络理政工作制定的工作流程，以及职能职责不清、推诿扯皮、社会稳定等问题的具体做法。', '下一步，新都区行政审批局将借鉴天府新区的先进做法和典型经验，以问题为导向，进一步提高网络理政办理质效，及时回应解决市民诉求，不断提升市民获得感、幸福感、安全感。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>227</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>时隔两年沈阳市再次来蓉考察学习成都都市圈建设经验</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-06-17</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn//cdsrmzf/c137429/2024-06/24/content_d4e75c915dec449eb54de6b08edc1461.shtml</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['为进一步做好都市圈建设经验交流工作，6月14日，沈阳市发展改革委总工程师岳宇率沈阳市沈阳现代化都市圈建设工作领导小组办公室一行，来蓉调研成德眉资同城化发展暨成都都市圈建设工作。这是继2022年沈阳市政协主席、党组书记于学利带队来蓉调研考察后，沈阳市第二次来蓉考察学习成都都市圈共建共享相关经验。', '当天上午，调研组一行通过座谈会，全面了解成都都市圈的工作推进机制、出台政策文件、重点领域经验做法等内容，并围绕产业协同、基础设施、科技创新、金融开放、人力资源、公共服务、生态环保等方面进行深入交流。', '下午，调研组一行参观了成德眉资同城化发展主题展示厅，从优化都市圈发展布局、加速推进基础设施同城同网、协同提升创新驱动发展水平、共建现代高端产业集聚区、提升开放合作水平、促进公共服务便利共享、推进生态环境共保共治、深化体制机制改革八个方面，进一步了解成德眉资同城化发展暨成都都市圈建设的具体举措和发展愿景。', '接着，调研组一行前往四川区域协同发展总部基地，从功能定位、功能分区、建设节点、保障措施等方面，详细了解四川区域协同发展总部基地运营情况，并前往成资协同创新中心，与入驻企业代表进行深入交流。', '最后，调研组一行前往成都科创生态岛，通过数字化、沉浸式科技体验，详细了解科创生态岛平台建设、科技成果转化、科技创新企业入驻等情况。', '是四川天府新区携手省内市（州）共同谋划建设的区域协同综合功能型平台，突破行政区域、工作领域、区域权责“三大边界”，集成协同招商、精准服务、开放合作、宣传推介、政务商务“五大功能”，已初步建成“市州驻蓉城市会客厅”“招商信息集聚地”“产业生态孵化器”，引入市（州）驻蓉机构、招商引资机构100余家入驻办公，开展商务洽谈、外事外经、商务接待等政务商务活动500余次。', '是以服务科技创新成果转化、产业建圈强链为重点，按照“线上+线下”一体规划的综合性科技创新成果转化聚集区，重点承载科创服务机构、科技创新平台、科技成果交易等综合服务的核心功能，促进更多科技成果在成都都市圈转移转化、科技服务资源共用共享。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>227</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>成都市人民政府关于印发成都市支持保障重点项目条政策措施的通知</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2019-08-20</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.chengdu.gov.cn/gkml/cdsrmzfbgt/qtwj/1613191574987055104.shtml</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['成都市人民政府关于印发成都市支持保障重点项目20条政策措施的通知 - 其他文件 - 信息公开目录 - 成都市人民政府办公厅信息公开目录', '各区（市）县政府，市政府各部门，有关单位： 《成都市支持保障重点项目20条政策措施》已经市委、市政府同意，现印发你们，请结合实际认真抓好落实。', '为进一步强化以项目为中心组织经济工作，促进资源要素向重点项目聚集、优惠扶持政策向重点项目聚焦，持续改善提升法治化、国际化、便利化、市场化营商环境，加快推进省、市重点项目建设，提升重点项目在全市经济社会发展中的引领和支撑作用，结合我市实际，制定如下政策措施。 一、优先保障重点项目用地需求 （一）保障重点项目用地需求。 以国土空间规划引领省、市重点项目向产业功能区集聚，产业功能区空间布局纳入市、区（市）县两级国土空间规划，省、市重点项目清单纳入规划附件进行重点保障。积极保障省、市重点项目用地需求，经“一图一表”审查后，省、市重点项目所需土地利用年度计划由市上统筹保障80%以上。全额保障省、市重点推进项目用地需求，全市每年确定100个战略性、功能性、支撑性重大项目为市重点推进项目，由市上全额保障土地利用年度计划；列入全省100个重点推进项目的，其年度用地计划省级安排70%、市级匹配30%。［责任单位：市规划和自然资源局、市发改委、市经信局，各区（市）县政府（含成都天府新区、成都高新区管委会，下同）（逗号前为牵头单位，下同）］ （二）实行重点项目地价优惠。 省、市重点项目所需用地，采取出让方式供地的，可按不低于市场评估价的70%确定出让起始（叫）价；采取行政划拨供地的，可按不低于划拨供应价的70%确定地价；采取租赁方式供地的工业项目，可按不低于年均工业用地出让指导价的50%确定土地年租金起始价。积极支持试点区域探索新型工业及产业用地分类，针对不同用地类型，执行差异化地价。［责任单位：市规划和自然资源局，市经信局、市商务局、各区（市）县政府］ （三）鼓励重点项目盘活存量用地。 支持工业企业利用低效工业用地建设项目，新建的工业类省、市重点项目利用存量低效工业用地开发建设的，可按不低于工业用地出让指导价的70%确定出让起始（叫）价；已竣工的工业类省、市重点项目利用自有土地技术改造、转型升级、深度开发的，不再增收新增工业厂房土地价款。调动区（市）县利用低效工业用地实施重点项目积极性，利用本区域低效工业用地实施省、市重点项目的，按1.5倍计算区（市）县年度低效工业用地盘活目标完成数，并在工业项目年度用地计划安排上予以倾斜。 支持服务业项目盘活存量用地，利用服务业功能区内存量土地实施再开发并整体持有物业的省、市重点项目，可按不低于“双评估”价差的55%计收土地出让价款；利用周边零散土地资源实施片区整体开发的省、市重点项目，可按不低于市场评估价的65%确定出让起始（叫）价。［责任单位：市规划和自然资源局，市经信局、市商务局、各区（市）县政府］ （四）缩短重点项目供地周期。 优化弹性年限出让供地审核流程，列入省、市重点项目年度计划的工业和物流业项目申请50年供地的，原则上予以支持，加快审批。开通重点项目用地报征绿色通道，自然资源部门对省、市重点项目确定用地服务专员，加快项目组件报征。加快重点项目征地拆迁，区（市）县政府确定省、市重点项目拆迁专班，严格按照与投资方约定时间，开展征地拆迁安置，及时挂牌供地。［责任单位：市规划和自然资源局，市发改委、市经信局、市口岸物流办、各区（市）县政府］ 二、提升财政金融服务重点项目能力 （五）财政资金支持保障重点项目。 保障重大项目前期工作经费，每年市本级安排不低于3000万元预算内资金，支持市级有关部门（单位）、各区（市）县和66个产业功能区围绕重大战略、重要规划，策划生成重大项目，推进项目前期工作。推动财政资金向省、市重点项目集聚，积极争取中央和省上各类财政性资金，优先安排市预算内资金支持省、市重点项目建设，根据项目进度和实际需求及时、足额拨付到位各类财政性资金。［责任单位：市财政局、市发改委，市政府有关部门、市属国有企业、各区（市）县政府］ （六）提升政府投资基金服务重点项目效率。 开辟“政府投资基金服务绿色通道”，支持省、市重点项目使用成都市产业引导股权投资基金、成都发展基金等政府投资基金，采用“一事一议”方式加快决策。建立政府投资基金市场化退出机制，增强基金循环使用效率，推动基金惠及更多重点项目。［责任单位：市财政局、市国资委、市金融监管局，市政府有关部门、市属国有企业、各区（市）县政府］ （七）构建重点项目“5+2”投融资服务体系。 构建服务省、市重点项目“募、投、管、退”全链条的投融资服务体系，着力打造科创通、盈创动力、农贷通、天府融通、创富天府5大投融资服务平台，以及地方金融监管和信用信息共享2大金融生态保障平台，激发民间投资活力、持续扩大有效投资。建立重点项目融资培训制度，分享案例、进行融资诊断，促进互学互助，推广成功融资模式。［责任单位：市金融监管局，市政府有关部门、市属国有企业、各区（市）县政府］ （八）鼓励重点项目运用多层次资本市场融资。 对成功挂牌上市、境内外发行债券融资的项目业主及时兑现财政性奖励资金。开展“交子之星综合金融服务园区行”等活动，促进省、市重点项目与金融机构高效对接。优先支持省、市重点项目使用优质主体企业债券、永续债券、绿色债券、市场化债转股、战略性新兴产业专项债券等品种进行融资。［责任单位：市金融监管局、市财政局、市发改委，市政府有关部门、市属国有企业、各区（市）县政府］ （九）建立重点项目常态化投融资对接机制。 实施“项目清单＋城市合伙人”机制，按双月推介发布省、市重点项目融资需求清单，吸引金融机构和社会投资方以多种途径和方式参与投资建设。推行产业功能区“牵头行+主办行”机制，为产业功能区内省、市重点项目量身定制融资服务；向项目业主定期发布“全市重要金融机构融资产品一览表”，向金融机构定期发布“产业功能区亩产效益门槛导则”，为入驻园区项目增信、提升园区金融服务水平。提供“重点项目融资专家团”专业融资服务，积极协调在蓉银行、保险、券商等金融机构，提前介入项目策划生成、资产质量评估、资金需求分析、融资方案研究等工作，为省、市重点项目提供优质优价服务。鼓励金融机构服务重点项目，每年对服务情况进行测评，对测评优异的金融机构和社会投资方授予“重点项目融资先进单位”，并在政府财政性资源配置中予以倾斜。［责任单位：市发改委、市财政局、市金融监管局、人行成都分行营管部，市政府有关部门、市属国有企业、各区（市）县政府］ 三、围绕重点项目集聚人才资源 （十）强化重点项目人才招引集聚。 深入推进“人才+项目+资本”协同引才模式，将省、市重点项目急需紧缺人才需求动态纳入《成都市人才开发指引》。面向全球发布重点项目人才需求清单和招揽人才，组织实施重点项目“蓉漂”人才荟、“感知成都行”等系列活动，每年暑期邀请国内外知名高校学生来蓉考察学习重点项目，组织重点项目企业开展人才专场招聘活动。［责任单位：市委组织部（市人才办）、市人社局，市财政局、团市委、市投促局、各区（市）县政府］ （十一）强化重点项目人才培育培养。 积极推动企业家与城市共成长，根据重点项目业主实际需求，通过交流座谈、集中宣讲、园区观摩、赴外考察等形式，促进在蓉企业家与66个产业功能区密切合作，培养一批熟知城市发展规划、善于现代公司治理、掌握资本市场运作、持续深耕蓉城的企业家。强化重点项目高技能人才培训，重点项目业主在职员工通过培训取得技师、高级技师资格证书的，给予企业或培训机构1000元至6000元每人的职业培训补贴。［责任单位：市经信局、市人社局、市教育局、市投促局、市财政局，市农业农村局、市商务局、各区（市）县政府］ （十二）提供重点项目人才优质服务。 鼓励省、市重点项目急需的高端人才在蓉安家落户，经所在区（市）县政府（管委会）认定后，其购房可不受户籍、社保缴纳时限的限制。符合条件的省、市重点项目急需高层次人才，及时发放“蓉城人才绿卡”，提供“一对一”政务服务、成都银行个人贷款利率优惠、市属指定三甲医院“优先窗口”服务、享受子女入园入学等相关政策。［责任单位：市委组织部（市人才办）、市住建局，市网络理政办、市金融监管局、市卫健委、市教育局、各区（市）县政府］ 四、着力强化重点项目支持服务 （十三）聚焦聚力提升重点项目含金量。 每年确定100个支撑高质量发展的全市重点推进项目，作为重中之重给予要素匹配和支持服务。重点推进项目原则上从全市重大功能性项目和重大产业化项目中筛选，功能性项目要具有补齐城市发展短板、增强“五中心一枢纽功能”、引领“东进、南拓、西控、北改、中优”主体功能区战略、促进美丽宜居公园城市加快建设等重大战略意义；产业化项目要聚焦“5+5+1”现代产业体系，具有加快构建产业生态圈、培育创新生态链、建设产业功能区等龙头示范作用。申报国家重大项目、省重点项目，原则上从市重点项目，特别是市重点推进项目中筛选。［责任单位：市发改委，市政府有关部门、市属国有企业、各区（市）县政府］ （十四）加快推进重点项目前期工作。 市重点项目服务室对省、市重点项目全面实行“项目长服务制”；各区（市）县政务服务部门设立重点项目服务室，对省、市重点项目实行“首席服务制”，提供从立项到竣工投产的全程高质量服务。组织开展省、市重点项目业主专题培训，对项目前期工作全流程进行案例式辅导。实行省、市重点产业化项目“承诺制”，推行产业功能区工程建设项目综合性“区域评估”，促进项目尽早开工建设。［责任单位：市发改委、市住建局、市规划和自然资源局、市生态环境局、市网络理政办，市政府有关部门、各区（市）县政府］ （十五）提升“互联网+重点项目”管理能力。 依托成都市网络理政平台，整合项目管理资源，实现集规划生成、项目储备、审批服务、远程调度、问题协调、效能评价于一体的重点项目全生命周期“线上+线下”管理。通过政务服务微信公众号、12345市长公开电话、重点项目市领导邮箱“直通车”，多渠道收集、协调、解决重点项目反映的问题和诉求。［责任单位：市发改委、市住建局、市网络理政办，市政府有关部门、市属国有企业、各区（市）县政府］ （十六）充分利用社会信用体系为重点项目服务。 扰乱省、市重点项目建设秩序、侵害重点项目业主权益等行为将纳入公共信用信息系统，并运用于招标投标、政府采购、银行信贷等领域。强化政务诚信建设，开展履约情况督查，确保对省、市重点项目业主承诺的服务事项及时兑现、落实到位，对执行不到位的限期整改落实。［责任单位：市市场监管局、市投促局，市发改委、市财政局、人行成都分行营管部、市住建局、市交通运输局、市水务局、市经信局、市规划和自然资源局、各区（市）县政府］ 五、着力创造重点项目良好投用条件 （十七）提早完善重点项目周边配套。 限期完善重点项目硬件配套，省、市重点项目竣工投用前1个月，区（市）县政府及产业功能区管委会要按承诺完成周边交通、水电气讯、物流通道等生产所需的配套建设；由企业代建的市政基础设施，区（市）县有关部门应于工程竣工6个月内完成工程承接、后续运营等手续。积极提供项目投用相关服务，协调办理投运相关手续，及时提供金融财务、法律公证、检测认证等“一站式”中介服务。［责任单位：各区（市）县政府］ （十八）大力支持重点项目创新创造。 增强创新平台及重大科技基础设施项目支持力度，产业功能区内投资建设的重大基础科学研究平台、前沿技术创新平台、科技成果转化平台、产业创新发展平台等，享受市重点项目支持政策和服务；新获批的国家级重点实验室、工程研究中心、企业技术中心等，享受市重点推进项目支持政策和服务。充分发挥政府投资基金引导作用，设立面向创新创业和成果转化的各类股权投资基金，引导各类资源向创新创造集聚。完善政府首购、订购创新产品制度，促进重大装备首台（套）、新材料首批次、软件首版次市场化应用，按照采购金额20%（生产企业、应用企业各10%）给予最高500万元补贴。促进省、市重点项目科技成果在成都知识产权交易中心等技术交易市场交易，给予成果输出方最高50万元、吸纳方最高100万元补助。实施“成都造·中国行”等科技创新产品推介活动，强化省、市重点项目产出产品的宣传和推广，推动科技创新产品打开国内外市场。［责任单位：市发改委、市财政局、市经信局、市科技局、市商务局、市农业农村局，市政府有关部门、市属国有企业、各区（市）县政府］ （十九）保障重点项目优质能源服务。 落实能源行业增值税改革，抢抓国家降低成品油价格、一般工商业电价、天然气基准门站价格、天然气跨省管道运输价格政策机遇，采取“一事一议”方式，推动售电公司对省、市重点项目实施优价供电，城镇燃气经营企业对省、市重点项目实施优价供气，切实将改革红利让利于用户。支持省、市重点项目参与直购电交易、优先享受富余电量扶持政策；支持省、市重点项目天然气转供改直供，缩短天然气预付款和结算周期；着力提升省、市重点项目获得电力、燃气、用水等能源供应便利度，开通水电气绿色报装通道，压缩报装时间、降低报装成本；全面落实客户经理负责制，实现“一对一”服务，优化提升供电供气服务质量。［责任单位：市经信局、市发改委、市水务局，市政府有关部门、市属国有企业、各区（市）县政府］ （二十）持续优化重点项目建设环境。 定期开展重点项目支持保障措施落实情况满意度测评，听取省、市重点项目业主意见和建议，测评结果纳入全市营商环境综合考评体系。将省、市重点项目工作纳入全市年度目标管理，实施“月通报、季拉练、年考核”，每年市政府通报表扬“全市重点项目工作先进集体和先进个人”，市重点办按项目投资体量、年度投资贡献、项目推进速度等情况，评选年度“龙头带动项目”“投资贡献项目”和“高效建设项目”。［责任单位：市网络理政办、市发改委，市政府有关部门、各区（市）县政府］ 本政策措施自印发之日起30日后施行，有效期5年。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>227</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>合力谱写双城记建强都市圈推动成渝地区双城经济圈建设取得新的进展</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2021-12-18</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c136804/2023-12/11/content_abfb0b270ddc47e78a12cd58395f3176.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['合力谱写“双城记” 建强都市圈 推动成渝地区双城经济圈建设取得新的进展-成都市人民政府', '为落实成渝地区双城经济圈建设重大决策部署和川渝党政联席会议工作要求，合力谱写“双城记”、建强都市圈，12月17日至18日，成都市党政代表团前往重庆市考察学习交流。考察期间，中共中央政治局委员、重庆市委书记陈敏尔，市委副书记、市长唐良智会见了四川省委常委、成都市委书记施小琳，市委副书记、市长王凤朝一行，并共同参加“1+5”合作协议签约仪式。', '唐良智、王凤朝介绍有关情况。重庆市委副书记吴存荣，成都市人大常委会主任李仲彬、市政协主席张剡、市委副书记谢瑞武参加有关活动。', '陈敏尔、唐良智代表重庆市委、市人大常委会、市政府、市政协欢迎成都市党政代表团来渝，向四川省及成都市长期以来对重庆发展的关心支持表示感谢。陈敏尔说，习近平总书记亲自作出推动成渝地区双城经济圈建设的重大战略决策，为新时代成渝发展提供了重大战略机遇。成渝“一家亲”，山水同源、人文同脉、发展同向。随着双城经济圈建设的深入推进，成渝交往更加密切、合作更加紧密。成都在经济社会发展中许多好经验好做法，值得重庆学习借鉴。我们要进一步提高政治站位、战略站位，深入学习贯彻党的十九届六中全会精神和中央经济工作会议精神，全面落实成渝地区双城经济圈建设规划纲要，携手谱写“双城记”、合力建设“经济圈”，加快建设带动全国高质量发展的重要增长极和新的动力源。', '陈敏尔强调，推动成渝地区双城经济圈建设，要提升“双核”能级、增强辐射功能，更好服务和融入新发展格局，为全国发展大局作出新的更大贡献。要着力推进交通通道互联互通，加快实施成渝中线高铁等一批标志性项目，共同打造世界级机场群，积极拓展5G等通信通道，不断提升内联外通水平。要着力推进产业互联互通，强化先进制造业、现代服务业协同发展，持续完善产业链供应链协作格局，共同打造具有国际竞争力的世界级现代产业集群。要着力推进城市资源互联互通，优化城市空间布局，推动重庆主城都市区和成都市相向发展，辐射带动周边地区发展。要着力推进城市功能互联互通，强化金融要素集聚，共建西部金融中心，扩大全方位高水平开放，推动区域合作和对外开放取得更大成效。要着力推进公共政策互联互通，加强就业、科技、教育、文化、医疗卫生等共建共享，增加优质公共产品和服务供给，持续提高人民群众获得感、幸福感、安全感。', '施小琳在讲话中说，按照四川省委、省政府要求，我们此次前往重庆考察学习交流，贯彻川渝党政联席会议第四次会议精神，着眼融入服务新发展格局、落实碳达峰碳中和目标、激发内生动力、提升群众幸福感获得感、推动战略实施成势见效，进一步在做强“双核”、联动“双圈”、融入“双循环”中落实成都任务。施小琳代表成都市委、市人大常委会、市政府、市政协对重庆长期以来给予的大力支持表示感谢。她说，重庆和成都山水相依、文脉相通、人缘相亲，交往融合历史源远流长。进入新时代，以习近平同志为核心的党中央着眼经略西部腹地、完善区域布局、促进协同发展，作出建设成渝地区双城经济圈的重大战略决策，为成渝地区协同联动、打造带动全国高质量发展的重要增长极和新的动力源擘画了发展蓝图。合力谱写“双城记”、建强都市圈，推动成渝地区双城经济圈建设走深走实，既赋予了成都重大职责使命，也是城市发展的重大战略机遇。', '施小琳说，这次重庆之行，是深化党史学习教育的初心感悟之行，是融入和服务国家战略的对接落实之行，是对标先进的学习取经之行。下一步，成都将深入学习贯彻党的十九届六中全会精神，贯彻落实川渝党政联席会议工作部署，把学习考察的成果转化好，把协议确定的事项落实好，持续推进共建国际性综合交通枢纽、世界级先进制造业集群、西部科学城、西部金融中心、现代化国际都市取得新成果，为成渝地区双城经济圈建设作出积极贡献。', '在成渝两市领导见证下，重庆市与成都市签署了“1+5”合作协议。其中，两地政府签署《落实成渝地区双城经济圈建设重大决策部署唱好“双城记”建强都市圈战略合作协议》，内容涉及国际性综合交通枢纽、世界级先进制造业集群、西部科学城、西部金融中心、现代化国际都市等重点领域；两地有关部门和管委会签署《共同助推西部科学城建设合作协议》《加强双核创新联动推进共建具有全国影响力科技创新中心合作协议》《共建世界级先进汽车产业集群合作协议》《共建西部金融中心合作协议》《携手共促巴蜀文化旅游走廊建设合作协议》等5项合作协议，进一步推动成渝务实合作、双城联动、协同发展。', '在渝期间，成都市党政代表团还前往重庆市规划展览馆、红岩革命纪念馆、果园港国际多式联运枢纽、长安汽车全球研发中心、重庆礼嘉智慧公园、重庆数字经济展示中心等地，学习考察重庆城市规划、科技创新、产业发展、对外开放、红色资源保护传承等方面的经验做法。', '周五中午的成都东客站，一支40余人的队伍带着使命与期许，踏上了开往重庆的列车，这是由成都市委书记带队赴重庆考察学习的成都党政代表团。', '进入新时代，以习近平同志为核心的党中央着眼经略西部腹地、完善区域布局、促进协同发展，作出建设成渝地区双城经济圈的重大战略决策，为成渝地区协同联动、打造带动全国高质量发展的重要增长极和新的动力源擘画了发展蓝图。', '从2020年1月中央财经委员会第六次会议部署推动成渝地区双城经济圈建设，到2020年10月中央政治局会议审议《成渝地区双城经济圈建设规划纲要》，一年之内完成顶层设计，充分体现了以习近平同志为核心的党中央对川渝两省市的深切关怀和殷切期望，为新时代成渝地区发展提供了根本遵循和重要指引。', '今年10月，《成渝地区双城经济圈建设规划纲要》正式印发，为当前和今后一个时期成渝地区合作发展，明确了“任务书”和“施工图”。', '第四次的召开，是在今年的12月14日。会上指出，明年是成渝地区双城经济圈建设从夯基垒台迈向整体成势的关键一年。', '考察学习之行，是从重庆市规划展览馆、红岩革命纪念馆这两个点位拉开序幕的。12月17日傍晚，结束了两个点位的考察学习后，成渝进行了一场签约。', '这也是成都党政代表团此行重要的成果。在重庆市的渝州宾馆，重庆市与成都市签署了“1+5”合作协议。其中，两地政府签署《落实成渝地区双城经济圈建设重大决策部署唱好“双城记”建强都市圈战略合作协议》，内容涉及到国际性综合交通枢纽、世界级先进制造业集群、西部科学城、西部金融中心、现代化国际都市等重点领域。', '两地有关部门和管委会签署了5个双核联动重点领域合作协议——《共同助推西部科学城建设合作协议》《加强双核创新联动推进共建具有全国影响力科技创新中心合作协议》《共建世界级先进汽车产业集群合作协议》《共建西部金融中心合作协议》《携手共促巴蜀文化旅游走廊建设合作协议》。', '真听真看真交流，才能有真感触。这是成都党政代表团成员在考察中，不断感慨的一句话。所到之处，皆有启发。', '就拿第一站来说，在重庆市规划展览馆新馆，哪怕成都党政代表团的成员们并不陌生重庆市的规划，但一路看一路听，那些重庆规划背后的思路，还是让人深感触动。', '比如广阳岛的规划，就很有故事。生态修复，是广阳岛如今的关键词，也是广阳岛最牛的地方。数年前，那里一度曾规划了300万平方米房地产开发量。但2017年，重庆市委、市政府果断踩下大开发“急刹车”，将其定位为“长江风景眼，重庆生态岛”，那里还绿于民，如今是生态文明之窗,是长江风景之眼。代表团一路听一路看，细细咀嚼，那样一个沉浸式体验生动表达“山水林田湖草生命共同体”理念的岛，那样“大手笔”的规划背后，是重庆市在深入践行习近平生态文明思想。这对成都，同样能带来启发与思考。', '而在考察学习长安汽车全球研发中心时，启发更多来自于“自主创新”。截至12月17日，也就是考察学习之行的首日，长安汽车拥有的核心技术已达到1100余项，专利6255件。面对展示区的新款车型，代表团的成员们拍照还不算，纷纷坐进驾驶室里体验了一把。工作人员甚至“秀”了一把全新的手机自动泊车技术。', '而创新之外，更让人感叹的是，经过数十年发展，重庆汽车产业已形成以长安系为龙头，10多家整车企业为骨干，上千家配套企业为支撑的“1+10+1000”优势产业集群供应链，本地配套率已超过了70%。成都提出大力实施产业建圈强链行动，在一周前，刚刚召开过成都市产业建圈强链工作领导小组会。而重庆汽车产业的优势产业集群供应链，正可借鉴。', '紧锣密鼓的考察学习中，有一次“放缓”。17日晚的签约仪式后，成都党政代表团继续出发，去到了下一个点位，弹子石老街。江边的观景台上，重庆夜色醉人。独有的灯饰灯彩，勾勒起重庆山水的靓丽颜色。', '吹着江风，看着江景，成都党政代表团的成员们暂时慢了下来。他们坐在观景台上的桌旁，一边喝茶一边观景，与重庆一方轻松摆起了龙门阵。', '龙门阵的主题，依旧是合作。有眼下的，有未来的。而这样的龙门阵，未来只会越来越多。（记者 王垚）', '■《西部（重庆）科学城管理委员会 西部（成都）科学城管理委员会共同助推西部科学城建设战略合作协议》: 根据《协议》，双方将发挥创新平台优势和引领示范作用，加快形成“基础科研—技术攻关—成果转化—产业发展”的全链条创新体系，成为成渝地区建设具有全国影响力的科技创新中心的核心支撑。共建成渝科创走廊，打造引领西部、辐射全国、面向全球的“科学高峰”和“科技高地”。围绕共建共享重大科技基础设施，推动重庆高新区直管园、四川天府新区成都科学城协同布局大科学装置、国家（重点）实验室、技术创新中心等重大科技创新平台。协同推进高校院所交流互动，构建高等学校协同创新体系。开放共享科技成果转化平台，探索科技成果跨区域转移转化机制。全力打通跨区域投融资通道，合作共建多元化、跨区域的投融资体系。 ■《加强双核创新联动推进共建具有全国影响力的科技创新中心合作协议》: 根据《协议》，双方将聚焦增强成渝地区科技创新、协同创新、产业创新能力，实现资源共享、项目共促、政策共通、成果共享，合力打造全国重要的科技创新和协同创新示范区，引领成渝地区建设具有全国影响力的科技创新中心。 此次合作事项包括协同共建成渝综合性科学中心、协同共建西部科学城、共同争创成渝国家技术创新中心、强化创新链产业链协同、协同推进科技人才共引共培共用、推动两地科技金融融合发展、推动成渝科技资源开放共享、协同推进科技成果转移转化、联动开展国际科技合作交流9项。 此外，双方还将开展关键核心技术联合攻关；探索建立户口不迁、关系不转、身份不变、互聘互用的科技人才柔性流动机制等。 ■《共建西部金融中心合作协议》: 西部金融中心如何建设？双方表示将在五大方面展开深入合作： 共同打造具有竞争力的金融机构体系，包括协同支持境内外大型金融控股集团、银行集团、保险集团在成渝地区布局区域总部，设立后台服务中心、资产管理中心、产品研发中心等功能性中心，探索建立成渝地区双城经济圈联合授信机制等；共同构建具有区域辐射力的金融市场体系，推动在担保、不良资产处置、创业投资和私募股权投资等领域跨区域合作；共同构建支持高质量发展的现代金融服务体系，推动成渝两地在金融科技认证、标准化服务等方面协同发展等；共同建设法治透明高效的金融生态体系，包括协同构建金融监管协调机制；共同推动金融基础设施互联互通，如推动金融综合统计数据共享，共同提升金融统计数据处理能力等。 ■《推进成渝地区双城经济圈建设携手共促巴蜀文化旅游走廊建设战略合作协议》: 双方将发挥各自优势，携手推进文化旅游协同发展、融合发展、高质量发展，共促巴蜀文化旅游走廊建设，推进成渝地区双城经济圈建设。 据悉，突出重庆成都作为成渝地区双城经济圈建设的极核地位，双方将围绕打造具有全球影响力的巴蜀文化旅游走廊，配合文化和旅游部牵头编制巴蜀文化旅游走廊建设规划并协同抓好落地实施。推动文化旅游产业交流合作，共同推动两市文化旅游的行业组织和企业交流与合作；共同开发和培育旅游精品线路，联合开发和培育串联重庆、成都两市的精品旅游线路；推进公共文化服务便民共享，优质公共文化服务项目共建。 ■《共建世界级先进汽车产业集群战略合作协议》: 双方将以新能源和智能网联汽车为主攻方向，在规划协同、技术攻关、产业配套等方面展开合作，共同培育世界级汽车产业发展集群，计划到2025年，两市汽车产量将达到300万辆，实现产值6000亿元。 按照《协议》，成渝两市将在顶层设计、技术创新、产业配套、示范应用、市场拓展和平台互动等6个方面展开合作。其中，在顶层设计方面，两地在制订汽车产业规划中体现协同发展思路、目标、路径、重点任务和保障措施等；在技术创新方面，将围绕新能源汽车“三电”系统、燃料电池电堆、自动驾驶系统等领域，加强关键共性技术攻关；在产业配套方面，将加强汽车产业信息互联互通，促进产业链、供应链互补互强等。（重庆日报记者 黄光红 张亦筑 韩毅 夏元 成都日报记者 陈泳）', '■《西部（重庆）科学城管理委员会 西部（成都）科学城管理委员会共同助推西部科学城建设战略合作协议》:']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>227</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>成都企业组团出海首战告捷</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-12-12</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c169603/2023-12/11/content_3e289fc9057f4da8b0aa4b06a083bced.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['记者12日获悉，首批组团“出海”的成都企业代表中，有一组是由高新区特新企业家俱乐部领衔。俱乐部带领着代表们走进全球顶尖的精密制造工厂考察学习，并洽谈签约，到达首日便有两家成都企业拿下合计价值1200万欧元的意向订单。', '德国时间12月9日，由成都企业代表组成的2022专精特新赴德国参访团从法兰克福出发，前往世界著名研究型大学维尔兹堡大学，开展参观访问、现场学习，并与大学合作企业直接对口洽谈。', '据介绍，这场合作洽谈双方就中外商业技术合作、国际主流产业市场拓展、行业细分领域的技术专精等方面展开了深度交流，畅所欲言、收获颇丰。俱乐部牵头欧洲AIFC协会与成都天创精密工业有限公司、欧洲顶峰公司与成都晶宝时频技术股份有限公司进行了合作备忘录的签署，拟将通过德国公司推进经销商/代理商网络体系建立、标杆工厂客户挖掘等工作领域展开磋商，并制定协同配合工作计划。最终，成都天创拿到了700万欧元的采购意向订单，成都晶宝拿到了500万欧元的采购意向订单，意向采购金额共计1200万欧元。', '专精特新企业家俱乐部CEO金石告诉记者，该俱乐部还与欧洲华德公会双向挂牌，授权对方在各自领域开展相应业务，为今后长期合作打下基础。', '记者了解到，参访团接下来将与德国巴登-符腾堡州负责商务、产业服务的政府部门开展合作洽谈，“通过周一的洽谈会，我们希望建立双边合作，把本土的企业‘拓’过去，把他们的好东西引进来。”正在为洽谈会做最后准备的金石认为，这是一次极为重要的洽谈会，更是一次“抢订单、拓市场”的好机会。（成都日报锦观新闻记者 黄雪松 吴怡霏）']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>227</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>施小琳会见洛阳市党政代表团陈志勇参加会见</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-11-02</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c167483/2023-12/08/content_2c76913931b04d408e9a69574125fb22.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['11月2日，四川省委副书记、成都市委书记施小琳会见了河南省委常委、洛阳市委书记江凌率领的洛阳市党政代表团一行。', '施小琳代表成都市委、市政府对代表团一行表示欢迎，并简要介绍了成都经济社会发展情况。她说，当前成都正深入学习贯彻党的二十大精神和习近平总书记来川视察重要指示精神，认真落实党中央和四川省委部署要求，以成渝地区双城经济圈建设为总牵引，加快建设践行新发展理念的公园城市示范区，重点抓好高水平对外开放、智慧城市建设、营商环境优化、文化传承保护等工作，推动实现高质量发展、高品质生活、高效能治理。成都和洛阳同为国家历史文化名城，都拥有厚重的文化底蕴、优越的交通区位和良好的产业基础，希望双方进一步加强交流合作、相互借鉴、协同联动，共同在推进中国式现代化建设中实践探索，推动经济社会发展和民生福祉取得新成果。', '江凌对成都近年来经济社会发展取得的成就表示祝贺。他说，此次在成都考察学习，收获满满，很受启发。当前，洛阳正深入学习贯彻习近平新时代中国特色社会主义思想，认真落实党中央、河南省委部署要求，聚焦“建强副中心、形成增长极”，在产业发展、城市提质、乡村振兴、科技创新、文旅融合、基层治理、干部队伍建设等方面持续发力，加快推进现代化洛阳建设。希望与成都共同创新合作机制、拓展合作领域，努力实现优势互补、共赢发展，推动两地合作交流向更高水平迈进。', '在蓉期间，洛阳市党政代表团前往望平坊、金沙遗址博物馆、桂溪生态公园、成都规划馆、宽窄巷子、东郊记忆·成都国际时尚产业园等地，实地考察成都文旅产业发展、城市更新等方面工作。', '成都市领导辜学斌、陈志勇，洛阳市领导王军、张玉杰、徐超文参加会见。（成都日报锦观新闻记者 张家华）']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>227</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>施小琳会见广安市党政代表团</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-05-08</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c169603/2023-12/12/content_9c8323d35d224abeb0a1321f780bd6b3.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['5月8日，省委常委、成都市委书记施小琳会见了广安市委书记张彤率领的广安市党政代表团一行。成都市政协主席张剡参加。', '会见前，两地共同举办了成都·广安生物医药产业协作研发基地开园暨企业签约仪式。副省长郑备，成都市委副书记、市长王凤朝出席。', '施小琳在会见中表示，当前，成都正深入学习贯彻党的二十大精神，认真落实党中央和省委决策部署，全力唱好“双城记”、建强“都市圈”、建好“示范区”、办好“大运会”、提质“幸福城”，同时大力实施产业建圈强链构建现代化产业体系，依托“两场一港”优势提升对外开放能级，持续推进国际消费中心城市建设，推动实现高质量发展。成都的发展，离不开兄弟市州的大力支持。广安是小平同志家乡，也是川渝合作的“桥头堡”，产业基础良好、历史文化悠久，与成都长期保持着良好合作关系。希望双方围绕落实省委“四化同步、城乡融合、五区共兴”发展战略，发挥各自优势，找准工作结合点，相互交流、相互学习、相互联动，为谱写好中国式现代化四川篇章作出贡献。', '张彤代表广安市委、市政府向成都长期以来对广安工作的关心和支持表示感谢。他说，近年来，成都全面贯彻习近平总书记对四川及成都工作系列重要指示精神，推动高质量发展、创造高品质生活、实现高效能治理，影响力、美誉度不断提升。当前，广安紧紧围绕省委战略部署，抢抓成渝地区双城经济圈建设战略机遇，深度融入“双核双圈”，希望成都一如既往关心支持广安，携手推动蓉广合作走深走实。', '在蓉期间，广安市党政代表团还前往天府国际生物城、四川天府新区规划厅、兴隆湖、天府国际会议中心等地，考察学习生物医药产业发展、公园城市规划建设等领域经验做法。', '成都市领导曹俊杰、刘玉泉、杜海波、王志华、王平江，四川天府新区管委会主任陈历章，成都高新区管委会主任余辉，广安市领导张力、单木真、陈伟、张伟、刘襄渝、胡彦军、陈泽斌、杨世章、王瑛、米亮参加相关活动。（成都日报锦观新闻记者 张家华）']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>227</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>二十大代表风采陈望慧种下玫瑰产业带富千万家</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-10-06</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c152641/2023-12/11/content_e7d19c40bc494963b1975bbc1d497391.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['9月25日，陈望慧在四川阿坝州小金县新桥乡共和村的玫瑰园中与村民交流。新华社记者 刘琼 摄', '在川西高原大山深处的四川阿坝州小金县达维镇冒水村，如今玫瑰产业红红火火。多年来，冒水村党支部书记陈望慧，带领乡亲种植玫瑰花，发展玫瑰产业，不仅让全村实现了脱贫致富，更是带动了46个村、近2万人增收，被村民亲切地称作“玫瑰姐姐”。', '冒水村平均海拔近3000米，这里虽然风光旖旎，碧蓝天空下群山青翠，但自古以来，土地贫瘠，物产匮乏，且因山大沟深，交通也十分不便。当地百姓只能靠种植产量和产值都很低的土豆、胡豆等作物，过着贫困的生活。这让曾是冒水村村干部的陈望慧十分苦恼。', '9月25日，陈望慧在四川阿坝州小金县新桥乡共和村的玫瑰园中查看玫瑰长势。新华社记者 刘琼 摄', '2010年的一天，陈望慧赶到一位老乡家，察看被野猪拱坏的土豆地。在一片狼藉中，她无意间瞥见几株野玫瑰完好无损。陈望慧思忖，在如此苦寒之地，野玫瑰竟可以顽强生长，那可不可以利用它为当地百姓带来收益呢？', '陈望慧通过查找资料得知玫瑰花是个“宝”，不仅可作食材，也可药用，玫瑰精油还被誉为“液体黄金”，价格不菲。“当时看到这些信息时，我激动得把桌子上的茶杯都打翻了。”陈望慧说。', '山东、甘肃、云南……为了寻找能让村里脱贫的玫瑰，大半年时间里，陈望慧的足迹遍布七八个省份，行程上万公里。考察、学习期间，她历经风雨，也有过独自一人卧病在床的无助。作为当地致富带头人，她对自己经营的餐厅和酒店完全无暇顾及。', '9月25日，陈望慧在四川阿坝州小金县新桥乡共和村与村民喻福良探讨种植经验。新华社记者 刘琼 摄', '2013年，冒水村一片片艳丽、飘香的玫瑰花，成为陈望慧执着和坚韧的最好回报。她带回的玫瑰品种优良，十分适宜当地生长；学习得来的先进种植技术，很快传播推广。', '今年66岁的小金县新桥乡共和村村民喻福良种了4亩玫瑰，现在亩产收入已经过万元。喻福良右腿有残疾，干不了重活儿，他对记者说，2015年在陈望慧带动下，他开始种植大马士革玫瑰，次年就收入了3700元。“玫瑰长得好看，我很喜欢，每天有空都来地里看看。”喻福良说。', '为了提升玫瑰附加值，陈望慧决定自己建加工厂。“我一咬牙将房子卖了，又借钱、贷款，建起了加工厂。”她说。', '在陈望慧带动下，冒水村牵头建成玫瑰产业基地扶贫车间。近3年来她优先聘用低收入家庭、残疾人等500余人次在工厂务工，为每个家庭增收8000余元，让群众得到了实实在在的实惠。', '瞄准山区贫困村脱贫短板，冒水村的实践引起关注。在当地政府脱贫攻坚系列政策支持下，冒水村附近的村民也逐渐种起了玫瑰，一朵朵“脱贫玫瑰”在大山深处绽放。如今，当地玫瑰产业带动了小金县13个乡镇的46个村种植玫瑰，目前有1.5万亩种植面积。陈望慧还有更长远的目标：要把玫瑰产业积极融入乡村振兴中，打造夹金山下的玫瑰小镇。', '“当选党的二十大代表，意味着沉甸甸的责任。”陈望慧说，“我要不断加强自身学习，补齐短板，更好地带动更多老百姓种好玫瑰，发展玫瑰产业，当好百姓的‘贴心人’。”（新华社记者高健钧、冯家顺）']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>227</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>蓉港高铁今日开跑</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-06-30</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c169603/2023-12/12/content_bcb4190407cf43db94128a3e70ff65ce.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['今日零时起，全国铁路实施三季度列车运行图。成都动车段将担当蓉港高铁、成都至北京间首开复兴号智能动车组等运输任务。', '列车运行图调整以后，原成都东—深圳北G2963/4次列车延长运行至香港西九龙，全程经由成贵客专、贵广客专、广深港高铁运行。其中，G2963次列车全程运行时间10小时07分，G2964次列车全程运行9小时45分。（成都日报锦观新闻记者 陈煦阳 魏捷仪）', '成都至香港高铁列车的开行，将搭建起成都至香港两座城市之间的快速客运通道，进一步推动川港两地人文经济交流。作为蓉港间的首班列车，今早开行的G2963次列车备受关注。列车乘务组作为面向旅客的“第一人”，他们眼中蓉港高铁又有哪些新鲜事？6月30日下午，记者采访了蓉港高铁首班列车乘务组，听他们揭晓蓉港高铁的三大亮点。', '长达10小时的旅程中，如何让旅客感觉宾至如归？面对内地和香港两个客群，应该如何做好服务？', '据了解，蓉港高铁乘务员队伍的选拔可谓“过五关斩六将”。成都局提前抽调骨干力量到已开行进港列车的单位考察学习，通过推荐、初试、复试三轮选拔了一批具备较好英语、粤语等语言基础的职工筹建了10个乘务班组，开展礼仪培训，规范仪容仪表、行为举止。', '作为连接两大世界知名美食之都的高铁，本次新开行的蓉港高铁在餐饮上也别出心裁。“我们考虑到大湾区旅客的饮食需求，特别增加了一些口味清淡的粤式菜肴。”蓉港高铁首班列车长周弋乔告诉记者，蓉港高铁的餐食充分考虑到了不同地区旅客的需求，不仅在口味上保证美味，还将不少餐食都融进了熊猫等成都元素。', '7月1日正式开行的蓉港高铁全程约10小时零7分钟，对于不少成都旅客来说，这样长时间的列车旅途并不多见。据了解，在此次蓉港高铁开行前，铁路成都局就已经选派了一批优秀的随车机械师前往香港西九龙进行调研，确保列车行驶安全无虞。', '记者从成都动车段了解到，为确保成都东至香港西九龙G2963/2964次列车顺利开行，成都动车段提前筹划、积极部署、重点安排，加强对担当动车组的状态检查，做好重点设备设施检修，针对南方高温天气做好动车组空调系统整备维护；提前安排专人前往香港西九龙站对动车组停放站台、作业标准、故障应急处置预案、风险项点进行调研并制定相应措施；选派政治过硬、技术业务熟练、责任心强、心理素质好的党员随车机械师担当值乘工作，全力保障动车组上线运行安全。', '“在开行之前，我们就已经集中培训了3个月，最终从57名司机中脱颖而出。”谈到自己即将到来的工作，蓉港高铁首班司机冯帅感慨万千。', '据了解，为了蓉港高铁的首发，司机团队做了多方面的准备。除了反复进行模拟驾驶和应急处置培训，也对可能发生的应急情况进行了预案准备，比如隧道内的非正常停车、上坡道停车后的启动等。在“跨越山海”的旅途中，他们将为乘客保驾护航。（成都日报锦观新闻记者 陈煦阳 魏捷仪 文/图）']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>227</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>范锐平主持召开市委常委会会议传达学习习近平总书记在中央全面依法治国工作会议上的重要讲话精神</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2020-12-02</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c142202/2023-12/11/content_75147c6e4562485c9d8c929a4bfe1879.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['范锐平主持召开市委常委会会议 传达学习习近平总书记在中央全面依法治国工作会议上的重要讲话精神-成都市人民政府', '范锐平主持召开市委常委会会议 传达学习习近平总书记在中央全面依法治国工作会议上的重要讲话精神', '■用习近平法治思想统揽全面依法治市工作，为市场主体提供稳定合理的发展预期，为市民群众创造公平公正的社会环境，为改革发展提供坚强有力的法治保障。', '■坚持“绿色、节俭、必须”的办赛原则，坚持市场化原则和商业化逻辑，实现办赛营城相统一、场馆建设需要与全民健身需求相结合。', '12月2日，省委常委、市委书记范锐平主持召开市委常委会会议，传达学习习近平总书记在中央全面依法治国工作会议上的重要讲话精神，研究成都贯彻落实措施。他强调，要深入学习贯彻党的十九届五中全会精神，坚定用习近平法治思想统揽全面依法治市工作，把法治作为城市长治久安的基础战略工程和未来发展的核心竞争优势，不断完善现代治理体系、提高依法治理能力，以高水平法治保障高质量发展。', '会议指出，中央全面依法治国工作会议全面总结了党的十八大以来我国法治建设取得的历史性成就，系统阐述了新时代中国特色社会主义法治思想，在党的历史和国家法治建设史上具有重要里程碑意义。要深入学习领会习近平法治思想的核心要义，把党的领导贯彻落实到法治建设的各方面全过程，压紧压实责任，建强工作队伍，全面提升法治建设规划引领力、地方立法服务保障力、法治政府建设推进力、司法审判社会公信力、法治社会建设统筹力和矛盾风险防控应对力，为市场主体提供稳定合理的发展预期，为市民群众创造公平公正的社会环境，为改革发展提供坚强有力的法治保障。', '会议强调，要聚焦“双循环”“双城记”“示范区”等重大战略机遇，高质量编制法治成都、法治政府、法治社会建设实施方案，扎实推进公园城市示范区、科技创新、社区发展治理等重点领域立法。要持续深化“放管服”改革，以法治吸引要素聚集、促进产业发展、服务项目建设、激发市场活力。要健全审判权检察权运行机制，有效破解“执行难”等难点问题。要深入推进市域社会治理现代化试点，推动社区发展治理和社会综合治理双线融合，完善公共法律服务体系。', '会议传达了中共中央政治局委员、国务院副总理孙春兰在专题听取四川省和成都市关于成都大运会筹备工作汇报时的讲话精神。会议强调，要坚持国际标准，抓紧推进场馆设施建设，专业高效推进各项筹备工作。要突出中国特色、青年特点办好重要活动，进一步优化创意设计和活动方案。要坚持“绿色、节俭、必须”的办赛原则，坚持市场化原则和商业化逻辑，实现办赛营城相统一、场馆建设需要与全民健身需求相结合。', '会议通报了范锐平率队到上海考察学习的相关情况。会议指出，要学习上海强化协同创新、提升策源能力、优化创新生态等经验做法，强化“两区一城”协同发展，高标准规划建设西部（成都）科学城，促进产业链创新链深度融合。要深化校院地企合作，建立“研发在高校、转化在城市”的协同合作、互利共赢模式，推动科技成果加速转化应用。要联动发展先进制造业和先进生产性服务业，大力构建以新经济为牵引的创新应用场景。要加快推进天府锦城、一环路市井生活圈等城市更新项目，深入开展锦江公园两岸空间形态提升及子街巷贯通改造，将沉浸式体验与策展型新零售商业相结合，连片培育新的消费场景和城市消费活力区。', '会议安排部署了12月份重点工作。会议强调，要深入学习宣传贯彻党的十九届五中全会精神，紧扣“六稳”“六保”任务和“两个继续保持”目标，继续深化项目招引攻坚行动，加大消费场景营造和消费业态创新力度，深入思考谋划明年开局工作，加紧策划启动一批支撑性、功能性、战略性项目。要抓紧抓实抓细常态化疫情防控，坚持人物同防、多病共防，强化精准防控、专业防控。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>227</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>开展九方面合作成都青白江携手德阳广汉助推成都都市圈建设</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2024-05-16</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c137429/2024-05/20/content_0efcaced8e8a46afb4eb18fd3fcf33bc.shtml</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['“圈圈儿”获悉，德阳广汉市党政代表团日前赴成都青白江区考察学习，并围绕建强动能更充沛的现代化成都都市圈签订《深入推进区域合作协议》（简称《协议》）。双方将在开放平台共享、规划衔接融合、配套设施建设、产业联动发展、文化旅游发展、生态环境治理、公服配套共享、社会治理协作、人才交流合作等各方面开展多层次全方位互利互惠合作，共同打造成德临港经济产业带合作典范。', '抢抓打造亚蓉欧国际门户枢纽契机，充分挖掘广汉市区域内国际班列需求，保障重点产能班列舱位，引导支持重点企业拓展海外市场。充分发挥成都国际铁路港综保区政策优势，支持广汉市外向型企业租赁综保区内标准化厂房开展进出口贸易与保税加工业务。', '加强青广两地交界区域乡村国土空间规划协调，谋划实施一批具有影响力的示范项目，为青广两地融合发展提供规划支撑。探索共同编制青广现代粮油产业园等区域产业发展规划，打造成德毗邻交界地带产业发展示范区。', '共同谋划轨道交通联接互通，联动打造轨道上的都市圈。持续推动两地接壤的彭广青淮快速、G108国道等高快速路建设；打通广汉市中山大道、环璧南路断头路。推动青白江区603路公交延伸至广汉，提升两地毗邻地区交通便利化水平。', '联合开展成德临港经济产业带系列投资促进活动。促进两地农业经营主体交流合作。共同向上争取建立毗邻交界区域产业联动发展涉及的财税分成、数据分享等机制，鼓励引导两地重点企业开展产能合作，共同打造氢能、新能源应用场景，促进两地形成高效分工、错位发展、有序竞争、相互配套的现代产业体系。推动两地科技创新平台向双方有需求的市场主体提供开放共享服务，联合制定和发布共享科创平台清单。', '加强文艺作品创作、数字文旅建设、文化遗产保护、文创产品研发、城市宣传营销等领域合作，助力中华优秀传统文化“出海”。联合打造“三星堆—城厢古城（元宇宙数字文旅产业园）—亚蓉欧国家（商品）馆”重点文旅品牌和文旅走廊。共同支持广汉保保节、青白江樱花赏花季、成德眉资网球邀请赛等品牌活动打造。携手打造文体旅新消费新场景。', '深入推进大气污染联防联治，强化重污染天气联合应对。协同落实青白江河长制，建立雨情、汛情、旱情等信息共享、会商研判和应急处置工作联动机制，完成青白江河段视频监控、水位报警接入广汉市视频调度指挥系统；实施青白江大河饮用水源保护区共建项目。实现交界区域重点企业突发环境事件应急预案备案全覆盖。', '统一两地窗口受办服务标准，共同建立常见问题库，提高异地办事效率。促进优质教育资源互通共享、学分互认及教育发展规划互通互商。推动两地医疗质量控制中心深入合作。共同把两地医院纳入异地就医联网结算定点医院，实现异地住院门诊直接结算，探索医保缴费年限跨区域转移互认制度。', '探索成立青广毗邻区域城管联合执法中队，开展交界地带城乡环境治理、游商占道、扬尘治理、市容市貌等联合管理和执法工作。建立市场监管联合行政执法协作机制。健全完善交界地带的信息互通、资源共享、打防联动的警务协作机制。编制交界地带区域重大突发事件联合应急预案，探索共建智慧治理中心和应急信息共享平台，加快建立一体化、常态化的应急救援体系。', '整合两地党校、职业院校等教育培训资源，加强干部人才教育培训合作，推进两地协同办班。支持两地推进人才互派挂职、顶岗锻炼、交流学习，互相学习借鉴、取长补短，共同培养高素质人才队伍。建立人力资源共享机制，围绕产业发展、社会治理等方面开展专业座谈交流，共享基层治理专家人才库。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>227</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>围绕中心促发展十五届市政协件立案提案全部办复</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c169603/2023-12/12/content_cc07da337f1a43cb95fe1d9f1e0de54d.shtml</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['“推动成渝地区双城经济圈建设 打造科技创新高地”“多方参与共促老旧小区（社区）释放投资潜力”“建设零碳公园体系”……市政协十五届一次会议以来，共征集提案4803件，经审查立案3878件，平均立案率为80.7%。一份份有质量、有温度的提案，展现了十五届市政协聚焦发展谋良策、关切民生增福祉的责任与担当。', '五年来，十五届市政协委员、参加政协的各党派和人民团体、政协各专门委员会积极发挥党委政府科学决策、民主决策的参谋助手作用，积极运用提案方式建言资政、凝聚共识。', '十五届市政协期间，政协委员、参加政协的各党派和人民团体、政协各专门委员会重点围绕中心大局、民生大事、智慧蓉城等三个方面，建真言、献良策、出实招、增合力、聚共识，助推成都高质量发展，聚力民生福祉改善，助力城市高水平治理。', '围绕成渝地区双城经济圈建设、建设践行新发展理念的公园城市示范区、推进成德眉资同城化等战略部署建言献策，提出高质量提案。聚焦重点领域，紧扣“三个做优做强”、产业建圈强链、“四大结构”优化调整、创新驱动发展、人才强市战略的许多高价值提案转化成政策，助推打造西部经济高地、创新创业新城市。', '着力推动幸福城市构建，聚焦民生福祉改善，关注“我为群众办实事”，紧扣深入实施幸福美好生活十大工程，提出一系列关于就业、教育、医疗、养老、住房等民生关切问题的提案，积极回应群众期盼，助力解决民生难题。围绕重点人群就业、交通便捷出行、普惠养老等民生议题，积极开展民生提案集中办理协商，助推加快补齐民生领域短板。', '积极关注智慧城市建设、有效建言疫情防控，提出一系列提升超大城市治理现代化水平的提案建议。围绕“互联网+”、数字产业化、城乡社区发展治理、智慧社区治理、数字乡村建设、智慧大运、企业复工复产、维护社会稳定等方面提交了大量提案，有效拓展智慧城市应用场景建设。聚焦疫情防控，提出联防联控、精准防控、疫苗接种宣传、医疗救治、防疫物资保障等相关提案，助力建设应对突发公共卫生事件韧性城市，不断筑牢疫情防线，有力维护了经济社会发展环境。', '建立联合调研机制，优化提案培育机制，完善立案审查机制……十五届市政协持续优化提案工作机制，树立鲜明提案工作高质量发展导向，用制度筑牢提案工作“根基”。', '制定《政协成都市委员会关于提高提案质量的实施意见》、修订《政协成都市委员会提案工作条例》……紧把重点提案选题关、培育关，以更加完善的机制保障提案质量，建立跨区域提案协调处理机制，开展提案工作经验交流活动，形成全市政协联动开展提案工作合力。', '创新办理协商形式。探索开展同类提案集中协商，深化综合提案多方协商，搭建“有事来协商”平台，推动热点提案专家协商，积极推动提办双方形成共识、同商共办，促进建议落实，形成多措并举的办理协商议政新格局，助推建设践行新发展理念的公园城市示范区、助力提升市民群众的幸福感满意度。', '坚持质量导向，把提高提案质量作为工作重心，充分发挥重点提案协商督办的引领示范作用，推动提案由“数量型”向“质量型”转变。', '发挥重点提案示范引领作用。五年来，市政协主席会议成员牵头督办39件重点提案，开展调研视察76次，组织委员针对成德眉资同城化等重大部署深入成德眉资四市调研，赴广州、佛山、东莞、深圳等省外城市考察学习，先后形成加快成德眉资同城化发展、创建成德眉资同城化指数、数智赋能超大城市治理等一批高质量调研报告。', '发挥精品提案的示范效应。“做优做强成都都市圈‘溢出效应’”“培育社区日间照料中心造血功能”……五年来，累计遴选重点提案124件，纷纷转化为相关部门具体工作举措。评选表彰优秀提案和提案先进承办单位，大力宣传有特色、成效好的重点提案办理工作典型，扩大政协提案社会影响，充分发挥提案办理落实后产生的经济社会效益。（成都日报锦观新闻记者 李霞）']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>227</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>范锐平以更加开放的姿态聚力创新提能</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2020-06-18</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c142202/2023-12/11/content_9e08c012642b4578ad8a84300f9b0b3a.shtml</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['■提升汇聚国际创新资源要素、参与国际经济技术合作竞争的能力，推动开放与创新融合互动、外向型经济与创新型经济相得益彰。', '■围绕“5+5+1”开放型现代产业体系，聚焦产业链关键环节，聚焦行业敏感要素需求，前瞻分析、精准招引科研团队和创新企业，深化政产学研用投协同发展，全力打造“产业地标”。', '■创新老城有机更新，以高品质科创空间为载体，在有条件的地区率先探索发展都市工业，积极构建特色消费场景、体验场景，让老城区焕发新活力，让市民生活更安逸。', '■加快引入创新开放平台，让每一个科创空间都成为创新创业者的孵化加速器，让每一家企业都能在产业功能区中实现高分享、高增值。', '■抢抓机遇、乘势而上，东西携手、深化合作，打造整合国际资源的平台，构建完善的开放服务体系，推动共建“一带一路”走深走实，更好服务全国开放发展大局。', '6月15日至18日，四川省委常委、成都市委书记范锐平率队赴江苏南京、苏州和山东青岛考察，学习开放创新先进经验。范锐平指出，江苏、山东是开放前沿、创新高地。成都要深入学习贯彻习近平总书记重要指示精神，抢抓成渝地区双城经济圈建设战略机遇，向先进城市学习、与优秀企业合作，以更加开放的姿态聚力创新提能，全力构建产业生态圈、创新生态链，汇聚全球高端资源要素人才，努力在新发展格局中加快形成新动力机制，构建引领高质量发展的增长极和动力源。', '苏州工业园是我国和新加坡两国政府的首个合作项目，也是我国首个开展开放创新综合试验的区域。15日下午，范锐平一行来到园区规划展示厅，详细了解园区20多年发展历程和开放创新的实践成果。他指出，当前，我国正加快形成以国内大循环为主体、国内国际双循环相互促进的新发展格局。新一轮西部开放开发使成都由内陆腹地变成了开放前沿，要充分发挥泛欧泛亚国际门户枢纽城市优势，以开放赋能创新，提升汇聚国际创新资源要素、参与国际经济技术合作竞争的能力，推动开放与创新融合互动、外向型经济与创新型经济相得益彰。', '苏州抢抓中国（江苏）自由贸易试验区建设机遇，持续推动开放与创新、创新与产业、产业与城市融合。特别是苏州工业园紧紧围绕“2+3+1”产业，精准招引全球顶尖的科研团队，大力引入掌握核心技术的创新企业，构建产业生态圈、创新生态链，成为了我国最具综合竞争力高科技产业园区，纳米产业短短几年发展成为全球集聚度最高的区域之一。', '范锐平一行来到微软苏州研发中心、中科院苏州纳米技术与纳米仿生研究所实地考察，与晶方半导体、苏桥生物等领军企业负责人座谈交流。每到一处，他都关切询问校院企地合作和国际交流合作开展情况，了解体制机制创新情况。他说，要坚定不移推动创新与产业深度融合，围绕产业链部署创新链，围绕创新链布局产业链。要紧紧围绕成都“5+5+1”开放型现代产业体系，聚焦行业细分领域和产业链关键环节，聚焦行业敏感要素需求，前瞻分析、精准招引创新人才和领军企业。要大胆改革创新，深化政产学研用投协同发展，以最具比较竞争优势的政策体系和国际化无差别的营商环境，全力打造“产业地标”。要以产业功能区为载体，加快构建产业生态圈、创新生态链，做到核心技术主导、生产要素高效协同、产业链完整可控、先导产业集群集聚。', '江苏省会南京着力打造创新名城，最近3年的市委市政府“1号文件”一以贯之聚力推动创新。不久前，南京还专门设立了市委创新委。16日下午，范锐平一行来到紫金山实验室，详细了解大规模综合实验环境与示范平台建设情况。作为江苏省和南京市共同推进建设的重大科技创新平台，实验室聚焦网络通信与安全领域，全力打造“科研特区”，探索实行科研任务包干制和成果混合所有权改革，短短两年产生了拟态防御示范网等7项重大科技创新成果，集聚研究人员300多人，其中两院院士、长江学者等高端人才30余人。', '范锐平指出，科技创新关键要服务城市战略、满足美好生活需要。要学习借鉴南京经验，聚焦产业发展所需、瞄准世界科技前沿，以西部科学城建设为契机，前瞻布局重大科技基础设施集群，加快推动天府实验室、成都超算中心等大科学装置、国家实验室落地，为高质量发展创新赋能。要持续深化职务科技成果所有权改革，加强校院企地合作，为科研院所“放权松绑”，让科研人员“名利双收”，促进科技成果本地转化和产业化。', '南京的创新发展，不仅在产业园区，还在城市社区。秦淮是南京的建城之地，是城南历史风貌区，大院大所大企众多。2018年9月，南京启动城市硅巷建设。秦淮率先打造科创载体54万平方米，引入科技型企业347家和新型研发机构11家，秦淮硅巷变成了承载物联网科技与体育文化生态的创新街区。范锐平一行来到这里，实地考察中国联通认知物联网创新体验中心、城砖博物馆等。他指出，成都是消费型城市、创新型城市。要创新老城有机更新，以高品质科创空间为载体，在有条件的地区率先探索发展都市工业，吸引更多研发机构、创新企业集聚发展，积极构建特色消费场景、体验场景，让老城区焕发新活力，让市民生活更安逸。', '山东青岛是成都代表团考察的最后一站。近年来，青岛抢抓中国-上海合作组织地方经贸合作示范区、中国（山东）自由贸易试验区建设等战略机遇，以开放促进创新、以创新推动发展，依托行业领军企业和科研机构，全力打造世界工业互联网之都、“一带一路”国际合作新平台。', '18日上午，范锐平一行来到海尔卡奥斯工业互联网平台实地考察。平台首创“体验云”，适应不同群体个性化需求开展大规模定制，满足全球创业者需要打造链接全球的创新加速器。范锐平指出，要加快推进新型基础设施建设，推动工业互联网、智慧物联网、公共服务网、社会治理网和产业生态圈相融共生，为传统产业转型升级赋能增效，为市民创造更加丰富的产品体验。要加快引入创新开放平台，让每一个科创空间都成为创新创业者的孵化加速器，让每一家企业都能在产业功能区中实现高分享、高增值。', '青岛中德生态园建于2013年，聚焦生态领域合作，集聚了西门子等1200多家企业，也是德国“隐形冠军”的聚集地。在园区展厅，范锐平一行详细了解中国（山东）自贸区开放创新的做法和生态园区中德合作的成果。他指出，要以国别合作园区为载体，深入推进国际产能和技术合作，加快构建“一带一路”科技创新合作区和国际技术转移中心，打造泛欧泛亚国际战略大通道和覆盖世界经济中心城市的国际供应链体系，高端切入全球产业链、供应链、价值链、创新链。', '随后，范锐平一行来到青岛日本“国际客厅”。这个以材料科学、能源技术、生物工程、信息通讯为基础的日本特色产业园区，已成为中日政府、企业间交流合作的新平台。范锐平说，成都正在加快建设践行新发展理念的公园城市示范区，全力推进中日（成都）城市建设和现代服务业开放合作示范项目建设。青岛和成都都是“一带一路”的重要节点城市。成都要抢抓机遇、乘势而上，东西携手、深化合作，打造整合国际资源的平台，构建完善的开放服务体系，推动共建“一带一路”走深走实，更好服务全国开放发展大局。', '考察期间，范锐平一行还分别会见了江苏省委常委、南京市委书记张敬华，南京市长韩立明，苏州市长李亚平；山东省委常委、青岛市委书记王清宪，青岛市长孟凡利，大家就进一步深化交流合作达成了广泛共识。大家表示，将坚定贯彻落实习近平总书记系列重要指示精神，把握机遇、主动担当，改革创新、聚力发展，发挥优势、合作共赢，为加快形成国内大循环为主体、国内国际双循环相互促进的新发展格局贡献更大力量。', '代表团一行还会见了信达生物制药、南瑞集团、中创为量子通信技术有限公司、融创中国控股有限公司等企业负责人，双方就进一步深化合作、推进重大项目加快落地交换了意见。代表团一行还实地考察学习了城市规划建设、历史文化保护、长江大保护和滨江环境打造、社区发展治理等经验做法。', '市领导苟正礼、方存好、曹俊杰，四川天府新区管委会办公室常务副主任刘任远分别参加相关活动。（记者 钟文）']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>227</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>王凤朝率队赴上海苏州考察科技创新及现代产业体系构建有关工作</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2021-05-26</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c167462/2023-12/08/content_274f94d13ac74e2ab1550fb66ecbf2a7.shtml</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['坚持创新驱动强化内涵增长 构建现代化开放型产业体系 奋力打造带动全国高质量发展的重要增长极和新的动力源', '5月24日至26日，市委副书记、市长王凤朝率队赴上海、苏州考察，学习两地在科技创新、现代产业体系构建、营商环境建设等方面的先进经验。他指出，上海、苏州是我国开放前沿、创新高地。成都要坚定以习近平新时代中国特色社会主义思想为指导，抢抓成渝地区双城经济圈建设战略机遇，以建设践行新发展理念的公园城市示范区为统领，以全面实施幸福美好生活十大工程为契机，向先进城市学习、与优秀机构企业合作，坚持创新驱动，强化内涵增长，坚定不移推动先进制造业发展，加快构建现代化开放型产业体系，奋力打造带动全国高质量发展的重要增长极和新的动力源。', '作为高水平创新基地，上海张江实验室全力打造了国家重大科技基础设施群，面向生命健康科学、集成电路信息技术、类脑智能等领域开展科技创新。王凤朝一行实地考察了上海光源、国家蛋白质科学研究（上海）设施、张江人工智能岛等，与相关负责同志、科研团队深入交流，详细了解张江实验室引聚全球创新资源和人工智能岛构建数字智能生态圈、服务初创企业的经验做法，以及最新科技创新成果和科技转化的产业方向。', '王凤朝指出，创新是推动人类进步的重要力量，也是成都传承千年的城市基因。当前，成都正加快打造具有全国影响力的科技创新中心，高标准高质量规划建设西部（成都）科学城。要坚持创新驱动，加快提升科技创新能力，瞄准具有高成长性、高附加值、关键核心技术的产业方向，强化技术主导，加快创新突破。要持续优化完善西部（成都）科学城“一核四区”布局，加快推进新经济活力区、生命科学创新区、未来科技城和新一代信息技术创新基地建设，吸引集聚更多高端人才、优质科研机构和企业，着眼推动产学研用一体化，加快构建高效协同共享的产业生态圈、创新生态链。要更加注重以应用为牵引，开展面向企业、行业、产业发展的创新技术研究，加快打造产业创新应用场景。', '苏州工业园内生物医药、纳米技术应用、人工智能等高端化产业聚集，已成为我国最具综合竞争力的高科技产业园区。如何更好推进创新与产业融合、怎样构建面向科技创新企业的多层次服务生态，王凤朝对此十分关心。他来到苏州工业园区企业发展服务中心，详细了解苏州市汇聚配置全球创新资源、打造新兴产业链、优化营商环境提升企业服务水平等经验做法，以及环保电力、能源互联网与大数据、光伏新技术应用与制造等领域产业发展有关情况。', '王凤朝指出，产业是城市持续发展的重要支撑，也是改善市民生活的重要保障。要以高质量发展为主攻方向，以实体经济为着力点，紧紧围绕成都“5+5+1”现代化开放型产业体系，不断做强先进制造业支撑能级，加快推进与科技主导型企业在创新研发、生产制造、应用场景、产业基金等领域合作，持续提升经济承载和辐射带动能力。要增强产业功能区引领功能，发挥好重大产业化项目投资基金作用，加快培育一批专注细分领域的“隐形冠军”和“专精特新”小巨人企业，切实推动先进制造业产业基础高级化、产业链现代化。要积极探索应用前沿技术，提供高水平科技供给，超前布局前沿产业，推进创新链与产业链深度融合，推动产业体系升级。要大力营造一流营商环境，坚持以助企惠企为目标，推动“企业找政策”向“政策找企业”转变，全方位、多渠道解决企业难题，切实增强企业获得感。', '考察期间，王凤朝还会见了苏州市委副书记、市长李亚平，双方就进一步深化交流合作等达成广泛共识。', '副市长曹俊杰，四川天府新区党工委副书记、管委会主任陈历章，市政府秘书长周先毅等参加上述有关活动。（记者 常斐）']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>227</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>蓉平中国进博会映照抓机遇拼经济成都力量</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022-11-09</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c166026/2023-12/15/content_05135d4dcabe465aa467d54995e229fc.shtml</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['当时光指针指向11月，全年经济社会发展进入收官阶段。不平凡的2022，城市拼经济搞建设能否拿出预期的成绩单，取决于以怎样的状态和姿势跑好“最后一公里”。', '当下成都迎来年末最大的拼经济搞建设机遇窗口——中国国际进口博览会，正宜把握机遇乘势而上，千方百计利用一切平台、政策和机遇，把拼的劲头、拼的智慧转化为实物工作量，奋力冲刺全年经济社会目标任务。', '刚刚闭幕的党的二十大强调，中国将坚持高水平对外开放。2022年11月5日至10日，第五届中国进口博览会在上海举行，145个国家、地区和国际组织参展见证中国开放活力。历经五个年头的进博会，发挥开放平台效应，为各地和企业提供了以开放促合作，以开放扩市场的良好机遇。', '贸易是投资的媒介，进博会亦是如此。本月，成都14个招商专班走进进博会，抢抓项目投资，各区（市）县也纷纷加大项目招引力度。青白江区集中签约eBay青白江基地、法铁AREP青白江区TOD项目等一批重大项目，总投资超百亿。温江区举办“幸福温江·美好之城”推介会，发布92个投资机会清单，签约协议总投资101亿元。东部新区签下新加坡能源集团等3家国际龙头企业。天府新区举办国家进口贸易促进创新示范区推介会。成都高新区举办“共话芯路 新芯向蓉”成都集成电路产业挑战与机遇专家恳谈会……进博会上的“成都力量”，显露出时不我待、抢抓机遇的拼搏劲头。', '今年前三季度，成都市GDP总量接近1.5万亿元，由于受到多种超预期因素影响，仅同比增长1.5%。越是冲刺关头，越要争分夺秒，形成比学赶超的工作氛围。越是冲刺关头，越要真抓实干，以既定省市重点项目、新签约重大项目为牵引，围着产业转、盯着项目干，大力推动签约项目早日开工、在建项目快马加鞭、完工项目达产达效，力争形成更多实物工作量，交出拼经济的优良答卷。', '党的二十大报告强调，建设现代化产业体系，推动战略性新兴产业融合集群发展，构建新一代信息技术、人工智能、生物技术、新能源、新材料、高端装备、绿色环保等一批新的增长引擎。自创办以来，进博会搭建起国内国际共享的合作平台，也为增强区域经济和城市发展新动能助力。', '以投促活动为产业发展蓄能。11月4日至7日，四川省委常委、成都市委书记施小琳率队在上海、苏州考察学习，开展项目对接和投资促进活动。期间，施小琳等同志参观了第五届进博会“中国这十年”对外开放成就展和部分展区，先后来到上海城市规划展示馆、上海金桥经济技术开发区、苏州工业园、苏州高新区等地，交流学习各地在城市规划、产业发展、科技创新、营商环境等方面的先进经验。盘点进博会上各区（市）县热腾腾的招引项目，大多属于代表未来方向的主流产业和新兴产业。', '以开放平台为城市发展赋能。作为西向南向开放的桥头堡和国际门户枢纽，成都以开放促发展、以平台促共赢的理念，与进博会的举办理念不谋而合。开放的成都，通道优势更加凸显，深度接轨世界。开放的成都，政策优势集中，对内外产业吸引力强劲。近年，成都自贸试验区、中国-欧洲中心、成都国际铁路港、6大国别合作园区等高能级开放平台体系不断完善，释放引力和活力。2021年成都货物贸易进出口总值8222亿元，在蓉世界500强企业增至312家。本届进博会上，成都与法国、美国、新加坡、日本等国重要企业签订多个合作项目，以开放促发展再添新动能。', '党的二十大报告提出，以海纳百川的宽阔胸襟借鉴吸收人类一切优秀文明成果，推动建设更加美好的世界。进博会是海内外品牌与国内消费者邂逅联动的绝佳窗口。本届进博会展出数百项新产品、新技术和新服务，更多全球新品精品集中亮相，将带动中国消费升级，助力百姓美好生活。', '依托进博会，既采购商品和服务，更借力建强补强平台。今年进博会上，国际跨境电商龙头eBay青白江基地等一批高能级功能平台项目集中签约，与已落地青白江的58企服、乾盛数贸、大榕树等项目共同构建跨境电商产业生态圈，为跨境电商企业提供全产业链服务。与千里之外的上海遥相呼应，位于成都青白江的亚蓉欧国家（商品）馆，打造了一个永不落幕的“进博会”。这里入驻了欧洲、中亚、东南亚、大洋洲等35个特色场馆，琳琅满目的进口商品由此进入成都人家庭。本月，青白江区亦成为全国增设的29个国家进口贸易促进创新示范区之一。', '发展为了人民，发展成果由人民共享。注重在发展中保障和改善民生，不断满足人民的美好生活向往。接下来，成都即将迎来全国糖酒会、四川国际茶博会等重要展会活动，助力市民美好生活的同时，也为稳经济大盘添注加码。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>227</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>年成都市文明创建再上新台阶培训班开班</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2020-11-16</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c101177p/2023-12/14/content_ac895d09063f43f6ae4af177a2406568.shtml</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['理论授课、实地参观，在一周的时间里充分学习“他山之石”，思考交流自己的工作。为把社会主义核心价值观融入社会发展各方面，进一步提升成都市精神文明创建的理论水平和实践运用能力，11月9日-13日，2020年成都市文明创建再上新台阶培训班，在浙江大学举行。从成都到杭州，培训班首批学员志在通过本次培训，将精神文明建设融合到各自的岗位上，强化社会责任意识、规则意识、奉献意识。', '本次培训理论课程设置非常丰富，新时代文明实践中心建设的浙江探索、未成年人思想道德建设的实践与探索、传递“最美”精神打造道德高地等都让大家很有收获。浙江省委宣传部对外交流处处长王新华给大家分享了群众性精神文明创建工作，他有着十多年的文明创建经验，尤其在农村精神文明创建方面有着独特的见解。王新华讲述了大量实实在在的案例，启发大家如何调动群众积极性，营造创优争先的良好氛围。', '“我觉得王老师讲得非常实在，文明创建不是简单的评选，很多评选都是把名额分配下去，让街道和部门来推荐，这样选出来的典型虽然优秀，但是没有通过评选引发群众讨论，没有氛围。王老师分享的经验，虽然不一定能拿来直接用，但他启发了我，让我有了思考的方向。”彭州市委宣传部创建科副科长曾萌告诉记者。', 'G20杭州峰会中，落落大方、热情友善的志愿者“小青荷”展现了极高素质和美好形象，获得了一片好评。G20志愿者礼仪讲师徐枫带来了《G20杭州峰会接待方案特色及志愿者服务》，从国际礼仪、志愿者培训等方面介绍了“小青荷”的诞生过程。成都明年也将举办大运会，届时将有大批志愿者服务赛事，学员们纷纷表示，徐枫老师的课程实用性很强，对成都志愿者培训有很大的借鉴意义。', '延安新村社区位于商贸繁华的黄金地段，既有高楼大厦也有老旧民居，学员们参观了延安新村社区，社区里的特色公益课堂让大家兴趣盎然，“虽然我们社区也有公益课，但课程内容不太一样，他们的课很有本土特色，市民也非常喜欢。”一位学员告诉记者。随后，延安新村社区干部和大家座谈，欢迎大家畅所欲言，踊跃提问。', '作为成都的市中心商业繁华地带，春熙路街道办的工作人员有很多感触，在交流碰撞中产生了很多新想法，座谈会气氛非常热烈。', '浙江省桐庐县按照“更融合、更联动、更智慧、更美好”的要求，突出“三支队伍共发力、六大行动齐推进、五个聚焦促实效”，推动新时代文明实践中心试点工作落地落实，以365天“全年常态”的新时代文明实践活动，打通宣传群众、教育群众、关心群众、服务群众的“最后一公里”。', '11月12日下午，学员们一起来到桐庐新时代文明实践中心参观，一进门就是三块高清电子屏，中心的运作情况、活动预告等都一目了然。讲解员依次介绍了品牌志愿服务项目、特色新时代文明实践志愿服务队，并详细解答大家的问题。“桐庐新时代文明实践中心不仅功能齐全，活动策划能力和动员能力也非常强，我有很多收获。”都江堰市精神文明建设科科长罗钞文表示。', '杭州市以全国文明城市创建为抓手，大力加强公民思想道德建设，用公共文明理念和市民文明行为浸润整座城市，不断涵养崇德向善、文化厚重、和谐宜居、人民满意的城市气质。同时在推进学习型城市建设、加强基层创建、树立工作品牌、体现共建共享等方面卓有成效。', '在为期一周的培训中，浙江大学教授、全国志愿者服务组织专家、浙江省文明办相关人员，通过专题授课、案例分析、现场考察等方式和我市培训班学员授课交流。来自我市市级部门的近80名学员聆听了讲座，在杭州新时代文明实践中心及精神文明创建优秀点位实地考察学习。重点聚焦我市创建工作存在的重点难点问题，围绕进一步加强打造精神文明创建“品牌”项目、新时代文明实践中心建设及未成年人思想道德建设等内容进行培训。', '“杭州是全国第一个提出车让行人的城市，这一点好几个授课老师都提到了，我们在杭州这几天，确实也感受到了。不管有没有红绿灯，不管在市中心还是郊外，机动车都主动礼让，市民也非常友善。这几年，我们成都在这方面也做得非常不错，两个城市异曲同工。”成都市文明办公民思想道德处工作人员景袅告诉记者，杭州的“最美”系列打造非常成功，而成都近年来也在着力打造“成都榜样”等品牌，塑造平民英雄，讴歌身边好人，引导全社会形成崇德向善，见贤思齐的氛围。景袅说，这次培训给她的工作带来很多启发，她还加了老师的微信，日后工作中遇到困惑还要继续请教。（记者 晨迪 照片由受访单位提供）']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>227</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>世园大师共创营开营成都世园会主会场迎来首批创作者</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2024-04-28</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c172434/2024-04/29/content_cf786d72d1cf4a5f8e71013b6eb8e108.shtml</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['“既是灵感库，也是最好的教材。”4月27日，近二十位来自四川音乐学院成都美术学院（简称“川音成都', '”）的师生，参观2024年成都世界园艺博览会（简称“成都世园会”）主会场后都表示，“有太多想看的，一天时间太短，完全不够用。”', '“世园大师共创营”正式开营。来自川音成都美院的同学们是第一批营员。本次活动以“花样成都 共创美好”为主题，以“共同创作”为载体，带动社会各界关注世园会、参与世园会，展现成都人对幸福美好生活的理解和追求。', '“世园大师共创营”包括户外写生和流体画创作两个活动。接下来，高校师生户外写生活动还将继续进行。同时，艺术家将联手市民共同创作流体画，优秀作品将在成都世园会主会场展示。', '大约一个星期前，他们还在展园内忙着最后的收尾工作；一个星期后，成都世园会开幕的第二天，他们又以创作者的身份再次来到了主会场。他们便是', '“世园大师共创营”的第一批营员，来自川音成都美院公共艺术系大二的同学们。被问及哪些点位印象深刻，张可颖翻着手机相册里当天拍的照片，往上滑到好几次，都没有翻到头。', '“这个桥绝了，这张好有质感，这个摩天轮下次一定要去，这个也好看……”滑动屏幕的手指停下时，她都会捂着嘴笑，“真的太好看了，每一张都是美图。”', '她手机还有很多帮同学拍的照片，在一处绿植包裹的通道里，阳光透过叶片洒在卿珂的头发上。', '“我更关注的是中式园林和国际展馆。”卿珂表示，国际展馆里的热带风情让她印象深刻。这次写生她选择的是水彩，希望用丰富的色彩记录更多的感受。', '“在公共场所打造网红打卡点等都和我们专业相关。”卿珂说，成都世园会主会场里有很多这样的场景，对于他们而言，其中源自自然的场景蕴藏着取之不竭的灵感，而汇聚了来自全球各地各种建筑及各式各样装置的园区本身，更是一本一辈子都学不完的教材。对于公共艺术系的学生来说，光是逛逛，都能学到不少东西。', '……来自湖北宜昌的张雨曦站在锦云楼上一边说着一边指向各个展园。在她看来，成都世园会的丰富多元，与成都人随和包容的性格相得益彰。“平时在学校，大家很多天马行空的想法，老师也会支持。”在她看来，成都蕴藏着更多的可能性，就像逛园区随时可能会遇到惊喜一样。', '“还有两个小时就要走了，还有好多没看到”“希望春游还能来”“有的地方能够看一天”““太多想画的，先拍下来”……活动结束，到了离开的时间，迟迟不愿停下的笔下，满是意犹未尽。', '你在桥上看风景，看风景的人在楼上看你。同学们在画板前或坐或站，主会场的各种场景一点一点浮现在他们笔下。而他们也成为了一道风景线，引得路过的游客驻足观看。当天的指导老师', '——川音成都美院公共艺术系系主任陈献辉在给同学们提过意见后，自己也情不自禁拿起了画笔。很快，一幅山水泼墨画风格的素描跃然纸上。', '“很难得有机会一次可以看到这么多案例。”陈献辉介绍说，公共艺术是一门随着城市发展、大家越来越注重生活环境品质而产生的新兴学科，更偏重于应用，包括与人互动等。公共艺术专业的作品则是为城乡各类公共空间设计创作，并适宜空间特征和有一定公共性价值诉求的艺术类型。', '“公共艺术可以说是一个跨界学科，需要大量的积累。”陈献辉表示，学校每年都会组织学生外出实地考察学习，看各种建筑风格和设施装置。每条线路能看到两三种不同风格的内容，大多情况下是一两种。而在成都世园会，一站就能看遍全国乃至全球，真的是可遇而不可求。并且园区内还有很多互动装置，是呈现于眼前的实物，对于公共艺术专业的学生来说，简直是“最好的教材”，还能亲身体验。', '“真想把课堂搬到园区里。”他直言，不光对于学生，对于他本人而言，也有很多可以学习参考的地方，后面一定还会来很多次。', '“世园大师共创营”将继续开展户外写生等线下活动，同时将在线上开展作品征集活动，优秀作品将在成都世园会主会场展示。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>227</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>从建圈强链千企大调研看成都政企联动的温度和力度</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-04-05</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c169603/2023-12/12/content_4ba767e0916c41f19d9919da66e11392.shtml</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['日前，成都市“建圈强链千企大调研”第50场调研现场会在成都高新区菁蓉汇举行。会场气氛活跃且热烈，30多家深耕成都市场的企业负责人直言不讳，坦陈企业发展面临的痛点、难点、堵点。', '自去年底成都市发改委开展“建圈强链千企大调研”以来，累计有1089家企业获得最急需、最及时、最权威的政策解读、供需对接和产业协同。', '企业诉求“事事有回应，件件有着落”；建立经济体制改革智库，逐步成为“资源库”“链接库”，当起企业合作的“红娘”。持续优化营商环境，助力社会经济高质量发展，联动机制彰显政府职能部门的诚意，许多个联动场景更生动诠释政企双向奔赴中的温度和力度。', '当天的调研会座无虚席：包括同为产业链“上下游”、“左右岸”的30余位企业家，还有品牌、财税、法律等行业的专家。', '企业人才招引难、收款难、贷款难……企业家们抛出的每一个问题，都指向经营中遭遇的每一个现实困难。“请大家畅所欲言，把问题说透彻说清楚，调研的目的就是要想尽办法为大家解决难题。”市发改委相关处室负责人除现场回答涉及政策解读的问题外，还频频“穿针引线”，将企业家的问题引给相关专家。时间慢慢推移，与会者的笔记本上，做下的记录越来越密、越来越长，“每一次参会都有新的收获。”会议结束合上笔记本，四川新邦诚集团公司董事长敬云意犹未尽，从去年的“助企30条”“纾困10条”，到今年的《关于聚焦产业建圈强链支持实体经济高质量发展的十条政策措施》、12345亲清在线启动等新政出台和具体举措，他直言：“能感受到政府的诚意，也为我们做好企业增添了一分信心。”', '近年来成都持续推进市场化、法治化、国际化营商环境建设成效显著。数据显示，去年成都市新增市场主体29.6万户，总量达344万户，GDP历史性迈入2万亿元台阶，彰显成都作为超大城市的韧性和活力。', '产业生态“建圈”，重点产业“强链”，建圈强链正深刻影响重塑成都产业布局发展，不断创新产业端发展方式。新形势新要求下，如何打通理论创新、政策制定、产业服务三个端口，“建圈强链千企大调研”进行了有益尝试。', '制定政策是市发改委的一项重要职能，不能闭门造车，更忌纸上谈兵。通过与不同领域、不同发展阶段的1089家企业面对面交流，常态化政企联动工作机制精准传导各类涉企政策，真正彰显政策红利的同时，也为涉企政策的科学制定开辟了一条前期研判的畅通渠道。', '“建圈强链千企大调研”启动之初，市发改委从全市电子信息、装备制造、医药健康、新型材料等11个领域上千名报名企业家中，严格把关、层层筛选，授予“市发改委营商环境观察员”。审核标准十分严格，涉及使命感担当精神、经济发展方向洞察、专业理论水平、市场实践经验等，不亚于一场“大考”。在常态化的建言献策平台上，经济体制改革智库成员企业家吐露心声，市发改委吸纳意见建议，达成涉企政策“众筹”。市发改委相关处室负责人说，各行业、各领域的企业家扎根成都深耕市场，多年市场的磨炼造就他们成为一个行业或产业的专家，“他们的声音往往代表着城市经济脉动中最活跃最真切的部分，能为涉企政策的制定提供极为重要的参考。”', '调研不是走“过场”，“事事有回应，件件有着落”贯穿“建圈强链千企大调研”始终，为参会企业家所熟知：会场上能现场办的坚决现场办，不能现场解决的收集记录，进入办理日程。尽管大调研现场会已落下帷幕，但成都搭建的这一政企互动平台、联动机制仍将持续运转。', '早在2019年，市发改委就邀请成都现代产业体系“5+5+1”各领域的优秀企业家，组建经济体制改革智库，通过这个交流平台，充分发挥建言献策、政策传导、产业对接三大功能。大调研启动之后，智库持续完善功能，成为企业家们的“资源库”“链接库”，当起了促成合作的“红娘”。', '组织企业互访沙龙，不定期帮助企业家走进别的企业考察学习。每周星期一，智库发布“政策超市”，把政府部门的涉企政策收集汇总，包括经信、商务、科技等部门的涉企政策进行汇编，定时推送。智库还开发上线了一套信息系统，系统里有最新的政策信息、最新的供需清单。每家企业有什么业务，直接输入关键字就可完成检索，大大提高企业对接效率……像这样“足不出市”就找到“合伙人”的各类合作，在政企联动机制里已经达200项以上。', '聊起“建圈强链千企大调研”，不少企业家说是找到了“娘家”。今年刚开春，两家智库成员企业——联动U谷、四川国际招标有限责任公司相继承办“企业家面对面交流会”，分别邀请超过150位企业家，面对面交朋友、谈生意、话未来，很多合作意愿在会议现场达成。更多的交流在机制内展开，每周六下午，10到15位企业家相约在发改委，举行智库“企业家交流日”座谈会。参会企业家大多是上下游、左右岸，座谈主题明确——合作。', '联通高校院所、平台公司、政府部门、产业功能区……一个个充满活力、充满温度的企业发展生态圈得以建成建强。(成都日报锦观新闻记者 蔡宇)', '原标题：事事有回应 智库成了“资源库”——从“建圈强链千企大调研”看成都政企联动的温度和力度']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>227</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>坚定服务全国全省大局持续提升城市综合实力</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-04-18</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c169603/2023-12/08/content_efb81c40318d440ea5cc381340e9fe79.shtml</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['兴隆湖畔，“努力打造新的增长极，建设内陆开放经济高地。”习近平总书记的殷切嘱托，成为城市前进的指引和动力。', '党中央国务院、省委省政府对成都的发展寄予厚望。作为“一带一路”建设和长江经济带发展的重要节点——党的十八大以来，一大批国家战略机遇叠加：', '新时代推进西部大开发、西部陆海新通道建设等战略的加持；《建设践行新发展理念的公园城市示范区总体方案》获批；《成渝地区双城经济圈建设规划纲要》正式印发；《成都都市圈发展规划》出台；事关成都的17项重大事项纳入国家“十四五”规划纲要；以及国家中心城市建设、国家城乡融合发展试验区、自由贸易试验区……', '一个城市的发展，要在全局的坐标中寻找方位。成都始终胸怀“两个大局”、心系“国之大者”、牢记“省之大计”，坚决做到“党中央有部署、省委有要求、成都见行动”，坚定服从服务党和国家工作全局，主动作为、担当历史使命；坚决贯彻落实中央决策部署，引领区域发展、展现成都作为；以重大项目为牵引推动发展，提升城市综合实力，打造具有全国影响力的重要增长极和新的动力源。', '5年来，成都城市能级地位持续巩固，综合实力得以持续提升：2021年，成都全市经济总量达1.99万亿元、位列全国城市第七；常住人口达到2119.2万、跻身超大城市行列……', '2021年9月26日，成渝中线高铁建设正式启动。这是成渝之间最顺直、最高效的客运直连通道——设计时速350公里，成渝两地将实现高铁50分钟通达。', '成渝地区双城经济圈建设，是习近平总书记亲自谋划、亲自部署、亲自推动的重大战略。成渝中线高铁，只是成渝两地互相“靠近”的一个缩影。', '成都坚定落实成渝地区双城经济圈建设部署：制定了《实施方案》和重大项目、重大平台、重大改革、重大政策四张清单。去年底，成都市党政代表团前往重庆市考察学习交流，两地签署“1＋5”合作协议。加快推进两地互联互通，成都国际铁路港与重庆国际物流枢纽园、万州港开展多式联运合作，双城便捷生活行动方案深入实施，两地人才跨区域流动业务异地通办……', '在《建设践行新发展理念的公园城市示范区总体方案》获批之后，成都赓即启动了相关行动方案的编制，将从该方案赋予成都“两新”使命、“三高”目标、“三示范”定位和“四着力”任务入手，将习近平总书记亲自擘画的发展蓝图，转化为任务书和路线图……', '对标国家“双碳”战略，成都启动编制碳达峰行动方案，优化调整空间、产业、交通、能源结构，推动生产生活绿色低碳转型，推动生态价值创造性转化……', '对标国家综合立体交通网的未来图景中的“第四极”，成都加速推进“两场一体化”运营，成都国际铁路港已获批全国首批陆港型国家物流枢纽、中欧班列集结中心示范工程建设……', '对标国家创新驱动战略目标，成都系统推进全面创新改革试验，深化职务科技成果权属混合所有制改革，推动天府实验室等战略科技创新平台、国家精准医学产业创新中心等重大产业技术平台建设……', '成都自觉从全局谋一域、以一域服务全局，在主动服务国家战略全局中寻找发展先机、勇担历史使命。', '2月22日，四川省首条跨市域轨道交通线路——成都轨道交通资阳线（S3线）两台盾构机同日始发。', '全球城市实验室首席研究员王晓阳博士认为，在城市-区域关系中，主干城市，不仅在于其代表这个区域参与国际竞争带来的发展动力，更在于它对周边其他城市辐射带动，引领发展。', '去年11月，国家发展改革委正式批复《成都都市圈发展规划》。今年3月印发的《成德眉资同城化综合试验区总体方案》，进一步明确成德眉资同城化综合试验区区域位置及面积、试点目标、功能布局和重点任务。', '四川省委对成都发展寄予厚望，希望成都勇挑重担、自我加压，舞好全省发展的“龙头”、当好全省主干，着力建设创新城市、开放城市、绿色城市、宜居城市、共享城市、智慧城市、善治城市、安全城市。', '跨区域产业生态圈加快打造，市场主体和市民获得感持续提升，经济区与行政区适度分离改革探索全面推进……推进同城化、壮大都市圈各项工作正全面起势、“多点开花”。面向未来，成都都市圈正加快建设经济发达、生态优良、生活幸福的现代化都市圈，全力做强成渝地区双城经济圈“极核”和全省发展“主干”功能。', '“总部研发在成都、生产配套在市州”——成都极米科技股份有限公司总部在成都、生产基地落户宜宾，成为成都与宜宾构建新型合作关系、实现共同发展的最好例证。', '建设成德绵眉乐高新技术产业带，构建科技与经济深度融合链条，推动成都平原经济区一体化发展；联动开行“蓉欧＋”东盟国际班列，推进川桂国际产能合作产业园等项目建设，协同川南经济区发展；以成都·广安生物医药“双飞地”园区等为建设重点，有序引导成都企业拓展发展空间，协调川东北经济区发展；持续推进成甘、成阿工业园区建设，19个对口支援涉藏县（市）全部脱贫摘帽……', '4月15日，“空中客车飞机全生命周期服务项目投资协议签订暨概念设计发布会”举行。作为空客首个以可持续发展理念为主导的飞机“全生命周期”服务项目，将在今年第三季度破土动工，预计2023年第三季度建成投运。', '一座城市屹立世界城市之列，必须在科学思想的指引下，在国家战略的赋能中，主动作为，找准城市发展自身定位。', '提升极核主干的辐射带动、科技成果就地转化运用、城市发展均衡性、公共服务供给与人口分布匹配、产业能级提升与空间承载等诸多方面，都是城市努力的方向。', '空客项目，是成都以建圈强链理念构建支撑高质量发展的现代产业体系的一个缩影。以重大项目为牵引，加快构建现代化开放型产业体系，大力实施重点产业链建圈强链行动、数字经济赋能行动等；以“三个做优做强”优化城市功能布局，推动城市内涵发展、区域差异发展、城乡融合发展；深入实施幸福美好生活十大工程，不断推动城市发展成果更多更公平惠及全体市民……', '5年来，成都城市综合实力得以持续跃升，国际知名度和影响力日益提升。2021年，全市经济总量达1.99万亿元，常住人口达2119.2万人，一般公共预算收入1697.9亿元。电子信息产业规模突破万亿元大关，千亿产业集群增至8个。天府国际机场建成投运、成为全国双国际机场“第三城”，城市轨道交通加速成网、运营里程跃居全国第四，全球金融中心指数升至35位！', '立足新的历史方位，迈步新的伟大征程，肩负国家重大使命。成都，正奋力前行！（成都日报锦观新闻记者 钟文 李颖）']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>227</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>蒲江县尖峰村集体收入增长倍的致富密码</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2024-01-16</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NTE5ODYyOA==&amp;mid=2650146227&amp;idx=2&amp;sn=a585da617317a83576b027e92875c057&amp;chksm=8841a978bf36206e80d98aa19ed0704878a284b2e13dd12aa88666096510f71701dc36debcb2&amp;scene=27</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['进入蒲江县朝阳湖景区，沿着蜿蜒山路攀爬，大约10多分钟后到达朝阳湖镇尖峰村。马尾松林间茶山青翠，旁边的“一米田园”里，白菜生机勃勃，莴笋正拔节生长，打过霜的白萝卜脆甜可口……2023年，这个村集体经济收入达20万元，较2022年的4500元增长达43倍。', '尖峰村位于朝阳湖镇，距离白云村有近20分钟车程，分别位于狭长的朝阳湖两端。这两年，在白云村因为云顶水乡“走红”之时，尖峰村还名不见经传。', '“看到周边的村因为云顶水乡渐渐有了起色，我们也得赶紧动起来。”尖峰村党总支书李泽告诉记者，以前，尖峰村受区位条件限制，村集体经济收入微薄、闲置资源沉睡、引才留才难，发展陷入“死循环”。', '“绿水青山就是金山银山。我们这里生态本底好，要想办法把生态价值转化为绿色经济。”敢于创新谋发展，李泽带领村“两委”干部主动思考，寻找全村新的经济增长点。', '在村“两委”的组织下，尖峰村的党员群众先后到资源条件相近、集体经济成效显著的天顺村、雅澜社区考察学习先进经验做法，进一步拓宽发展视野思路。', '村庄景区化，是李泽为尖峰村量身绘制的蓝图，“公司运作、分期实施”这“吃螃蟹”的事情，在李泽心里志在必得。李泽领办成立云之香乡村旅游公司，全周期服务乡村旅游建设，增强发展后劲。', '充分发挥云顶艺宿集群辐射带动作用，尖峰村聚集了懂农业、爱农村、爱农民的乡村酿酒师、竹篾手艺人、插花制作人等技术人才12人，吸引月南书院、云端小厨等4个项目入驻，为打好乡村旅游特色牌奠定基础。', '随着云顶艺宿、月南书院等项目的入驻，村里的游客渐渐多了起来。尤其是月南书院研学活动带来的人流量，仍在持续增长。', '为了把游客引过来、留下来，“一米田园”项目呼之欲出：通过种植高山有机蔬菜，将乡村美学、农耕文化“原汁原味”融入“一米田园”项目，开展认领托管、亲子采摘等游学体验活动，激发尖峰村产业活力。', '项目的框框画好了，钱从哪里来？为了募集启动资金，李泽以个人名义贷款50万元，作为集体经济发展启动资金，带动群众入股17万元，加快“一米田园”项目建设投产。', '去年5月，“一米田园”进入试运营，备受游客青睐。依托云顶水乡、月南书院流量，吸引天府新区等地居民到一米菜园认领托管、体验蔬菜采摘、松林露营烧烤，同时，将“两个替代”产品推向城市社区，实现有机产品价格翻番。', '人流的增长，让尖峰村看到了新的经济增长点，更多的场景也在这里生长：利用集中居住小区弃土场、空置住房等闲置资源约60亩，打造“品茗松林下、山间明月洗”的围炉煮茶消费打卡点，建设5个“树屋”露营平台，为游客提供住宿、饮食、游玩等多元化需求。', '新业态的出现，让尖峰村旅游经济变得更加丰富。李泽算了一笔账，自去年试运营以来，半年多时间，通过“一亩田园”有机蔬菜种植，每年收益达到5万多元，而通过烧烤露营、围炉煮茶、丛林越野等场景产生的收益高达13万多元，“去年，村级集体收入全年累计有20万元，较前一年增长达43倍。”', '李泽表示，公司采取“622”新型分红机制，其中六成是属于集体户权益，让更多的村民入股公司，然后再带领大家来做产业；其中两成负责公司运营，另外两成是公益资金，助力尖峰村发展。', '“村集体经济不断壮大，村里办起民生实事来就更有底气。”李泽表示，尖峰村坚持在用好村级集体经济收益上做文章，通过从村集体经济收入中拿出一部分资金投入到改善人居环境、改造基础设施等方面，让村民们共享集体经济发展成果。', '据介绍，将“乡村美学”刻画在一米菜园的田间地头，尖峰村实施环山路增花添绿3.5公里，让荒山变花园，全面提升人居环境和美丽宜居乡村品位。基础设施进一步完善，该村建成云端绿道、村民文化广场、林间步道等惠民项目5个，落地公共停车场、观光亭等服务项目4个。', '不少村民也感叹道：“家乡变美了，环境变好了，年底还有分红。”2023年，通过集体经济的示范带动，入股群众增收500多元。', '新的一年，李泽对未来的发展满是憧憬：今年将通过积极培育储备林盘树屋、丛林越野等集体经济项目3个，促进集体经济多元发展，实现村集体和群众收入“双增收”。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>227</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>协同共建做强双核成渝聚焦大领域合作</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2021-12-18</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c136804/2023-12/11/content_ff92a679ad48450c970725aed2a337dd.shtml</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['12月17日至18日，成都市党政代表团在重庆市考察学习期间，两地政府签署了《落实成渝地区双城经济圈建设重大决策部署唱好“双城记”建强都市圈战略合作协议》，两地将在川渝推动成渝地区双城经济圈建设工作机制统筹下，聚焦国际性综合交通枢纽、世界级先进制造业集群、西部科学城、西部金融中心和现代化国际都市5大共建领域28项重点合作事项，促进优势互补、共建共享，共同发挥“双核”在“两中心两地”建设中的示范带动作用，引领双城经济圈建设具有国际影响力的活跃增长极和强劲动力源。', '围绕共同推动西部科学城建设、强化双核创新协同、共建西部金融中心、共促巴蜀文化旅游走廊建设和共建先进汽车产业集群，两地有关部门和管委会还签署了5个子协议。', '根据《协议》，成渝将共同推动打造世界级机场群，共同推动建设西部陆海新通道，共同推动中欧班列（成渝）高质量发展，共同推动畅通沿江客货运通道。下一步，双方将共同推动优化共享航线资源，拓展国际客货运航线，促进机场协同运营；发挥重庆通道物流和运营组织中心、成都国家重要商贸物流中心双枢纽功能，协同发展通道经济，建设跨区域平台，推动物流交易、跨国供应链、跨境电商等领域合作；将进一步推进中欧班列（成渝）优化线路、统筹运力、整合货源，共同争取班列年度线条计划保障、带电产品铁路运输试点等政策支持；同时将推进与沿江高铁及沪汉蓉铁路沿线省市协同，共同争取国家部委支持，争取沪汉蓉铁路加快恢复货运功能。', '双方将优化产业链协作和供应链配套，共同推动培育世界级汽车产业集群；立足川渝“一轴双核、两带三区”电子信息产业协同发展格局，共同培育世界级电子信息产业集群；发挥两地在各自产业方面的优势，共同推动培育世界级轨道交通产业集群；以推动重庆两江新区和成都淮州新城通航产业及衍生行业协同发展为重点，探索建立通航产业发展联席会议制度，共同推动培育西部通航产业集群；深化重庆两江新区、重庆高新区、重庆国际生物城与成都天府国际生物城、成都国际医学城、天府中药城、成都健康医学中心（未来医学城）互动合作，共同推动生物医药产业发展。', '双方将协同推动布局应用基础研究、前沿技术研究重大项目。支持在渝在蓉高校院所、科创企业，高质量、高标准联合建设重点实验室、新型研发机构，共同承担科技项目，推动两地科技平台共建共享。共同推动国家实验室及国家实验室基地规划建设。共同推动国家新一代人工智能创新发展试验区协同建设；共同推动重庆两江软件园与成都天府软件园等创建国家级知名软件园区；共同推动成渝工业互联网一体化发展；共同推动打造国家网络安全产业基地；统筹推进成渝两地共建“一带一路”科技创新合作区和国际技术转移中心；共同推动建设国家医学中心。', '共同推进重庆市国家金融科技认证中心、成都市基于区块链技术的知识产权融资服务平台链接更多服务机构，共享平台提供的各类服务，共同争取两地农商行相互设立分行；共同推动两地区域股权市场和融资租赁、商业保理、消费金融公司等金融机构及地方金融组织加强合作；共同引导创业投资机构加强合作，广泛吸引社会资本共同投资成渝地区早中期、初创期科技企业；支持重庆农村土地交易所和成都农村产权交易所建立信息共享、项目互挂、常态化工作对接机制，共同推动跨区域农村产权交易流转；共同推动重庆、成都在成渝地区信用一体化建设中率先示范；共同推动探索中新（重庆）战略性互联互通示范项目下的开放合作。', '双方将探索共同引进、共办国际组织、国家部委主办的以促进国际合作为主题的高端会展活动，打造“国际会展名城”“国际会展之都”；共同推动碳达峰碳中和工作，协同提升区域生态系统的固碳能力；共同推动巴蜀文化旅游走廊建设，共同开发文旅新产品、新场景、新业态，共同开拓文旅消费新市场；共同推动举办具有国际影响力的时装周、电影节、艺术节，打造富有巴蜀特色的国际消费目的地；争取更多国内外大型体育赛事落地成渝地区，共同打造“成渝”赛事品牌；推动两地三甲医院异地设置医疗机构，支持医联体建设和跨区办医，共同推动在渝在蓉医疗机构医学检验检查结果互认；共同推动重庆、成都率先实现社保、医保、住房公积金等领域基本公共服务一体化，合力打造就业、社保、人才公共服务和劳动关系综合治理高水平样板；共同推动学前教育普惠共享，支持重庆、成都优质民办学校开展符合国家规定的跨区域合作办学项目；共同推动疫情联防联控工作，联合开展风险预警、研判，加强卫生应急队伍区域标准化建设。（记者 陈泳）', '18.共同推动两地区域股权市场和融资租赁、商业保理、消费金融公司等金融机构及地方金融组织加强合作', '27.共同推动重庆、成都率先实现社保、医保、住房公积金等领域基本公共服务一体化，衔接优化重庆、成都基本公共服务标准，加强两地政策协同，合力打造就业、社保、人才公共服务和劳动关系综合治理高水平样板']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>227</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>创新策源全力抢跑第一步成果转化打通最后一里路</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2022-07-10</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c169603/2023-12/11/content_75941ac4ff8b469cbb3fd0bbed9e4268.shtml</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['成都高标准建设西部（成都）科学城，打造重大科技基础设施集群。 成都日报锦观新闻记者 李冬', '之江实验室、浙江大学杭州国际科创中心、宁波工业互联网研究院、宁波软件园创新共享中心……7月5日至6日，成都市党政代表团前往浙江省杭州市、宁波市，学习考察两市在城市治理、科技创新、产业发展和社区治理等方面的经验做法，并开展企业交流和投资促进活动。', '当今世界，全球科技创新空前密集、空前活跃。新一轮科技革命和产业变革正在重构全球创新版图、重塑全球经济结构。成都始终胸怀“国之大者”“省之大计”，坚定把创新驱动引领高质量发展作为事关战略全局的重大任务来抓，加快建设具有全国影响力的科技创新中心。', '抓创新就是抓发展，谋创新就是谋未来。走好新时代赶考之路，如何让创新能力更上一层楼？两天时间，从西南到东南、跨越2000多公里，交流互动中，成都创新发展之路更加清晰笃定。', '今年5月，第26届中国青年五四奖章获得者名单中，来自浙江大学的之江实验室智能超算研究中心团队位列其中。再把视角转向成都，上述名单中，来自成都的核工业西南物理研究院“人造太阳”中国环流器二号M（HL—2M）装置研制团队同样上榜。HL-2M装置是实现我国核聚变能开发事业跨越式发展的重要依托装置，目前已建成并实现首次放电。', '创新，与城市未来的命运息息相关；创新策源能力，越来越成为城市综合实力的体现。杭州大力实施创新强市、人才强市首位战略，加快建设全球创新策源地。作为浙江首批挂牌的省实验室之一，之江实验室与其他9家省实验室共同组成浙江打造国家实验室的“预备队”。', '四川同样借势而进、乘势而上，围绕电磁空间与泛在互联、生命健康、碳中和4个方向，建设天府实验室体系，作为国家实验室的“预备队”。6月7日，天府实验室迎来揭牌一周年，聚焦光电与集成电路的天府兴隆湖实验室、剑指碳中和领域的天府永兴实验室已陆续挂牌建设，天府绛溪、天府锦城实验室也将在年内挂牌。', '6月7日，西部成都科学城也迎来一周岁“生日”。从0到1，从无到有，如今，西部（成都）科学城“一核四区”创新布局和主体功能初步形成，进入了发展新阶段。目前，西部（成都）科学城核心区域已引进“中科系”“中核系”等国家级科研机构25家，引育清华四川能源互联网研究院等校院地协同创新平台50余个。', '成都将主动肩负打造服务战略大后方的创新策源地重大使命，高标准建设成渝（兴隆湖）综合性科学中心和西部（成都）科学城，高水平建设运行天府实验室，打造重大科技基础设施集群。', '吴汉明，国内著名集成电路专家、中国工程院院士，浙大微纳电子学院院长。在他看来，浙江大学杭州国际科创中心成立的初衷，就是让科研和产业在同一个园区无缝对接，让更多的科研成果可以顺利转化、走向市场。', '如何打通科技成果转化“最后一公里”，让科技成果加快向现实生产力转化？成都在全国率先探索开展职务科技成果权属混合所有制改革，着力破解科技和经济“两张皮”难题。如今，科技界“小岗村”试验2.0版本将探索更多的原创性原动力改革。', '苏东林，中国工程院院士、北京航空航天大学教授，同时也是成都“揭榜挂帅”专家。苏东林认为，科技成果转化要稳定地向前推动，需要稳定持续的扶持政策，除了资金的支持，也需要人才的培养。', '2021年8月，成都首次发布“揭榜挂帅科技项目榜单”，不唯年龄学历职称和地域，多项科研成果加速从高校、科研院所“实验室”走向企业“生产线”。此外，成都2022年“揭榜挂帅”榜单正在酝酿中，将适时启动。同时，今年，成都将出台“揭榜挂帅”科技项目管理办法，建立“里程碑式”考核制度，实施关键节点约定的任务目标考核，让更多创新成果“喷薄而出”。', '他山之石，可以攻玉。谋划科技成果转化之路，成都还将大力加强与高校院所联动合作，更好发挥企业技术创新主体作用，加快构建“政产学研用投”协同发展体系，推动科技创新成果落地转化，加快打造具有全国影响力的科技创新中心。', '“四川一直是新华三集团战略投资核心高地。”新华三集团副总裁徐润安说，近年来，新华三集团云计算全国运营及研发总部、新华三成都研究院等项目密集落地，2016年以来在川累计投资超百亿元。', '宁波软件园、宁波工业互联网研究院也部署了数字经济。再从产业布局来看，浙江省与四川省，同为国家数字经济创新发展试验区，做大做强数字产业，是两地共同的任务。', '“目前在川浙江商人已超过30万人，浙商在川新增投资逐年上升。”四川省浙江商会会长陈朝钦感言，四川在土地、能源、自然环境、人力资源方面有着明显优势，市场前景广阔，为大批浙商来川投资发展提供了动力。“十三五”期间，四川省通过省级重大平台签约来自浙江的项目582个、总规模超5000亿元，累计到位资金近3700亿元。', '考察学习杭州、宁波，最终的目的是要跳出成都看成都，放眼全国乃至全球，找差距、强理念、学经验，进一步完善自身发展战略和思路，切实解决本地发展中的实际问题。成都将充分发挥数字化牵引驱动作用，坚定不移推进产业建圈强链，大力发展先进制造业，重点引育一批“专精特新”企业，加快构建竞争优势突出的现代产业体系。（成都日报锦观新闻记者 宋妍妍）']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>227</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>成都党史学习教育市级领导班子中心组学习暨市级领导干部专题读书班举行范锐平王凤朝李仲彬张剡出席</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2021-04-13</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c148022/2023-12/22/content_2344f47cfad042f193bcc15b38382549.shtml</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['成都党史学习教育市级领导班子中心组学习暨市级领导干部专题读书班举行 范锐平王凤朝李仲彬张剡出席-成都市人民政府', '成都党史学习教育市级领导班子中心组学习暨市级领导干部专题读书班举行 范锐平王凤朝李仲彬张剡出席', '■迈步新征程、建设现代化，必须坚持党的全面领导，必须坚持紧紧依靠人民，必须坚持改革创新，必须坚持发展是第一要务，必须坚持全面从严治党。', '■锤炼忠诚之志、赤子之心，真正从党的事业、城市的未来、人民的期盼出发想事情、抓工作，努力担当担责，把各方面工作统筹好、落实好。', '4月12日至13日，成都党史学习教育市级领导班子中心组学习暨市级领导干部专题读书班举行。省委常委、市委书记范锐平在讲话中强调，开展党史学习教育，是当前和今后一个时期全市上下必须抓好的一项重大政治任务。要深入学习贯彻习近平总书记在党史学习教育动员大会上的重要讲话精神，以铭记党史的深情珍视、开创未来的责任情怀，从百年党史中汲取宝贵经验、坚定信心信念、赓续前行力量，以昂扬姿态书写建设现代化新天府、迈步世界城市新征程的崭新篇章。', '本次党史读书班以现场教学、专题辅导、集中研讨的方式，引导大家从红色历史记忆中重温党的光辉历程、回顾党的峥嵘岁月。12日上午的开班式上，范锐平作动员讲话，对开展好专题学习提出要求。接着，省委党校（四川行政学院）教授郭伟围绕“从中国共产党的百年历程和基本经验谈加强党的全面领导的必要性”作辅导报告。', '成都战役是中国人民解放军在解放祖国大陆作战中最后一次大规模作战战役。战役胜利后，解放军对成都进行和平接管，加速了四川解放的进程。12日下午，全体学员来到蒲江县西来镇铜鼓村，向成都战役纪念碑敬献花篮。大家面朝纪念碑，齐声高唱中华人民共和国国歌。伴随着深情的《献花曲》，礼兵抬起花篮，缓步走向纪念碑，摆放在纪念碑基座上。范锐平迈步向前，仔细整理花篮缎带，缎带上“革命烈士永垂不朽”八个大字庄重而醒目。接着，大家向成都战役纪念碑三鞠躬，围着纪念碑缓步绕行，向英勇献身的革命先烈表达深切缅怀和崇高敬意。', '随后，大家来到成都战役纪念馆，重温中国共产党在成都的历史，聆听党领导成都干部群众拼搏奋斗的“微党史课”。学员中的全体党员和蒲江县新党员代表，集体重温入党誓词。大家表示，通过一张张珍贵的历史图片、一个个栩栩如生的实物模型，更加深刻感受到党的百年就是用鲜血、汗水、泪水、勇气、智慧、力量写就的百年，更加增强了坚定“两个维护”的政治自觉和行动自觉，更加坚定了坚守初心、不改本色的决心。', '蒲江县铁牛村以西来郊野公园为载体，推动农商文旅体融合发展，加快打造乡村振兴示范新村。全体学员来到这里考察学习后，浙江省安吉县余村党支部书记、主任汪玉成围绕“两山理论”作了辅导报告。大家表示，成都是公园城市“首提地”。要坚定践行习近平生态文明思想，以建设践行新发展理念的公园城市示范区为统领，创新营造多元场景，持续推动价值转化，率先走出中国特色新型城镇化之路。当晚，全体学员还集中观看了红色电影《建党伟业》。', '13日上午，市委常委会和市政府党组、市人大常委会党组、市政协党组分别组织学习研讨，大家紧扣学习主题，结合思想和工作实际谈认识体会。下午的结业式上，李仲彬、张剡、谢瑞武、田蓉、邓涛、王忠林、刘仆、刘任远先后发言。', '范锐平指出，历史，总是在一些特殊年份给人们以汲取智慧、继续前行的力量。学习历史，是为了更好地前行。党史学习教育动员大会召开以来，全市各级各部门迅速行动、精心实施，推动党史学习教育融入日常工作、深入党员干部心间，广大党员干部普遍感到提升了政治站位、深化了精神境界，政治上、思想上、精神上、作风上受到了一次深刻洗礼。迈步新征程、建设现代化，必须坚持党的全面领导，必须坚持紧紧依靠人民，必须坚持改革创新，必须坚持发展是第一要务，必须坚持全面从严治党。要锤炼忠诚之志、赤子之心，真正从党的事业、城市的未来、人民的期盼出发想事情、抓工作，努力担当担责，把各方面工作统筹好、落实好。要学以致用，把“学”的成果落脚到当前工作中。', '范锐平指出，百年党史是一部在党的坚强领导下不断迎难而上、夺取更大胜利的光荣史。实践证明，党的全面领导是历史和人民的选择，党的全面领导离不开在实践中形成的坚强中央领导集体和领导核心。市第十三次党代会以来，市委先后召开8次全会，对加快建设全面体现新发展理念的国家中心城市、贯彻成渝地区双城经济圈建设战略部署和“十四五”规划等作出重大部署。面向未来，必须毫不动摇地坚持党的全面领导，始终做到“两个维护”，不断提高政治判断力、政治领悟力、政治执行力，持续提升党委领导超大城市工作的能力水平，把握新阶段、贯彻新理念、服务新格局，确保党中央和省委决策部署在成都得到全面坚决的落实。', '范锐平强调，百年党史是一部汲取群众实践智慧、凝聚人民磅礴伟力的群众路线史。实践证明，我们党历经沧桑而不倒、千锤百炼而更强，不断从胜利走向胜利，就是因为始终一切为了人民、一切依靠人民，尊重人民群众主体地位和首创精神，赢得了最广大的支持和拥护。市第十三次党代会以来，市委坚定践行以人民为中心的发展思想，以公园城市建设塑造宜居生活新优势，以城乡社区发展治理组织群众有序参与，初步实现了城市有变化、社会有认同、市民有感受。面向未来，要秉持“人民城市人民建，人民城市为人民”城市发展观，把幸福美好生活十大工程作为城市长远发展的筑基工程，最大限度调动市民群众的积极性、主动性、创造性，将每位市民追梦圆梦的涓涓细流凝结成城市拔节生长的磅礴伟力。', '范锐平强调，百年党史是一部以思想破冰引领改革突围、以开拓创新推动复兴征程的创业史。实践证明，勇于改革、善于创新是民族精神和革命精神的时代呈现，是我们党紧跟时代步伐、引领时代潮流、实现长盛不衰的力量源泉，也是中国日益走近世界舞台中央、从追跑到并跑领跑的重要原因。市第十三次党代会以来，市委坚持把改革创新作为发展新动能新优势，推出一系列重大改革创新决策部署，建立了一整套与城市发展相适应的管理体系和治理机制，极大促进了秩序与活力的平衡。面向未来，要坚定扛起新时代改革创新旗帜，以建设践行新发展理念的公园城市示范区为统领，统筹生产生活生态，统筹发展和安全，持续推动城市发展方式和经济组织方式全方位变革，持续深化要素市场化配置改革，不断提升人口和经济承载力，努力在中国特色新型城镇化道路上率先突破、引领示范。', '范锐平强调，百年党史是一部在发展中不断解决问题、“斗罢艰险又出发”进而实现伟大飞跃的奋进史。实践证明，无论是解放初的“经济短缺、数量缺口”，还是今天的“不平衡不充分问题”，发展是解决我国一切问题的基础和关键。市第十三次党代会以来，市委以构建产业生态圈推动质量变革，以构建科技创新体系推动动力变革，以构建高质量发展政策体系推动效率变革，以构建开放型现代化产业体系为抓手加快建设现代化经济体系，初步探索形成了高质量发展的“成都路径”。面向未来，要坚守高质量发展的战略方向，全面推进科技创新中心建设，坚定推动产业生态圈和产业功能区建设，着力构建支撑高质量发展的开放型现代产业体系、科技创新体系，形成引领高质量发展的增长极和动力源。', '范锐平强调，百年党史是一部通过自我革命永葆党的先进性纯洁性的斗争史。实践证明，坚持全面从严治党是我们党永葆青春活力、勇立时代潮头的重要密码。市第十三次党代会以来，市委始终坚定贯彻全面从严治党总体要求，坚持高标准严要求，敢于直面现实问题、敢于纠正不正之风、敢于开展严肃的批评和自我批评，政治生态、工作氛围、担当意识、协作精神为之一变，极大增强了社会的信心和人民的信任。面向未来，要始终保持“赶考”的清醒，纵深推进全面从严治党，坚持严管厚爱结合、激励约束并重，持续健全完善权力运行和监督制约机制，一刻不停推进党风廉政建设和反腐败斗争，一步不让持续整顿不正之风和突出问题，真正把管党治党的新成效不断转化为激励干部担当作为的正能量和干事创业的精气神。', '市委、市人大常委会、市政府、市政协领导，市法院院长、市检察院检察长，四川天府新区党工委、管委会负责同志参加。（记者 张家华）']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>227</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>坚持新思想指引持续加强政治建设</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2022-04-17</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c169603/2023-12/08/content_3670be96f36b4149b18d17371d3309f2.shtml</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['成都市第十三次党代会以来，在习近平新时代中国特色社会主义思想指引下，市委坚定贯彻习近平总书记对四川及成都工作系列重要指示精神，高举旗帜、拥护核心，坚决在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致。', '以新思想为引领，在以习近平同志为核心的党中央亲切关怀和省委省政府的坚强领导下，事关成都发展的诸多重大事项得以纳入国家“十四五”规划纲要，成渝地区双城经济圈建设和成德眉资同城化起势见效，《成都建设践行新发展理念的公园城市示范区总体方案》《成都都市圈发展规划》相继获批。', '化感恩为动力，承关怀而奋起。按照“五个走在前列”的要求，新时代赶考之路上，新气象新作为成为每一名成都党员干部的自觉行动；产业建圈强链行动中，城市产业生态聚集力、产业链构建力、高端要素运筹力明显增强；顺应改革之势，释放创新之力，城市正从“内陆腹地”走向“开放前沿”；“双碳”引领下，一条服务国家战略全局、支撑四川未来发展的绿色低碳发展路径愈加清晰；这座以人为本的城市，已连续13年位居“中国最具幸福感城市”榜首……', '回望五年征程，成绩的取得，根本在于有以习近平同志为核心的党中央领航掌舵，有习近平新时代中国特色社会主义思想的科学指引。在省委的倾力支持下，在全市干部群众的接续奋斗中，取得的成绩来之不易，收获的经验弥足珍贵，让我们对成都的未来满怀信心。沿着习近平总书记为成都亲自擘画、量身定制的蓝图砥砺前行，成都将主动作为、勇担使命，共同努力、坚毅笃行，奋力书写建设践行新发展理念的公园城市示范区的时代新篇。', '本报今起推出“五年答卷——成都接续奋斗 砥砺前行”特别报道，全面展示五年来成都坚持新思想指引新理念导航、推动经济社会高质量发展的生动实践。敬请关注。', '2018年2月，习近平总书记来川考察时，就成都经济社会发展、城市规划建设、抓好实体经济、深化改革开放、推进绿色发展、实施乡村振兴、加强基层党建等工作作出了一系列重要指示。', '旗帜鲜明讲政治，坚定担当的政治责任。成都始终把学习贯彻习近平新时代中国特色社会主义思想和习近平总书记对四川及成都工作系列重要指示批示精神作为首要政治任务，坚持以党的政治建设为统领，教育引导党员干部增强“四个意识”、坚定“四个自信”，不断提高政治判断力、政治领悟力、政治执行力，自觉做“两个确立”的坚决拥护者和“两个维护”的坚定践行者。', '自觉用新思想武装头脑、指导实践、推动工作，持续加强政治建设，沿着总书记指引的方向，坚毅笃行！', '“没想到学习强国还能落到线下，很有创意，很有氛围。”现场参观的刘文，一边使用触摸屏在“幸福成都 美在文明”专栏答题一边感慨。位于双林路的全国首创“学习强国”主题街区，由“强国学苑”“学习之家”“学习广场”三大功能场景构成。观摩红色藏品，聆听历史声音，现场参与党史展示互动，它已成为市民和外地来此开展党建学习活动的打卡点之一。', '坚持用新思想武装头脑。成都始终把学习习近平总书记重要讲话和重要论述作为市委常委会会议“第一议题”，对习近平总书记重要讲话进行学习传达、研究部署。市委理论学习中心组对习近平总书记重要指示批示、百年党史、中央和省委重大决策部署等开展系统学习、专题研讨。', '同时，举办学习贯彻党的十九届五中全会精神暨党史学习教育专题培训，覆盖全市1.3万名处级以上领导干部；围绕贯彻党的十九届六中全会和省委十一届十次全会精神，全面开展分众化、互动化宣讲，深入基层宣讲，引导全市党员干部深刻认识“两个确立”的决定性意义，切实把“两个确立”转化为做到“两个维护”的思想自觉、政治自觉、行动自觉。', '在系统学习中“学懂”，在结合实际中“弄通”，在落细落深中“做实”。成都党员干部在实践中更加深刻感受到新思想的真理伟力和实践伟力，进一步坚定了学在深处、悟在新处、干在实处的信心决心。', '“太好了，回家能坐电梯了！”今年1月，高升桥东路南苑公寓的80岁老人罗崇任，收到一份“大礼包”：这个老小区增设的电梯提前20多天正式运行。', '坚定用新思想指导实践。坚持人民立场，为人民谋幸福，为民族谋复兴，这是中国共产党人的初心和使命——', '在“两学一做”学习教育中，成都突出打牢“学”的基础、落实“做”的关键、强化“改”的牵引，激励广大党员立足本职展现新作为，在促进改革发展中创造新业绩；', '在“不忘初心、牢记使命”主题教育中，把学和做相结合、查和改相贯通，坚持以人民为中心的发展思想，解决了一大批群众普遍关心的热点难点问题。', '在新时代对标贯彻落实中央大政方针，出台《中共成都市委关于进一步激励全市广大党员干部传承红色基因担负时代使命在新征程上展现新作为的意见》，提出党员干部要做到“五个走在前列”——学思践悟知行合一、改革创新攻坚克难、永葆初心为民惠民、高效协同整体联动、遵规守纪严于律己！', '在全市党史学习教育中，全市党员干部不断从党的百年奋斗历程中汲取智慧和力量，受到了一次全面深刻的政治教育、思想淬炼、精神洗礼。在深化党史学习教育中，大力弘扬伟大建党精神，持续巩固拓展党史学习教育成果，推动学史明理再深化，学史增信再锤炼，学史崇德再提升，学史力行再出发。', '“党的盛典、人民的节日”。成都隆重庆祝党的百年华诞，生动展现百年大党的光辉历程、伟大贡献、宝贵经验；学习贯彻习近平总书记“七一”重要讲话精神，召开成都市庆祝中国共产党成立100周年座谈会，开展“两优一先”评选表彰，向10.3万名老党员颁发“光荣在党50年”纪念章等，组织主题宣讲教育活动2万余场次。', '在新中国成立70周年之际，成都通过举办座谈会、文艺展演、成就展览等多种形式的活动，展现中国共产党领导中国人民砥砺奋进、接续奋斗的感天动地奋斗史诗。', '为民惠民是共产党人的根本宗旨。成都以人为本、共建共享，聚焦群众身边的“急难愁盼”和“硬骨头”问题，深入基层察民情访民意，分层分类制定项目清单，建立健全问题处理全链条机制，用心用情用力解决群众反映集中的操心事、烦心事、揪心事。数据显示，各级领导干部带头领办、推动实施重点民生事项3601项。成都党员干部坚持做到把好事办实，把实事办好，用生动实践回应学党史、悟思想、办实事、开新局的要求。', '时光闪回。2021年12月17日至18日，成都市党政代表团前往重庆市考察学习，两地签署了《落实成渝地区双城经济圈建设重大决策部署唱好“双城记”建强都市圈战略合作协议》，将重点实施5大共建领域28项重点合作事项。', '成渝地区双城经济圈建设，是习近平总书记亲自谋划、亲自部署、亲自推动的重大战略。今年一季度，160个成渝地区双城经济圈共建重大项目已开工149个，今年已完成投资439.5亿元，实现良好开局。', '坚定用新思想推动工作。成都认真贯彻落实中央和省委各项决策部署，系统部署、持续深化、全面落实，确定了加快推动成渝地区双城经济圈建设、推动经济高质量发展等重点任务——', '合力推进成渝地区双城经济圈建设重点任务，成渝中线高铁启动建设，推动实施双城便捷生活行动方案，与重庆签订“1＋5”合作协议，重点实施28个领域合作事项；', '成德眉资同城化起势见效，《成都都市圈发展规划》成功获批，464个“三区三带”产业合作项目加快实施；', '大力实施产业建圈强链行动，建设12个产业生态圈、20个重点产业链，电子信息产业规模突破万亿元大关，千亿产业集群增至8个；', '推动“四大结构调整”，启动实施碳达峰行动方案，优化调整空间、产业、交通、能源结构；', '打造人民美好生活幸福家园，深入实施幸福美好生活十大工程，不断推动城市发展成果更多更公平地惠及全体市民……', '迈步新征程，惟有不忘初心、牢记使命，惟有和衷共济、众志成城，惟有主动作为、坚毅笃行，坚定用新思想武装头脑、指导实践、推动工作，奋力把习近平总书记擘画的美好蓝图转化为成都发展的生动实践，方能创造无愧于历史、无愧于城市、无愧于人民的时代业绩，在新的赶考路上交出不负历史、不负时代、不负人民的精彩答卷！（成都日报锦观新闻记者 钟文 白洋）']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>227</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>成渝同声提升双城经济圈发展能级</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022-03-04</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c169603/2023-12/08/content_5540d6a926be4f16806dd17375df428d.shtml</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['“预计今年两会议题仍将围绕稳增长、促发展、调结构等。”中国人民大学国家中小企业研究院副院长、经济学院教授孙文凯在分析今年全国两会时表示，促发展这一热点中，如何推进区域规划和大城市群建设则是其中关键着力点之一。', '无疑，成渝地区双城经济圈，是其中重要组成内容。根据《成渝地区双城经济圈建设规划纲要》，到2035年——对全国高质量发展的支撑带动能力显著增强，成为具有国际影响力的活跃增长极和强劲动力源。全国政协常委、北京大学新结构经济学研究院院长林毅夫称之为“中国经济第四极”，前三极分别是长三角、大湾区和京津冀，“成渝地区双城经济圈应在推进新时代西部大开发中发挥支撑作用、在推进长江经济带绿色发展中发挥示范作用、在共建‘一带一路’中发挥带动作用。”', '唱响“双城记”，聚焦“一极一源两中心两地”的目标定位，成都当前正细化制定实施方案和重大项目、重大平台、重大改革、重大政策“四张清单”；合力推进两地建设的重点任务，成渝中线高铁建设加快推进，共同开行中欧班列（成渝）4800余列，联合开行中老铁路国际货运班列，推动实施双城便捷生活行动方案；全面落实两地联席会议部署和成渝双核行动方案，组织党政代表团赴重庆市考察学习，签署“1＋5”合作协议，重点实施28个领域的合作事项……', '集中精力办好自己的事、齐心协力办好合作的事，两地携手，共推成渝地区双城经济圈建设走深走实！', '全国两会召开之际，本报联动重庆日报开启“两会圆桌”栏目，连线在川、在渝全国人大代表和住川、住渝全国政协委员，以及行业专家学者谈“双城经济圈”，请他们就“改革开放新高地、高品质生活宜居地”等主题积极建言献策。', '当前，我国社会主要矛盾已经转化为人民日益增长的美好生活需要和不平衡不充分的发展之间的矛盾，成渝地区双城经济圈建设，要牢固树立以人民为中心的发展思想，着力提高人民群众生活品质，不断增强人民群众的获得感、幸福感、安全感。', '建议重庆、四川两省市要进一步强化公共服务共建共享，以更好满足人民群众美好生活需要为目标，扩大民生保障覆盖面，提升公共服务质量和水平。', '一是推进基本公共服务标准化便利化，联合发布311项“川渝通办”高频政务服务事项，共同实施43项“便捷生活行动”举措，户口迁移迁入地“一站式”办理、普通门诊和住院费用跨省直接结算等便民举措全面落地。', '二是共享教育文化体育资源，推动学前教育、义务教育、职业教育和高等教育等合作发展，川渝22所高校聚焦65个优势特色学科开展深度合作。', '三是推动公共卫生和医疗养老合作，增强公共卫生监测预警和应急处理能力，推动优质资源下沉，推进养老服务体系共建共享。协同推进国家儿童区域（西南）医疗中心建设，实施川渝地区卫生专业技术人才“双百”培养项目。', '四是健全应急联动机制，完善公共安全风险防控标准和规划体系，强化防灾备灾体系和能力建设，推进防灾减灾救灾一体化，建成投用西南区域物资储备中心。', '《成渝地区双城经济圈建设规划纲要》明确提出“共建‘一带一路’对外交往中心”“支持举办重要会议和赛事”“高标准举办中国国际智能产业博览会、中国西部国际投资贸易洽谈会、中国西部国际博览会、中国(绵阳)科技城国际科技博览会等国际大型会展”。', '当前，成都高能级自主会展品牌、会展业影响力、显示度和话语权仍需提升。因此，要全力打造具有世界影响力的自主会展品牌，努力发挥面向全球配置高端资源的开放平台作用，为发展内陆开放型经济、打造改革开放新高地提供重要支撑。', '建议住建部、商务部等国家部委支持公园城市论坛升级打造为中国公园城市博览会，培育打造为国家级、标志性展会活动，广泛传播公园城市价值理念和创新模式，提升西部地区会展产业整体能级和影响力，形成“东有进博会、南有广交会、北有服贸会、西有西博会”的新发展格局。', '建议商务部支持中国西部国际博览会提升能级，将举办周期由两年一届改为每年一届，培育成为聚焦“一带一路”的高水平开放平台，跻身国家级重大展会第一方阵。', '建议农业农村部、商务部支持成都策划打造乡村振兴论坛并将中国西部国际博览城设为永久会址，创新策划打造以乡村振兴为主题的国家级论坛，服务乡村振兴战略，助推实现农业农村现代化。', '建议外交部等国家部委支持成都引进巴塞罗那全球智慧城市大会等世界级、国际性知名品牌展会在天府新区落户，提升成都会展业在全球的影响力、显示度、知名度。', '在应对气候变化、实现双碳目标背景下，建议国家发改委、生态环境部等支持与气候变化、科技创新相关的国家级会议主题论坛在天府新区落户举办，提升成渝双城会展业在全球的影响力、显示度、知名度。', '2021年10月，《成渝地区双城经济圈规划纲要》印发，《纲要》明确提出四大战略定位，其中之一就是要将成渝地区打造成为高品质生活宜居地，这是践行以人民为中心发展思想的应有之义，是推动解决区域发展不平衡不充分矛盾的重大举措，也是成渝地区在高质量发展中扎实推进共同富裕的重要路径。', '未来，成渝地区双城经济圈各级党委政府应继续围绕人民群众所需所盼，持续深入推进高品质生活宜居地建设，早日将成渝地区双城经济圈建成近者悦、远者来的幸福生活圈，让两地人民群众的获得感更多、幸福感更足。', '一是构建内畅外联的联络体系。打通川渝毗邻地区“断头”路，推进“四网融合”发展，建设更多的交往路、致富路。加快推进成渝两地高铁公交化运营，开行更多的跨省城际公交线路，打造成渝“24小时生活圈”“24小时交往圈”。', '二是构建优质普惠的公共服务体系。加快构建覆盖成渝地区的养老托育、教育科技、医疗卫生、住房社保等公共服务体系，提升住房保障水平，建设全龄友好型社会，让基本公共服务普惠可及。', '三是扩大高品质文化服务供给。谋划实施成渝共同的文化品牌建设工程，推出一批具有中国特色、巴蜀气韵的优秀文艺精品力作，为人民群众创造可口的精神食粮，全面提升人的文明素质，让人民群众精神生活更加充盈。推进农商文旅深度融合发展，以文化为纽带，将国际消费中心城市、国际交往中心和世界级文化旅游目的地等进行融合打造，提升重庆、成都等城市的品牌美誉度和国际影响力。', '四是推动资源要素畅通流动。加快要素市场化配置改革，构建川渝两地土地、人才、资本和数据等要素高效流动、优化配置的大市场、大循环。培育壮大数据、金融等核心要素，有力支撑经济高质量发展。', '成渝两地山水相连、人文相通，对长江中下游地区生态安全承担着不可替代的作用，对维护国家生态安全至关重要。', '高品质生活宜居地首先是绿色生态之地，体现了统筹生产、生活和生态三者关系的新发展理念。打造高品质生活宜居地，川渝两地需加强合作共同开展相关规划，注重城市用地的内部挖潜，着力提高建设用地的利用效率，对现有建筑进行面向未来的绿色化改造，同时注重建筑色彩搭配，让城市建筑群中拥有更多的花园等绿色空间。加强人行道遮阴树的种植，发展各种各样的主题公园，彰显公园城市美学价值。', '在实现城乡面貌“高颜值”的同时，成渝两地应通过政务资源共享来实现互联互通，提升公共服务水平，围绕教育就业、医疗养老、文化体育等方面满足人民美好生活新期待，着力打造更有质感、更有温度的“高品质生活环境新标杆和共建共享幸福城市新样本”。推进“智慧”与“绿色”融合，对现有能源设施、交通设施等进行智慧改造，提升城市基础设施智慧改造水平。注重巴蜀文化的传承，进一步提升文创产业发展活力，把文创产业作为重要支柱性产业，力争以较小的环境代价提升就业率，注重将文创发展与产业转型、城市更新结合。（记者 陈方耀 王琳黎 图片由受访者提供 视觉设计 陈杰 江蕊松）']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>227</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>补齐缺席年的城市天际线探访金融总部商务区号地块项目</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c169603/2023-12/12/content_cf1646930ae645cba9ade2c26492788b.shtml</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['近日，成都全市“六个一批”项目揭榜挂帅第一次现场会在三个示范项目推进建设现场召开。有效推动实现重大项目谋划储备一批、招引洽谈一批、落地投运一批、培优育强一批、激活提升一批、政策扶持一批，“六个一批”为全市统筹推进项目全生命周期管理服务，提供了全新思维与路径。这其中，有着怎样的探索与经验？即日起，记者在全市范围选取数个不同类别示范项目展开调研剖析，开设《示范项目的突破与带动》专栏，寻找答案。', '近日，途经成都市知名“网红地块”天府国际金融中心西侧的市民或许有了新发现，自2014年起便处于停工状态的原海峡友谊大厦，已“穿”上一层鲜亮的绿色防护网，现场呈现一片新气象。不远的未来，一组由甲级写字楼、高端住宅和商业构成的城市综合体将拔地而起，与金融城双子塔遥相呼应，补齐“金融总部商务区8号地块”缺席9年的城市天际线。', '烂尾楼变新地标。为城市“冰冻”项目解冻，并全面赋能给予激活提升的，正是按照市委财委会、市委研究重大项目专题会议关于“六个一批”工作部署，市发改委牵头深入实施的揭榜挂帅专项行动。截至目前，成都以“六个一批”推动项目全生命周期管理已形成实践成果。', '以交子公园为视线起点西望，面积数平方公里的成都交子金融商圈内，街道纵横高楼林立。金融城双子塔与成片的城市楼栋高低错落有致，清朗的建筑立面与天空相接，形成的壮丽天际线一直是城市名片之一。然而，这条天际线多年以来缺失了重要一环——“金融总部商务区8号地块”。', '该地块地处金融城地铁站A口黄金十字路口西北侧，毗邻华商金融中心、东方希望中心，距离双子塔、交子之环不过数百米。2013年11月，原海峡友谊大厦在此开工建设，因资金链断裂等原因从2014年12月停工，已建至地面4层的主体建筑陷入停滞状态。城市发展日新月异，而8号地块的地面建筑却日益破败，防护网渐渐脱落，露出灰暗的水泥墙体和锈蚀的钢筋，散落的建材与杂草扎堆……8号地块与周边相继完成开发建设的地块极不协调，成为市民朋友口中的烂尾楼。', '自成都市启动“六个一批”揭榜挂帅专项行动以来，“金融总部商务区8号地块”原海峡友谊大厦项目便成为“激活提升一批”中的重要工作。具体怎么做？项目所在的高新区先后设立由管委会主要领导牵头的成都高新区房地产市场平稳健康发展领导小组，由规划、产业、法院等职能部门组成烂尾楼处置工作专班，健全工作架构并高效运转。“2021年4月以来，高新区与市中级人民法院沟通、协调20余次，加快推进落实海峡友谊大厦项目重整方案，促进市中院在2023年1月18日批准重整计划。”高新区发改局相关负责人介绍。', '市场项目开发迟滞，最终解决的方向依然来自市场。重整方案确定之后，市中院接连三次向社会公开招募投资人，以解决项目复工复建资金难题。4月28日，原海峡友谊大厦股权交割仪式暨复工启动仪式在成都举行，四川泓铠建设项目管理有限公司完成正式交接，项目更名为金融城8号，预计6月全面复工复建。', '走出地铁金融城站A口，一眼便能瞅见金融城8号鲜亮的绿色防护网和全新的工地围挡。大门处，数辆卡车一字排开，叉车往来穿梭，将防护材料装卸至指定点位，全面复工复建的准备工作有条不紊。“项目总投资预计20亿元左右，建设周期在4年左右。”泓铠建设相关负责人介绍，已对项目原基坑、主体建筑结构完成鉴定，聘请专业设计院完成加固方案，目前正进行旧围挡拆除、安全隐患排查、临边防护等工作。值得期待的是，由3栋商业和1栋住宅组成的金融城8号，拥有全新设计的外立面，准备引入弱光条件下也可发电的高科技玻璃，建成后将是成都又一处新地标。', '实际上，“金融总部商务区8号地块”在成都房地产商圈子里，知名度颇高。“原项目停工以后，前往设计方要图纸的开发商不下100家，主要是区位优势太好了。” 泓铠建设营销负责人说，公司同样高度关注这一地块，前后用了1年多时间展开详尽调研，最终果断决策参与接续投资的角逐。这位负责人坦言，企业的信心极大部分来自政府激活提升城市“冰冻”项目的决心和举措。“烂尾”项目往往伴随诸多错综复杂的债务问题，这对项目盘活及后续开发有着巨大影响，“前期政府把债务清理工作做得十分清晰，在我们看来风险已完全可控，消除了最大的隐患，后面的工作我们全力以赴。”据了解，该项目的债务清偿比例达到百分之百，全国仅此一例。', '没了后顾之忧，企业快马加鞭。泓铠建设已确定动用全公司最优资源，将金融城8号做成标准最高的精品工程。前期团队已赴北上广深杭考察学习，带回当前最新的城市核心区域综合体打造先进理念，融入项目全新设计方案。', '金融城8号，是成都市“六个一批”揭榜挂帅专项行动的一处小切口，彰显的是城市以示范项目引领带动全市重大项目成势见效，全面提升运用先进理念强化重大项目管理服务的能力水平的大作为。以激活提升批次为例，自专项行动启动以来，先后有天府新区农科中心科技成果转化产业园等9个老旧片区、工业厂房启动腾退改造或项目建设，高新区海峡友谊大厦、青羊区新琴台2个“烂尾”工程重新启动。', '来自成都市发改委的一季度全市示范项目揭榜挂帅工作推进情况通报显示， 各区（市）县、相关市级部门聚焦“三个做优做强”、产业建圈强链、“四大结构”优化调整、幸福美好生活十大工程等市委、市政府重点工作部署，广泛梳理并建立本地本部门“六个一批”项目库。在此基础上，市发改委坚持“优中选优、重中之重”，会同各单位遴选确定“六个一批”市级示范项目。', '同时，按照“清单管理、挂图作战”要求，市发改委强化“市级统筹、区域联动”，加强分类协调和提级管理，研究制定《“六个一批”示范项目揭榜挂帅评分规则（试行）》，针对各批次项目着力重点，明确关键节点、工作目标。（成都日报锦观新闻记者 蔡宇 文/图）']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>227</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>热点奋进超大城市现代化发展之路</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2022-04-24</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c173847/2023-12/13/content_03d5b8b7c50a4430892fd1bb0c06480a.shtml</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['2021年7月1日，北京天安门广场，“巍巍巨轮”造型乘风破浪、扬帆远航，见证着中国共产党百年华诞的历史性时刻。', '天安门城楼上，习近平总书记庄严宣告：经过全党全国各族人民持续奋斗，我们实现了第一个百年奋斗目标，在中华大地上全面建成了小康社会，历史性地解决了绝对贫困问题，正在意气风发向着全面建成社会主义现代化强国的第二个百年奋斗目标迈进。', '当今世界百年变局与世纪疫情交织叠加，以中国式现代化推进中华民族伟大复兴，这是每一座城市在新的赶考之路上必须回答的人民之问、时代之问。', '立足新发展阶段，成都作为全国第四个常住人口超过2000万的超大城市，如何在新的历史起点上建设社会主义现代化城市，既是成都自身发展必须回答的时代课题，更是为超大城市现代化建设先行探路的历史使命。', '民族复兴引领大城崛起。成都把握时与势，胸怀“两个大局”、心系“国之大者”“省之大计”，从全局谋一域、以一域服务全局，全面提升国家中心城市能级，推动成都都市圈同城化发展，促进全省“干支”协同和成渝双核联动，加快打造带动全国高质量发展的重要增长极和新的动力源——', '成渝都市圈“1+5”合作深入推进，成德眉资同城化发展起势见效；经济总量接近2万亿元；天府国际机场建成投运，“1环10射”铁路网和“3绕13射”高速公路网基本成形，西部（成都）科学城加快建设，西部金融中心辐射能力不断增强，极核主干能级持续提升。', '成都以建设践行新发展理念的公园城市示范区探索中国式现代化城市发展道路，努力走出一条具有中国特色、体现时代特征、彰显社会主义制度优势的超大城市现代化发展之路，奋力书写全面建设社会主义现代化城市新篇章。', '中华民族迈向伟大复兴的壮阔进程，也是中国城市在世界现代化城市体系中争先进位的奋斗征程。', '当前，我国经济发展的空间结构正在发生深刻变化，中心城市和城市群正在成为汇聚发展要素的主要空间载体。', '面向第二个百年奋斗目标，以习近平同志为核心的党中央，把实施区域协调发展战略作为新时代国家重大战略之一，作为贯彻新发展理念、建设现代化经济体系的重要组成部分，先后提出京津冀协同发展、粤港澳大湾区建设、长三角一体化发展等区域发展战略，推动全国区域发展实现全局性、系统性、格局性的重大跃升。', '习近平总书记着眼经略西部腹地、完善区域布局、促进协同发展，在2020年1月3日主持召开的中央财经委员会第六次会议上，作出建设成渝地区双城经济圈的重大战略决策，为成渝地区协同联动、打造带动全国高质量发展的重要增长极和新的动力源擘画了发展蓝图。', '成渝地区作为西部人口最密集、产业基础最雄厚、创新能力最强、市场空间最广阔、开放程度最高的区域，以全国1.9%的国土面积，承载了全国近7%的常住人口，创造了全国6.5%的经济总量，具有巨大发展潜力和承载空间，是我国经济发展韧性和战略纵深所在。', '2021年10月，党中央、国务院印发《成渝地区双城经济圈建设规划纲要》，明确要求成都要以建成践行新发展理念的公园城市示范区为统领，支持成都以新发展理念引领区域经济人口承载能力提升，以公园城市形态塑造城市比较优势，全面增强国家中心城市国际竞争力和区域辐射力。', '成都市推动成渝地区双城经济圈建设领导小组宣告成立，市委主要领导担任组长，按照党中央国务院和省委省政府部署要求，深刻领会、准确把握成渝地区双城经济圈建设的重大意义、战略考量、目标定位和实现路径，全面落实《规划纲要》确定的200余项任务；市委主要领导带队，成都市党政代表团前往重庆市考察学习交流，签署了“1+5”合作协议，内容涉及国际性综合交通枢纽、世界级先进制造业集群、西部科学城、西部金融中心、现代化国际都市等重点领域，进一步推动成渝务实合作、双城联动、协同发展。', '2021年6月，国家发展改革委、交通运输部印发《成渝地区双城经济圈综合交通运输发展规划》。根据规划，到2025年，基本建成“轨道上的双城经济圈”，轨道交通总规模达到10000公里以上。', '2021年9月，成渝中线高铁建设全面启动，建成后将成为我国建设标准最高、运行速度最快的高等级高速铁路。', '2021年12月，推动成渝地区双城经济圈建设重庆四川党政联席会议第四次会议上，重庆和四川共同明确在2022年加快推动实施160个重大项目。今年一季度，已开工项目149个。', '作为成渝“双核”之一，成都必须以更大格局更广视野，在国家战略全局、四川发展大局中谋划自身发展大势，扛起时代赋予城市的使命与担当。', '2021年10月，中共中央、国务院印发《成渝地区双城经济圈建设规划纲要》，明确提出要充分发挥成都带动作用和德阳、眉山、资阳比较优势，加快生产力一体化布局，建设经济发达、生态优良、生活幸福的现代化都市圈。', '2021年11月，四川省政府正式印发《成都都市圈发展规划》。这是继南京都市圈、福州都市圈以后，国家层面批复的第三个都市圈规划。', '立足服务国家战略，顺应区域经济发展规律，省委提出“一干多支、五区协同”区域发展新格局，将成德眉资同城化发展作为推动成渝地区双城经济圈建设的“先手棋”、实施“一干多支”发展战略的牵引性工程，把全省发展主干从成都拓展为成都都市圈。', '准确把握《关于推动成德眉资同城化发展的指导意见》，全面增强现代产业协作引领、创新资源集聚转化、改革系统集成和内陆开放门户、人口综合承载服务四大功能；', '大力提升协同创新水平，共享开放枢纽平台，协同推进产业“建圈强链”，共促民生实事落地见效，全力推进重大基础设施项目建设；', '陆续出台《成德眉资同城化综合试验区总体方案》《同城化发展专项合作组组建方案》《成都都市圈（成德眉资同城化）发展规划》等多项机制。', '去年10月，德阳市党政代表团到访成都，双方探讨在基础设施、产业发展、科技创新、公共服务等领域加强交流合作，以“项目制+清单制”推动重大任务落地落实。', '2022年2月，省推进成德眉资同城化发展领导小组由兼任组长的成都市委主要领导率队，前往眉山市和资阳市考察，促进资阳临空经济区、万华化学四川工业园等产业生态圈构建，推动成都至资阳线（S3）市域铁路和成都至眉山线（S5）市域铁路项目建设。', '轨道交通网络正在成形，公共交通服务同城化水平大幅提升；科创和生产性服务业走廊、临空经济产业走廊、龙泉山东侧先进制造业走廊等产业生态圈蓬勃生长，产业协同效益彰显；区域内要素流动加速畅通，“一站式”通办让都市圈内百姓实实在在感受到便利；生态环境共保共治，都市圈空气优良天数率提高到82%。', '以建设都市圈为支撑，成都不断增强对全省的辐射带动能力，促进成都平原经济区一体化发展，引领全省五大经济区协同发展。2021年，成都都市圈地区生产总值超2.5万亿元，占成渝地区双城经济圈的比重达33.8%。主干能级持续提升，成都都市圈经济总量占全省的比重为46.4%，人均GDP迈上8万元台阶，高于全国和全省、达到全球中等收入地区水平。', '从神秘古蜀到天府之国，从偏居一隅到汉唐繁华，成都自古沃野膏腴绿色萦绕。独特的两江环流城市格局、依水而居的城市民俗画卷、水系交错的乡村田园风情，化为千百年来成都人的生活日常。秦汉时期，成都位列全国五大中心城市之一，史称“列备五都”。到了晚唐，“扬一益二”闻名天下。2016年5月，成都被确定为全国第6个国家中心城市，让身处西部内陆的成都一跃跻身全国城镇体系“金字塔”的“塔尖”。', '2018年2月10日至13日，习近平总书记来川视察时，在成都首提“公园城市”理念。2022年3月，《成都建设践行新发展理念的公园城市示范区总体方案》正式发布。', '以更宏阔的视野看，从公园城市示范区到成都都市圈再到成渝地区双城经济圈，空间上由点到圈及面、目标定位上有机统一，共同形成“中心城市-都市圈-经济圈-发展全局”的发展战略闭环。', '从理论到实践，公园城市示范区建设的每一步，都饱含着习近平总书记对成都的深切关怀。党中央首次将“新发展理念”鲜明标定在一座城市发展的旗帜上，为示范区建设指引了方向。', '建好示范区，是成都服务“国之大者”“省之大计”的战略统领，标注了新时代成都高质量发展的鲜明路标，承载了人民对美好生活的期盼向往。', '准确把握示范区建设的深刻考量和核心内涵，成都结合实际贯彻落实好《总体方案》各项任务，开启中国式现代化城市发展道路的全新探索。', '放眼蓉城大地：成都环城生态公园100公里一级绿道全线贯通，实现“串珠成链”。全市森林覆盖率达40.3％，建成天府绿道5300余公里，新增公园面积43平方公里，入选联合国人居署“可持续发展试点城市”……', '2021年6月，西部（成都）科学城正式挂牌。如今，中科院成都分院、独角兽岛、超算中心等科研创新高地已拔地而起，清华四川能源互联网研究院、上海交大四川研究院、北大光华管理学院成都分院等顶尖学术机构也汇聚于此。', '2021年6月，成都天府国际机场正式投运，成都成为我国大陆地区第三个拥有双国际枢纽机场的城市，标志着打造内陆开放战略高地迈出了坚实一步。成都与全球228个国家或地区建立经贸往来，外国获批在蓉设立领事机构达21家。', '2022年2月，成都市未来公园社区建设正式启动。首批启动建设未来公园社区25个。“十四五”期间，全市将建设200个未来公园社区。', '以新发展理念引领区域经济人口承载能力提升，以公园城市形态塑造城市比较优势，成都先行先试，努力将生态优势转化为发展优势，推动城市发展由规模扩张向内涵提升转变。', '“一山连两翼”城市格局，从根本上提升资源能源利用效率和城市集约节约、绿色低碳发展水平；', '建圈强链行动，通过打造“链主企业+领军人才+产业基金+中介机构+公共平台”产业生态体系，推进高质量发展；', '智慧蓉城建设，以精准精细、智慧智能、共建共享、安全韧性为方向，探索大城善治路径……', '站上新的历史起点的成都，始终胸怀“两个大局”、心系“国之大者”“省之大计”，与时代同步，为建设社会主义现代化城市而乘风奋进，破浪前行。（成都日报锦观新闻记者 马玉宝 曹宇阳 刘飞）']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>227</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>蓉平东进一座大城的谋远与谋细</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2021-02-25</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c166026/2023-12/15/content_dc8a9f87727d4a658fd61f42513d4308.shtml</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['2月19日，东安湖体育公园热闹如往常。工人们忙碌在各自的岗位上，为即将到来的第31届世界大学生夏季运动会开闭幕式场馆建设添砖加瓦。东进区域一批重大项目和产业功能区，正在热火朝天的建设中。新年伊始，东部新区展现出一派人勤春早的图景。', '届世界大学生夏季运动会开闭幕式场馆建设添砖加瓦。东进区域一批重大项目和产业功能区，正在热火朝天的建设中。新年伊始，东部新区展现出一派人勤春早的图景。', '龙泉山以东920平方公里热土，以新身份站到了战略舞台中央。2020年5月6日，成都东部新区授牌仪式，标志着经过三年的规划设计后，一个承接成渝地区双城经济圈建设、落实成都东进战略的新区正式成立。', '日，成都东部新区授牌仪式，标志着经过三年的规划设计后，一个承接成渝地区双城经济圈建设、落实成都东进战略的新区正式成立。', '不到一年的时间里，东部新区不断为成都发展带来新活力。新增市场主体1500多家，27个重大产业项目签约，总投资达1900多亿。10大片区已编制完成控规方案、城市设计和产业规划，计划在3年内实施250个项目，总投资3016亿元。', '作为“最年轻”的区域，成都对东部新区寄予厚望，提出了新要求。2月25日，省委常委、市委书记范锐平率队前往成都东部新区和简阳市，实地调研“东进”、乡村振兴等工作，强调要胸怀全局、敢为人先、实心干事、科学作为，创新推动“东进”区域加速成型成势，全力打造全面体现新发展理念、凸显公园城市特色、承载高品质生活的“未来之城”。', '日，省委常委、市委书记范锐平率队前往成都东部新区和简阳市，实地调研“东进”、乡村振兴等工作，强调要胸怀全局、敢为人先、实心干事、科学作为，创新推动“东进”区域加速成型成势，全力打造全面体现新发展理念、凸显公园城市特色、承载高品质生活的“未来之城”。', '观察成都发展的新棋局，要回溯到三年前布局的先手棋。2017年4月25日上午，成都金牛宾馆大礼堂，近1.8万字的党代会报告，将成都的发展棋局置于更纵深、更广阔的坐标方位中。成都在第十三次党代会上首次提出“东进”，跨越龙泉山发展，开启城市“千年之变”。', '万字的党代会报告，将成都的发展棋局置于更纵深、更广阔的坐标方位中。成都在第十三次党代会上首次提出“东进”，跨越龙泉山发展，开启城市“千年之变”。', '城市发展观大势，最大的“势”来自于民族复兴带给城市崛起的历史机遇。改革开放40来年，中国城市在新一轮城市竞争中你追我赶，争先进位。全球知名的城市评级机构GaWC，从2000年起不定期发布世界城市评级报告。2020年最近一次发榜，中国6座城市位居世界一线，群星闪耀，展示出中国城市综合实力的提升。成都排名连续三次拉升，进入世界二线强城市行列（59位），成为仅次于北京、上海、广州和深圳的第五个中国内地城市，是城市星空中足够耀眼的一颗。', '座城市位居世界一线，群星闪耀，展示出中国城市综合实力的提升。成都排名连续三次拉升，进入世界二线强城市行列（', '位），成为仅次于北京、上海、广州和深圳的第五个中国内地城市，是城市星空中足够耀眼的一颗。', '但是，城市的快速进步和其带来的共性治理难题，恰如硬币的两面。环境问题日益突出，城市交通拥堵，教育学位紧张，看病养老一床难求……“大城市病”随之而来。面对压力和困扰，站在历史纵深处、时代大势前的城市及其主政者，需要站高谋远：如何立足未来破解“大城市病”，贡献可持续发展“成都方案”？', '但是，城市的快速进步和其带来的共性治理难题，恰如硬币的两面。环境问题日益突出，城市交通拥堵，教育学位紧张，看病养老一床难求', '东进跨越龙泉山，使成都从“两山夹一城”的逼仄，拓展为“一山连两翼”的开阔，一着妙棋，迎来城市格局的“千年之变”，为成都开辟永续发展空间。而代管简阳和天府国际机场建设，让成都东进具备了重要的现实条件。', '大势同样在于国家战略和全省发展战略。于省内，需要推动成德眉资同城化，带动全省加快构建“一干多支、五区协同”区域发展新格局。在西部，成渝城市群已成国内第四大城市群，需要成渝相向发展做强发展极核，带动成渝中部区域城市群快速崛起。2020年1月，中央财经委员会第六次会议上，成渝地区双城经济圈建设上升为国家战略，成都被赋予更重要的国家使命。', '大势同样在于国家战略和全省发展战略。于省内，需要推动成德眉资同城化，带动全省加快构建', '月，中央财经委员会第六次会议上，成渝地区双城经济圈建设上升为国家战略，成都被赋予更重要的国家使命。', '千年立城需静气。东部新区作为东进核心区，要建设成怎样的城市，需要深思熟虑、深谋远虑。规划是白纸作画“无中生有”。白纸好画画，下笔仍踌躇，正是东进规划的真实状态。如同开启创作的艺术大师，注重酝酿起势的过程，个中蕴聚千钧之力。胸中有丘壑，下笔方有神。', '千年立城需静气。东部新区作为东进核心区，要建设成怎样的城市，需要深思熟虑、深谋远虑。规划是白纸作画', '“宁可慢一点，也要好一点”，只为尽量少给城市留下历史的遗憾。三年中，先后由96名院士专家领衔、3500多人组成的规划团队，开展了五轮东进规划“大会战”。', '科学是规划的最大价值。习近平总书记强调，规划科学是最大的效益，规划失误是最大的浪费。在东进规划中，成都强调最多的字眼，是“科学”，是“规律”。2017年，成都聘请新加坡规划大师刘太格等20位国际知名城市规划专家，组建成都市城市规划建设专家咨询委员会，为成都城市规划尤其是东进战略规划提供战略性、前瞻性、专业性决策咨询。', '科学是规划的最大价值。习近平总书记强调，规划科学是最大的效益，规划失误是最大的浪费。在东进规划中，成都强调最多的字眼，是', '位国际知名城市规划专家，组建成都市城市规划建设专家咨询委员会，为成都城市规划尤其是东进战略规划提供战略性、前瞻性、专业性决策咨询。', '学习是创新的必由之路。在规划过程中，成都多次派出代表团赴北京市和雄安新区学习考察。2018年8月，成都派出一批规划建设者去雄安新区考察学习。2019年5月，成都代表团又先后前往北京城市副中心、雄安新区、大兴国际机场、北京雁栖湖国际会展中心、北京世界园艺博览会等考察调研，学习借鉴先进经验做法，为高质量高标准规划建设成都东部新区“取经”。', '学习是创新的必由之路。在规划过程中，成都多次派出代表团赴北京市和雄安新区学习考察。', '月，成都代表团又先后前往北京城市副中心、雄安新区、大兴国际机场、北京雁栖湖国际会展中心、北京世界园艺博览会等考察调研，学习借鉴先进经验做法，为高质量高标准规划建设成都东部新区“取经”。', '时间是淬取精华的大师。三年间，从成都市最新一轮城市总体规划，到《成都市实施东进战略总体规划》，再到《成都市东部新城空间发展战略规划》；从《龙泉山东侧沱江发展轴总体规划》，到《龙泉山东侧沱江发展轴景观、文化、产业专项规划》，再到《东部城市新区风貌、色彩、天际线控制导则》……东部新区10大片区已编制完成控规方案、城市设计和产业规划，成都东进实现路径越来越明晰，规划作品也越来越生动。', '时间是淬取精华的大师。三年间，从成都市最新一轮城市总体规划，到《成都市实施东进战略总体规划》，再到《成都市东部新城空间发展战略规划》；从《龙泉山东侧沱江发展轴总体规划》，到《龙泉山东侧沱江发展轴景观、文化、产业专项规划》，再到《东部城市新区风貌、色彩、天际线控制导则》', '大片区已编制完成控规方案、城市设计和产业规划，成都东进实现路径越来越明晰，规划作品也越来越生动。', '“一个片区就是一个产业功能区、一个新型城市社区”。成都秉持着这一理念，从工业逻辑回归人本逻辑，从生产导向转向生活导向，以GDP为中心向以人民为中心转变，创新、协调、绿色、开放、共享的发展理念贯穿着城市规划、建设、管理的全过程。', '为中心向以人民为中心转变，创新、协调、绿色、开放、共享的发展理念贯穿着城市规划、建设、管理的全过程。', '东部新区挂牌成为省级新区，意味着可以在更高层面、更大范围调配政策和资源，新区建设进入了深耕细作的新起点。', '未来的东部新区，她是一座宜居之城，人们在这里能充分体验到生产生活生态的和谐统一，龙泉山麓，沱江之滨，三岔湖畔，工作与生活在自然山水间交融；同时也是一座机遇之城，航空经济、现代物流、国际消费、智能制造、总部经济五大主导产业，先进生产要素在这里富集活跃，带来吸引力十足的创业、就业机会。其公共服务配套体系高起点规划建设，围绕人的衣食住行、游玩购娱、问医求学等，提供相对高水平的品质生活；社会治理体系智能智慧，全市层面的政务服务“一网通办”、城市运行“一网统管”带来公平和效率；城市文化包容开放，文化产品供给丰富，满足人们不断提升的精神追求；天府国际机场连接世界，“东进”首条主动脉地铁18号线、建设规划中的地铁13号线、14号线，金简仁快速路等高速公路、城际铁路，让“双城生活”化为日常。', '未来的东部新区，她是一座宜居之城，人们在这里能充分体验到生产生活生态的和谐统一，龙泉山麓，沱江之滨，三岔湖畔，工作与生活在自然山水间交融；同时也是一座机遇之城，航空经济、现代物流、国际消费、智能制造、总部经济五大主导产业，先进生产要素在这里富集活跃，带来吸引力十足的创业、就业机会。其公共服务配套体系高起点规划建设，围绕人的衣食住行、游玩购娱、问医求学等，提供相对高水平的品质生活；社会治理体系智能智慧，全市层面的政务服务', '这，就是东部新区将要呈现给世界的城市形态，也是人们心中可知可感可盼的“未来之城”。', '在参与东部新区规划的中国城市规划设计研究院原院长李晓江看来，中国城镇化进入下半场，竞争方式已从人跟企业走，变为企业跟着人走，人口的聚集成为城市之间的竞争。', '一个普遍共识是，东部新区建设的成败，关键取决于能否吸引人留住人。只有最灵活的体制、最包容的监管、最高效的服务，才能吸引最优秀的青年人才。东部新区的耕耘者在思考：这片宜居热土，靠什么吸引人才？', '靠人才政策的落实吸引人。东部新区耕耘不缀，人才政策也不断升级。定期发布的“东进”区域紧缺人才需求清单中，详细列出了每一个重点项目相应的人才供需机会，为高层次人才提供了详尽的参与东部新区建设的指南。人才政策2.0版，展示出东部新区的胸怀和诚意。', '靠体察关怀个体需求吸引人。人才引进过程中遇到的就业、住房、教育、医疗、通勤等实际问题，既有赖于公共服务总量供给，又需要实施精准服务。诸如像成都“四七九”中学、华西医院等优质教育医疗资源的布局，会成为东部新区的重要加分项。同时，需要照顾到各类人才个性化需求，让其愿意来，来了愿意留。', '靠体察关怀个体需求吸引人。人才引进过程中遇到的就业、住房、教育、医疗、通勤等实际问题，既有赖于公共服务总量供给，又需要实施精准服务。诸如像成都', '因此，可将“吸引人留住人”作为东部新区重要的价值标准。让这一价值观成为“人－城－产”营城逻辑的丰富内涵，在新区耕耘中始终关注“人的需求”，研究“人的选择”。', '“东进人”还要边耕耘边思考，作为成都东进的桥头堡，东部新区凭什么为双城经济圈建设作贡献？', '新区建设是走前人没有走过的路、做前人没有做过的事、创前人没有创过的业。于拓荒者而言，最重要的是培育起“东进人精神”。', '新区建设是走前人没有走过的路、做前人没有做过的事、创前人没有创过的业。于拓荒者而言，最重要的是培育起', '成都即将迎来2021世界大学生夏季运动会，这是东部新区在世界面前的一次关键亮相。确保天府国际机场如期开通运行，展现向西向南开放新门户形象，展现东部新区的活力和希望。东部新区是产业新城，要推动智能制造、航空物流等先进制造业和现代生产性服务业东移，加快完成五大主导产业布局，使东部新区成为成渝地区高质量发展新的增长极和动力源，辐射带动周边地区发展。东部新区还要依托龙泉山城市森林公园和天府奥体公园，加快建设国际交往中心和国际消费中心。', '世界大学生夏季运动会，这是东部新区在世界面前的一次关键亮相。确保天府国际机场如期开通运行，展现向西向南开放新门户形象，展现东部新区的活力和希望。东部新区是产业新城，要推动智能制造、航空物流等先进制造业和现代生产性服务业东移，加快完成五大主导产业布局，使东部新区成为成渝地区高质量发展新的增长极和动力源，辐射带动周边地区发展。东部新区还要依托龙泉山城市森林公园和天府奥体公园，加快建设国际交往中心和国际消费中心。', '东部新区，从“白纸画图、平地立城”到如今的日新月异，离不开新思想新理念的指引导航，也离不开科学的谋划和“东进人”的深耕细作、艰辛努力、接续奋斗。', '“人民对美好生活的向往，就是我们的奋斗目标。”筑城，最终是为了人的幸福。“未来之城”已来，城市发展新空间徐徐展开，幸福美好生活扑面而来。（图片来源：成都发布）']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>227</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>合力谱写双城记围绕五大共建领域建言献策</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2022-01-18</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c169603/2023-12/08/content_d9b861dc06bd4997b7d37a1fe77f4b86.shtml</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['去年1月1日，重庆、成都两地同时发出2021年中欧班列（成渝）第一趟列车。如今，两地共建“中欧班列（成渝）”品牌已有一年多。昨日，记者从成都国际铁路港获悉，2021年中欧班列（成渝）开行量超4800列，占全国比例超30%，运输箱量超40万标箱，开行线路已可通达欧洲百余个城市。', '“目前，中欧班列（成渝）已成为全国区域合作最广泛、运输最稳定的中欧班列。”重庆市政府口岸物流办主任巴川江表示。成都国际铁路港经开区管委会相关负责人则指出，成渝“两港”深度融合，在中西部地区形成了一个跨境班列的内陆开放极。', '为落实成渝地区双城经济圈建设重大决策部署和川渝党政联席会议工作要求，合力谱写“双城记”，去年12月17日至18日，成都市党政代表团前往重庆市考察学习交流。在成渝两市领导的见证下，重庆市与成都市签署了“1+5”合作协议。双方达成共识：把协议确定的事项落实好，持续推进共建国际性综合交通枢纽、世界级先进制造业集群、西部科学城、西部金融中心、现代化国际都市取得新成果，为成渝地区双城经济圈建设作出积极贡献。在四川、重庆召开两会之际，聚焦成渝地区双城经济圈建设，本报联合重庆日报，连线四川省、重庆市人大代表政协委员，请他们围绕国际性综合交通枢纽、世界级先进制造业集群等五大共建领域建言献策。本报特推出上下两篇报道，今日推出上篇。', '过去一年，川渝合力推进现代交通基础设施建设，加快打造成渝地区双城经济圈4个“1小时交通圈”，一批标志性引领性重大项目加快推进，双核间高铁通行时间缩短至近1小时，形成4条高速大通道。', '重庆市交通局局长许仁安：新的一年，重庆将以提升内联外通水平为导向，以补短板、强弱项为重点，加快构建多种运输方式无缝衔接的综合立体交通网络。重庆将统筹东南西北四个方向，加快构建出海、出境大通道。', '在打造国际航空门户枢纽上，重庆将着力推动形成“市内双枢纽协同、成渝四大机场联动”的机场格局，合力打造辐射全球的世界级机场群。今年将加快建设江北国际机场T3B航站楼及第四跑道，提速推进新机场前期工作。同时，全力推进“米”字形高铁网建设，加快实现1小时成渝双核直连、3小时毗邻省会互通、6小时北上广深通达。今年将通车运营郑万高铁，启动建设渝西、渝宜高铁。', '四川省人大代表、成都陆港枢纽投资发展集团工程项目管理中心副主任佘金波：中欧班列（成渝）开行以来，成渝两地破除行政壁垒，建立政府及平台公司间常态化沟通和协调机制，重庆、成都、中国铁路成都局集团有限公司形成三方联席机制，定期协调班列开行中的各项问题。', '成渝两地加快建设立体综合交通体系，有利于畅通对外联系，带动物流、人流、资金流、技术流、信息流加快集聚，提升城市经济社会发展位势能级，巩固重庆、成都门户枢纽地位，进一步发挥极核和“主干”引领带动作用，更好服务新发展格局。作为一家立足于陆港枢纽建设的本地国有企业，成都陆港枢纽投资发展集团将充分借助国家战略的叠加优势，持续深化国企改革，充分凸显国有资本引领作用，为成都国际铁路港的建设发展贡献更多更大的力量。', '每天，成都经开区的汽车生产线上，来自重庆的零部件悉数登上一辆辆新车。与此同时，成都经开区生产的零部件也源源不断发往重庆。优化产业链协作和供应链配套，共同推动培育世界级汽车产业集群，成都与重庆，正双向奔赴，共谱新章。', '四川省人大代表、中国电子科技集团公司高级技师陈昊：关于双方应如何协同建设世界级先进制造业集群的问题，我认为可以从加强成渝两地制造业合作、提高工业工艺技术等方面着力。成渝两地制造业各有特色、各有优势，比如重庆的汽车、造船等行业具有很大优势，成都的汽车行业也有雄厚基础。双方可在这些领域研究国际国内制造业的特点、规律，构建新的产业分布和合作关系，实现“有上游、有下游”的合作方式。', '高质量制造业的发展离不开工艺技术。应整合两地研究机构和大学，整合研发实力，实现产业集群的协同创新。最好能通过两地企业、研发机构，建立制造工艺开发的创新中心，共同提高两地工艺技术水平，从而建设一批智慧工厂、数字化车间等，把技术提高上来。', '重庆市人大代表、渝北区委书记于会文：重庆制造业发达，而四川大院大所较多，科研实力雄厚。去年，重庆出台《关于进一步推动制造业高质量发展加快建设国家重要先进制造业中心的意见》。两地可相互学习，锻长板补短板，一起将先进制造业做强做大。', '以新一代信息技术为代表的科技革命和产业变革，为两地制造业转型发展提供了一个非常好的窗口期。成渝地区双城经济圈建设，有助于两地产业链协同、产业政策协同、产业发展公共服务平台协同。当务之急是要围绕产业链，提升价值链，进一步提升核心技术研发能力，从而补链、延链、强链。', '去年底，《成渝共建西部金融中心规划》出台，明确提出2025年四川要建成西部金融科技发展高地。成渝共建西部金融中心作为成渝地区双城经济圈建设的关键环节，正式对接国家区域发展战略并入高位突破“快车道”。', '四川省政协委员、西南财经大学微金融与互联网金融创新研究中心张晓玫：这对我们四川的金融科技行业来说是一个重大的利好，金融科技的目的是帮助金融机构降本增效。既然是帮助降本增效，那么最适合的实际上是在普惠金融领域，我们四川有普惠金融最好的场景，比如说农村金融，成都有非常好的消费金融场景，这些都是我们的优势和基础。', '未来2025年，我觉得建成金融科技发展高地完全没有问题。去年，四川省金融科技协会还和重庆的国家金融科技认证中心，以及天府新区管委会签署了三方协议，未来将加强跟重庆两地人才合作技术研发标准的制定，特别是在一些前沿的领域和标准互认方面，会深入探讨相关的合作细节和合作要点。', '重庆市政协委员、重庆富民银行股份有限公司董事长张国祥：重庆、四川在金融领域各有优势。重庆、四川要发挥各自优势，补齐短板，高质量共建西部金融中心。', '同时，重庆、四川两地要进一步加大市场准入力度，互设更多的金融机构，共享政策红利，共同防范风险。重庆应加快金融资源整合，发挥乘数效应，助力西部金融中心建设。（重庆日报记者 王亚同 向菊梅 成都日报记者 赵一 李霞 白洋）', '成渝地区双城经济圈建设国家战略实施，成都都市圈发展规划得到正式批复，成德眉资同城化发展驶入快车道。如何抓住“先手棋”机遇？在今年的省两会上，“成德眉资同城化”成为代表委员们热议的话题。', '聚焦同城化发展，如何利用现有资源实现更好发展？“同城化，新未来。”省人大代表、成都市青白江区委书记池勇表示，省委“一干多支、五区协同”以及成德眉资同城化发展战略为各地带来了更多机遇，要发挥好区域优势资源，积极参与和推进成德眉资同城化发展。', '“‘陆海联运枢纽、国际化青白江’，这不仅是青白江的总体定位，更是其发展优势。我们将以此推动同城化发展，共建都市圈。”池勇表示，将继续充分发挥综保区、自贸试验区、大港区、国家经开区、陆港型国家物流枢纽等区位优势，发挥国际班列畅通道、促贸易、聚产业作用，为同城化交流提供更便捷的渠道。', '池勇认为，应该利用中欧班列保障德眉资地区外向型经济发展走出去、引进来。持续拓展12条国际铁路和铁海联运通道；东向合作推动多式联运体系建设，依托沿江班列和长江航运打造铁水联运国际物流通道；南向共同开行中老国际跨境班列，共建西部陆海新通道运营组织中心；西向北向深化中欧班列成渝合作，争做成德眉资同城化发展排头兵。', '积极转化优势，拉近地域距离。池勇建议，提升省口岸物流办的能级，以便更好统筹和服务全省供应链的发展，并且以铁路港经开区为基础，完善运输服务，更好地推进成德临港经济带建设。', '实现成资同城化率先突破是省委、省政府交给资阳的重大政治任务，它的重要示范意义不言而喻。对于如何实现成资同城化率先突破，省政协常委、资阳市政协主席陈莉萍有着诸多思考。在她看来，成资毗邻地区的融合发展，是打造同城化发展若干支撑点的重要途径。', '“近年来，成都市政协和资阳市政协多次开展同题调研，形成了推动成资同城化发展的工作合力。”陈莉萍分析，多重战略机遇的叠加，为成资毗邻地区融合发展带来了重大机遇和政策红利，让成资毗邻地区从曾经的“偏远地带”变为现在的“示范前沿”。但在规划统筹、产业项目、要素保障等方面的现实困难还是存在的。', '对此她建议，加强顶层设计，强化统筹布局，在规划上“一盘棋”。在交通、产业、公共服务等方面全面执行“成都标准”，着力把简阳、雁江、乐至交界地带打造为毗邻地区融合发展典范。同时，探索省政府和成资两市在年度用地指标中单列用于毗邻地区产业发展和基础设施建设用地指标；将“成都政策”覆盖成资毗邻地区，以市场化手段引入成都市国有平台公司、民营企业参与交界地带规划建设，共享“成都资源”“成都平台”。同时，她还建议，打破行政界限，跨区建园，建议成资两市联合成立“成资交界地带融合发展管理委员会”，实现对毗邻地区融合发展工作的统一领导和规划。', '陈莉萍表示，今年，资阳市政协将主动加强协同联动，聚焦成渝地区双城经济圈建设、同城牵引，在助力“融通”“融城”“融产”“融合”，构建外畅内联通勤圈、错位协同产业圈、区域发展共同体等方面，从实施“双碳”战略、节约土地资源、发展新能源汽车、壮大天然气产业等方面着力，积极建言献策。（记者 李霞 李菲菲）']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>227</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>成都大运会城市宣传系列第场科技成都科技创新中心建设专场</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2023-07-19</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/dyh13/2023-12/18/content_bb345e445d584be7bdc4084d13976e3f.shtml</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['成都大运会城市宣传系列（第13场）“科技成都——科技创新中心建设”专场-成都市人民政府', '大家下午好，欢迎参加成都市政府新闻办举行的成都大运会城市宣传系列第十三场新闻发布会“科技成都——科技创新中心建设”专场。', '成都大运会不仅是一场全球青年人的体育盛会，近年来我市诸多领域科技创新成果也在大运会不同场景得到了应用。这些科技创新成果在保障服务大运会的同时，也为产业发展赋能，为营城惠民贡献科技力量。近期，成都市出台了《成都市进一步有力有效推动科技成果转化的若干政策措施》，助推加快建设具有全国影响力的科技创新中心，为了让大家更好地了解', '日，市委办公厅、市政府办公厅联合印发了《成都市进一步有力有效推动科技成果转化的若干政策措施》（以下简称《政策措施》），对有力有效推动科技成果转化，促进创新链产业链资金链人才链深度融合作出部署，下面我就该《政策措施》向大家作简要介绍。', '党的二十大提出，要推动创新链产业链资金链人才链深度融合，提高科技成果转化和产业化水平。四川省委第十二届三次全会要求，要纵深推进创新驱动引领产业发展，加快形成基于应用和市场导向的科技成果转化应用格局。成都市委提出', '成都全面贯彻落实中央、省委、市委关于科技成果转化的重大部署，聚焦科技成果转化和产业化能力提升，着力破解科技与经济', '难题，在深化科技成果改革、完善政策体系、畅通转化渠道、优化完善服务等方面持续深化实践，逐步探索出一条成都特色的科技成果转化道路。近年来，成都职务科技成果', '平台服务企业的经验做法获得国务院大督查通报表扬，成果权属改革经验在全国复制推广，成德绵地区成为中西部首个获批建设国家科技成果转移转化的示范区。', '为进一步加快建设具有全国影响力的科技创新中心，推动我市重点产业建圈强链和经济高质量发展，我市认真梳理总结近年来科技成果转化工作经验，在实地考察学习国内先进城市成果转化工作经验做法的基础上，重点针对我市成果本地转化率低、成果转化服务链条不完善、创新平台成果溢出不足等主要问题，研究起草了本《政策措施》。在起草过程中，积极吸纳市人大代表、市政协委员的建议意见，组织区（市）县及部分在蓉高校院所、科技企业、服务机构等专题座谈调研，立足成都科技创新、产业创新和成果转化实际，研究提出有力有效推动科技成果转化的政策举措。', '，促进成果转移转化有力有效，《政策措施》围绕建设科技成果转化中试平台、打造成果转化服务生态集聚区、提升企业成果吸纳转化能力、培育以成果转化为导向的新型研发机构、加强国资国企创新转化激励、鼓励科技人才创新创业、发挥场景应用对成果转化的牵引作用、加大科技金融对成果转化的赋能力度、升级成果孵化转化载体、建立西部（成都）科学城成果转化机制等共', '一是支持本地企业购买高校院所技术成果在蓉转化，按成交额给予企业财政补贴；对高校院所科研人员带成果在蓉创办、领办科技企业，按实缴资本金给予补贴；对国家科技奖等成果在蓉转化给予配套支持。二是支持区（市）县与高校结对联动，利用校园及周边存量房产建设成果转化孵化载体，在', '年过渡期内土地用途和使用权人可不作变更，不收取土地用途价差制度。三是鼓励高校院所面向产业链开放共享科研仪器设备，根据开放服务绩效给予奖补。四是支持创新产品首购首用，对首次投向市场的创新产品，政府采购可依法采用单一来源采购方式；对购买使用首台套、首批次、首版次产品的，按产品实际销售总额给予研制和应用单位补贴。五是支持区（市）县围绕重点产业链，会同行业领军企业、高校院所组建以成果就地转化为导向、市场驱动的新型研发机构；支持链主企业牵头组建创新联合体，围绕关键核心技术需求，以', '一是规划建设成都科创生态岛，构建要素聚合、转化服务、成果展示、产业育成等创新转化服务生态。二是聚焦电子信息、航空航天、绿色低碳、大健康等产业生态圈，布局建设一批中试熟化、概念验证、小批量试生产中试平台，所需建设用地实行差异化土地供应价格，建立环评、能评、安评等绿色通道。三是对新引进落地的知名技术转移机构、获得技术经纪人专业职称的给予经费补贴，鼓励技术经纪人对转化项目投资入股，建设成都技术转移学院。四是组建天使投资母子基金、支持区（市）县联合创投机构组建科技成果转化基金群，聚焦', '一是深化职务科技成果权属改革，探索职务科技成果作价入股形成的国有股权减值及公司破产清算时，区别于有形资产形成的国有股权的管理办法。二是加强国企创新转化考评激励，对国有企业承担实施市级以上科技计划项目、引进科技人才、投资中试平台等发生的研发费用，在经营业绩考核中视同利润。三是加强国资国企创新转化激励，鼓励实施成果转化项目跟投、股权激励和收益分红等激励措施。', '二是加强国企创新转化考评激励，对国有企业承担实施市级以上科技计划项目、引进科技人才、投资中试平台等发生的研发费用，在经营业绩考核中视同利润。', '加强国资国企创新转化激励，鼓励实施成果转化项目跟投、股权激励和收益分红等激励措施。', '合作机制。二是支持产业园区对接国家实验室、天府实验室等重大创新平台，规划布局成果应用转化基地。三是依托重大科技基础设施、天府实验室等组建专业化、市场化成果转化运营公司，推进原创成果', '请问成都在围绕加快建设全国创新人才高地，构建爱才育才引才用才良好生态方面，采取了哪些创新举措？', '谢谢主持人，大运会开幕在即，谢谢记者朋友对成都大运会及人才工作的关心！近年来，成都主动融入国家建设世界重要人才中心和创新高地的战略布局，全力争创吸引和集聚人才平台、加快建设全国创新人才高地。围绕这一目标，我们重点做好以下几方面工作：', '围绕壮大院士等顶尖人才队伍，出台海外高层次人才直通车政策，支持用人主体设立院士（专家）创新工作站。深化校院企地人才协同机制，联动', '，量身定制政策服务清单，集聚力量进行原创性引领性科技攻关。围绕培育青年科技人才，出台博士和博士后支持政策，给予博士后最高', '围绕向用人主体授权，建立面向重点单位的人才计划定向单列支持机制，将人才评审权赋予用人主体，支持用人主体', '靶向引才。围绕为人才松绑，推行重大科技攻关首席科学家负责制，持续深化科研人员职务科技成果所有权或长期使用权改革，赋予科学家更大技术路线决定权、经费支配权和资源调度权。围绕完善人才评价体系，探索', '等评价方式，建立科学化、社会化、市场化的人才评价制度。在全国率先实施职称评价与企业人才评价开放融通试点，', '等方式，大力支持高校院所建设世界一流大学、科研机构。围绕打造产业技术创新强磁场，实施产业链人才开源计划，鼓励链主企业开放生产服务和中试熟化平台，为链属企业提供技术与人才支持。发布重点产业链人才开发目录，优化细分强链补链延链的', '类人才需求清单，引导人才资源和创新要素向重点产业链加速汇聚。围绕打造科技创新功能服务新场景，培育壮大科技中介服务机构，着力建设天府国际技术转移中心、国家技术西南转移中心和中国（成都）知识产权保护中心，培养一批既懂技术又懂市场的专业技术经纪人。', '亿元，支持人才企业利用多层次资本市场实现跨越发展。围绕优化人才政策服务，高质量建设成都智慧人才服务平台，上线后已累计使用超过', '万人次，以数字化手段赋能人才工作。围绕优化人才安居服务，高标准实施人才安居工程，通过构建', '此次大运会在成都举办，让世界看到了成都的科技力量和创新活力，请问刘杰局长，能否简单介绍一下，西部（成都）科学城作为成都市科技创新的策源地和主阵地，如何筑强核心功能，有力支撑具有全国影响力的科技创新中心建设？', '感谢这位记者朋友提问，同时也感谢大家长期以来对西部（成都）科学城的关心与支持。借此机会，我向大家简要介绍下西部（成都）科学城的建设发展情况。', '年，中央财经委员会第六次会议上指出，要推动成渝地区双城经济圈建设，赋予了成渝地区打造具有全国影响力的科技创新中心的重大使命，并支持两地以“一城多园”模式合作共建西部科学城。', '年多来，在国家、省市的大力支持下，天府新区坚定担当起建设西部（成都）科学城的重任，统筹“一核四区”，不断筑强创新策源转化功能、培育壮大现代产业体系，为成渝科技创新中心建设打牢了坚实基础，我们主要开展了以下几方面工作。', '我们积极联合知名高校，共同打造科研任务与国家战略紧密结合的新型研发机构，现已布局了清华、上海交大、西北工大等', '合知名高校，共同打造科研任务与国家战略紧密结合的新型研发机构，现已布局了清华、上海交大、西北工大等', '完善人才成长的优质环境、营造人才发展的良好生态，实施了天府英才、四派人才等各类人才计划，为战略科学家、科技领军人才和创新创业团队量身定制服务，已吸引', '我们致力以科技创新引领加快建设现代化产业体系，通过成果转化、龙头牵引、产业链接等多种方式，引育高新技术企业', '当前，西部（成都）科学城正按照国家、省市交予我们的重大使命任务不断提速发展，“公园城市、科学家园”的城市面貌正以日新月异的姿态成型成势。', '在此次大运会中，我们培育孵化的创新平台、创新企业也纷纷献技献策，在场馆建设、智慧生态、赛事保障等多方面提供大量产品和服务，让“科技赋能赛事”，全面助力成都大运会顺利举办。在这里我也代表西部（成都）科学城欢迎各位记者朋友们多来走走看看，切身感受我们发展变化，谢谢。', '前不久出台的《成都市进一步有力有效推动科技成果转化的若干政策措施》提到要大力支持中试平台建设，请问成都高新区在中试平台建设方面有哪些举措和成效，以及推动未来产业发展的考虑？', '为贯彻落实中共成都市委十四届三次全会《关于坚持科技创新引领加快建设现代化产业体系的决定》，成都高新区加快实施中试跨越行动计划，大力推进科技成果转化和产业化，打造具有全国影响力的科技成果中试首选地，这是成都高新区培育根植性、生态性、国际化企业的重要举措。', '创新出台十条政策，涵盖平台建设、项目孵化、人才保障、中试项目、金融资本五个维度，给予中试平台', '创新发起联合倡议，与清华、北大、川大、电子科大、西南技术转移中心等有关方面发起共建', '个中试平台陆续竣工、投运，其中智能硬件中试平台为川大呼吸式捕蚊机成果进行中试熟化，该产品已正式量产并在大运会大运村投入使用；总投资', '聚焦未来产业培育，成都高新区坚持以产业生态为底座，汇聚关键核心资源，加快构建知识创造迭代活跃、领先技术加快转化、领先产品持续涌现、主导产业集群成链、城市标签级科技领军企业引领发展的区域自主创新体系。', '聚焦顶尖人才，通过科技创新领军人才和产业创新领军人才政策，依托天府实验室、高能级校地合作平台、岷山行动计划等汇聚海量', '亿元产业基金创新资本。目前，生物芯片、类脑智能、合成生物、先进计算、量子科技、氢能等未来赛道正在加快布局孵化。', '科技成果转化离不开科学家、创新企业和投资机构联动，请问市属国有创投平台推动落实“一号工程”有哪些措施？', '围绕建圈强链重点领域，设立若干支产业链科创基金，加大国有资本对科技创新的投资赋能。', '，所投企业蘑菇车联正式开启自动驾驶接驳服务，这也是大运会历史上首次采用自动驾驶技术，服务参赛运动员和观众。围绕新兴产业和未来产业，累计孵化培育一批国家、省、市专精特新企业，基本形成', '谢谢各位记者朋友的提问和各位发言人的回答，今天的现场提问就到这里。各位记者朋友如果还有问题，可以联系采访有关职能部门。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>227</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>蓉港高铁开通运行新闻发布会</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2023-06-29</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/rggt/2023-12/18/content_daa5f910761847689078c6180ba6e0df.shtml</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['蓉港高铁即将开通运行，让往来蓉港两地的旅客多了一种出行选择，为了让大家更好地了解蓉港高铁开通运营情况，', '日，铁路部门将实行三季度列车运行图。届时成都将首次开行往返香港的直达高铁，单程运行时间约', '此次调图是铁路部门贯彻落实党的二十大精神，主动服务国家战略，深化运输供给侧结构性改革，适应旅客运输市场需求，对运输组织做出的一次全面系统调整。新图实施，将显著提升西南地区铁路网的整体功能和运行效率，进一步优化旅客运输产品供给，为西南地区经济运行整体提升和人民群众便捷出行提供可靠支撑。', '站，分别为乐山、宜宾西、贵阳东、桂林西、肇庆东、三水南、佛山西、广州南、虎门、深圳北；', '成都局集团公司高度重视成都东至香港西九龙列车开行，已提前做好人员队伍、服务设备筹备，将帮助旅客进一步提升出行体验。', '抽调骨干力量到已开行进港列车的单位考察学习，通过推荐、初试、复试三轮选拔了一批具备较好英语、粤语等语言基础的职工筹建了', '对进港列车服务备品、备件和乘务设备进行提质升级，增配充电器转换插头、红酒杯、收纳盒、儿童拖鞋等。特别针对担当方向客流口味，增加清淡餐食的储备量，增配', '为确保成都至香港列车顺利开行，成都东等车站进一步优化售票组织、提高服务质量、改善候乘环境，以优质服务提升旅客出行体验。一是', '根据跨境旅客运输组织规则，编发专项技术指南，围绕票务办理、进站乘车、出站查验等乘车各关键环节、流程，组织开展覆盖638人次的专项培训，并按照岗位作业流程下发操作手册，涉及岗位人人必学、人人必会，坚决确保跨境旅客运输组织工作有序开展。二是', '优化站内半自助检票闸机等自动设备，确保港澳居民来往内地通行证功能正常使用。三是对站内引导揭示进行更新改造，成都东站候车厅主要引导标识由既有的蓝底白字改为更加醒目的灰底黄字，并对站台等部分关键点位引导标识进行了补强，进一步提升引导标识的连续性。四是以“游佳服务岗”“戚军导购台”为载体，积极为旅客提供信息咨询、购票引导、重点旅客服务、母婴服务、投诉受理、预约接送站、失物招领等各环节服务，让旅客出行体验更美好。', '网站（含手机客户端）是官方唯一火车票网络售票渠道，不收取任何附加费用，建议广大旅客朋友通过官方渠道购票。', '请问市交通运输局，蓉港高铁的开通对助推成都与粤港澳大湾区联动协同发展意义重大，请介绍下首发当天组织的相关活动？', '为满足成都、香港两地旅客的出行需求，更好促进两地合作交流，进一步提升成都国际影响力，在省委省政府和国铁集团的关心支持下，经路地双方共同努力，成都至香港高铁直达列车将于', '日当天在成都东站举行首发仪式，届时四川省、成都市主要领导，香港特区政府驻成都办事处有关领导，中国铁路成都局集团公司主要领导，省、市相关部门和中央驻川有关机构、在川有关企业相关负责同志将出席活动。此外，本次仪式还特邀了香港在蓉相关企业、人才代表和新闻界的朋友，共同见证成都至香港直达列车首发。', '为扩大成都至香港高铁列车开行的传播力和影响力，我局会同成都局集团公司、市委人才办、市委宣传部、市政府港澳办、市文广旅局、市投促局、市金融监管局、大运会执委会等部门精心策划，结合我市成都大运会、文化旅游宣传、重点项目招引等工作，将围绕首发仪式组织开展一系列内容丰富、形式多样的首发活动，包括组织旅行团队、商务团队搭乘首发列车赴港旅游、开展商务活动；成都大运会吉祥物', '人偶在仪式现场为首发乘客发放大运会纪念品；在香港西九龙站也将举行成都至香港首发列车接站欢迎仪式。', '开行成都至香港高铁列车是成都打造国际门户枢纽、主动融入新发展格局的重要举措，对进一步丰富蓉港两地多层次交通体系，强化成都与粤港澳地区快捷交通联系，助推成都与大港湾地区联动协同发展意义重大。市交通运输局也将以此为契机，加快推进通达全球、衔接高效、功能完善的国际性综合交通枢纽建设，进一步提升成都国际化水平。', '据了解，香港与成都互为重要的旅游客源地，请问文广旅局负责同志，香港与成都在文化旅游方面的互动与交往情况如何？', '谢谢这位记者朋友的提问，成都与香港互为重要的旅游客源地市场，文化旅游往来频繁，合作基础良好。今年年初，市文广旅局组织金沙遗址博物馆和市考古研究院赴港举办', '展览及学术交流活动，并与香港故宫初步达成一致在香港故宫设立成都文化角；上半年，指导市对外文化交流中心组织了全省', '成都文化旅游专场推介，通过香港的旅游窗口向世界讲好成都故事，推广成都文化旅游。多场活动在港引起强烈反响。', '值蓉港高铁开通运行之际，市文广旅局精心组织双向旅游团组乘坐首发蓉港高铁出游，并在蓉港高铁投放成都文化旅游宣传片、摆放宣传册，强化展示', '月，我们将组织成都金沙遗址博物馆联合三星堆在香港故宫开展文物展览，延续三星堆和金沙文明在港的火爆势头，提升成都文化旅游关注度和国际影响力。下一步，我们将继续加强蓉港两地文旅部门及旅行商对接联系，开展市场联动，客源互送，拓宽发展空间，促进两地交流合作向更深更广方向发展，积极开展更多蓉港', '系列活动。并在香港增设成都国际旅游驿站，充分发挥香港作为入境旅游枢纽平台的重要作用，以', '我们注意到，近年来，成都与香港的人才交流合作不断深入，请阳主任简单介绍一下蓉港两地人才合作情况？', '人才工作的关心！香港知名高校汇聚，国际人才云集。长期以来，我们高度重视蓉港人才交流合作，在人才共引共育、平台共筑、服务共享等方面取得了积极成效。', '我们主要围绕政策引才、活动招才和赛事聚才开展了系列工作。政策引才方面，实施“蓉漂计划”“蓉城英才计划”和“产业建圈强链人才计划”，给予个人最高', '家用人单位赴港引才，推介城市发展环境。赛事聚才方面，举办“蓉漂杯”系列赛事活动，开展粤港澳专题赛并吸引', '我们主要围绕科教合作、课程合作和交流合作开展了系列工作。科教合作方面，推动四川大学与香港城市大学、香港理工大学联合培养人才，开展两地学生交流学习，已联合培养博士研究生', '名。课程合作方面，支持在蓉高校、职业技术院校与香港职业训练局签订合作发展备忘录，与香港院校合作开展《汉语普通话研习与文化交流》等学分互认课程，', '我们主要围绕科技创新平台、人才合作平台和投融资平台开展了系列工作。科技创新平台方面，与香港城市大学共建成都研究院', '。支持西南交大设立国家轨道交通电气化与自动化工程技术研究中心香港分中心，围绕轨道交通、新材料等重点产业领域开展技术攻关。人才合作平台方面，', '余名香港青年来蓉交流合作。投融资平台方面，助力康诺亚、新希望等人才企业在香港成功上市，助力国星宇航等人才企业在香港设立分支机构，开拓国际市场。', '我们主要围绕便捷服务、智慧赋能和安居宜居开展了系列工作。便捷服务方面，围绕通行证办理、岗位引荐、项目融资等制定人才“服务包”，香港等地区人才到岗即可匹配政策、享受相关服务。智慧赋能方面，上线运行成都市智慧人才服务平台，香港等地区人才通过微信小程序搜索“成都智慧人才”，便可掌上获取人才政策信息及兑现路径。安居宜居方面，加快构建“', '分钟公服圈”，加强人才安居保障，营造类海外人才发展环境，着力实现“蓉漂之后、再无漂泊”。', '充分发挥“蓉港人才合作示范区”、海智工作基地和人才工作站等纽带作用，打造海内外互联互通的才智平台，携手链接更多全球智慧资源和创新要素。', '持续开展“蓉漂人才荟”等品牌活动，释放城市发展机遇，吸引汇聚更多海内外优秀人才来蓉创新创业。', '一直以来，蓉港两地往来密切，合作涵盖了金融、商贸、科研等诸多领域。在本次蓉港高铁直达互通首发期间，我们了解到成都市将借此契机开展系列招商推介活动，请问刘局长，目前活动的具体筹备情况如何？有哪些亮点？', '成都“双向奔赴”的再度牵手，本次蓉港高铁互通，将进一步促进两地经济发展、人文交流及双边经济贸易往来，未来双方将持续放大蓉港高铁效应，共话蓉港合作发展大局。', '为庆祝蓉港高铁直达动车开通，进一步加强我市聚焦香港，辐射粤港澳大湾区的投资合作，在蓉港铁路首发仪式活动期间，市投促局将联合市委人才办，于', '日，在香港举办成都市投资环境推介（香港）暨粤港澳招商引智项目集中签约仪式，促进我市经济高质量发展夯实项目和人才支撑。', '投资成都共话新篇”为主题，聚焦高质量目标发展任务，集中展现成都产业基础、人才优势、投资机遇以及良好的营商环境，着力吸引更多优质企业到成都投资发展，同时将在现场以城市之名，广发', '、诚招“千里马”，坚持“以产育才、以才促产”，汇聚更多海内外人才到成都创新创业，打造引才聚才“强磁场”，持续激发成都高质量发展动能，不断促进蓉港经济大发展。本场活动也邀请了有关区（市）县投资促进机构有关领导、粤港澳大湾区企业代表出席。', '活动主要内容包括：推介成都市、四川天府新区、成都东部新区、成都高新区、双流区投资环境，发布未来公园社区投资机会清单，邀请港资企业代表作在蓉投资分享，举行重点项目集中签约仪式。截止目前，已有玉湖集团、戴德梁行、友邦保险等', '余家重点企业，国家开发银行香港分行、国际中小企业联合商会等知名机构报名参加，齐聚现场，共赴未来，开启蓉港投资合作新篇章。', '各位媒体朋友，在市委、市政府的正确领导下，在各机关部门的共同努力下，目前成都市投资环境推介（香港）暨粤港澳招商引智项目集中签约仪式活动各项筹备工作进展顺利，在这里，我们诚挚邀请广大企业积极参与本次投资推介活动，让我们携手共进，共同推动蓉港产业合作再上新台阶、再结新硕果。', '成都和香港分别是成渝地区双城经济圈和粤港澳大湾区的核心城市，本次交通贯线的互联互通，必然带来蓉港经济及金融领域合作的持续升温。请问程局长，能否简单介绍一下，当前成都蓉港金融合作的总体情况以及围绕蓉港铁路成都下一步将推出哪些金融服务举措？', '港是全球重要的国际金融和贸易中心，长期以来，成都与香港金融领域就有着紧密的合作关系。', '东亚银行、恒生银行、汇丰银行、华侨永亨银行、南洋商业银行等多家港资银行先后在成都设立分支机构，工银安盛人寿保险在成都设立了四川分公司，汇丰人寿四川分公司正在争取批复落地。此外，全市有港资融资租赁公司', '我局与香港保监局签订了谅解备忘录，成都交子金控、兴蓉集团等国企与香港丝路金融、信达香港等金融机构签署合作协议。', '本次蓉港铁路开通，为进一步加强成都与香港的金融合作关系开辟了新通道。我们将不断提升蓉港金融领域的合作广度和深度', '一是继续强化与香港保监局等金融监管机构合作，吸引更多香港金融机构来蓉展业。推动本地法人金融机构与香港金融机构共同设立合资消费金融公司、合资理财公司等新型金融机构。吸引符合条件的港资企业参与我市金融机构定向增发、增资扩股。发挥香港金融专业服务优势，充分引进香港投行、会记、担保、法律等金融服务。', '二是积极推动港交所在蓉设立分支机构，用好港交所上市政策，积极推动生物医药和科技企业赴港上市。利用香港资本市场对接国际资本，为成都企业', '三是充分学习借鉴大湾区金融创新合作经验，探索实施符合国际通行做法的金融、投资等自由贸易制度在蓉落地，提升蓉港跨境贸易和投融资便利化水平。推动金融机构开展跨境融资、跨境担保、跨境资产转让等跨境业务。深化跨境区块链', '各位记者朋友如果还有问题，可以联系采访有关职能部门，也可以与市政府新闻办联系，我们将做好联络服务工作。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>227</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>成渝地区双城经济圈建设全面提速</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2022-06-06</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c169603/2023-12/11/content_de86f26f01ea48c58ea6efd5f188661d.shtml</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['5月19日下午，首列成渝地区双城经济圈货运班列（重庆江津—成都青白江货运专线）平稳驶入成都青白江区城厢站。班列的开通，填补了成渝两地直达货运班列的空白，也可望创造国内新开通城际货运专线开行频率的新纪录。', '如同刚刚开通就满负荷运转的货运班列。两年多来，坚决落实党中央战略部署，重庆向西，四川向东，川渝两地要素加快流动，产业加快交融。', '以推动成渝地区双城经济圈建设引领高水平区域协调发展——刚刚结束的四川省第十二次党代会进一步提出，坚决扛起党中央赋予的战略使命，以更高站位和更实举措，强力推动成渝地区双城经济圈建设这一国家战略全面提速、整体成势，确保年年有新变化、五年见大成效。', '“下面，请合川区通报一周降雨预报情况。”6月6日上午，嘉陵江流域每周例行防汛调度会上，出现了来自重庆的干部。', '期待多年的嘉陵江防汛一体化梦想成真！此前，川渝陆续签订一系列防灾减灾战略协议，跨区域水利工程调度共同防汛是内容之一。', '两年多来，川渝两地以等不起的紧迫感，坐不住的责任感，迅速行动。“统一谋划”“一体部署”“相互协作”“共同实施”成为两地间的高频词。', '协调有机制。2020年上半年起，川渝形成多层级合作机制，两地定期召开党政联席会议、常务副省市长协调会议，研究部署重大事项，协调解决重大问题，推动出台重大文件。两地201名党政干部互派挂职。迄今，党政联席会议已举办4次，每次会议，都致力于解决深化合作的重大问题、研究谋划重大项目和重大事项。', '2022年5月31日，省第十二次党代会闭幕次日，省委书记王晓晖旋即带领刚刚当选的省委常委班子，专题调研成渝地区双城经济圈建设，并主持召开省委专题会议研究进一步推动落实的工作举措。', '一个认识更加清晰：把推动成渝地区双城经济圈建设，作为全面建设社会主义现代化四川的总牵引！', '去年，《成渝地区双城经济圈建设规划纲要》及联合实施方案相继印发。作为“施工图”，川渝两省市党委、政府联合印发《重庆四川两省市贯彻落实〈成渝地区双城经济圈建设规划纲要〉联合实施方案》，聚焦《成渝地区双城经济圈建设规划纲要》明确的重点任务，细化提出10个方面47项具体任务，并逐一明确了两省市责任单位。', '在基层，两年多来，川渝两地各部门、各市州区县、各领域共签署合作协议300多个，数量之多、密度之高、范围之广，均前所未有。', '合作带来高效率！一个例子具有代表性：连接成渝两地的高铁线路成达万高铁，从2020年11月14日国家发展改革委正式批复可研报告到破土动工，只用了40天。', '“前5个月，公司产销量位居全国第三！”6月6日，端午节假期后第一天，自贡中兴耐磨新材料有限公司厂区传来喜讯。该公司成功跻身国内前三的密码，是在川渝共建产业链和供应链的背景下，与重庆綦江区企业成功牵手，在缩短零部件采购半径的基础上实现了成本大幅下降。', '机遇当前，唯有实干巧干，才能不负使命、乘势而上。两年多来，川渝两省市聚焦重点区域、重点项目、重点领域，加强体制机制集成创新，不断把更多的“规划图”变成“施工图”乃至“实景图”。', '交通“先行官”加速快跑。今年前5个月，160个共建成渝地区双城经济圈重大项目已累计开工151个，完成投资4149.2亿元。其中，现代基础设施项目开工38个，共完成投资1826亿元以上。迄今，建成及在建的川渝省级高速公路已达20条，渝昆、成渝中线、成达万等高铁将进一步支撑起“轨道上的双城经济圈”。', '产业“新势力”异军突起。两年来，两省市明确共建汽车、电子信息、装备制造业三大万亿级产业集群。去年，川渝电子信息产业实现营业收入突破2万亿元大关、汽车产值约约7000亿元、装备制造业保持高增长。', '发展“新动能”不断注入。聚焦川渝毗邻地区融合发展，8个毗邻地区合作平台已批复设立。2020年，川渝实现“市场准入异地同标”的便利化准入。随后，成渝综合性科学中心建设集中开工，天府实验室启动建设。（四川日报全媒体记者 王成栋）', '去年12月，成都市党政代表团前往重庆市考察学习交流，双方签署了“1+5”合作协议。日前，为进一步加强重庆成都合作、发挥引领带动作用，重庆市、四川省及成都市两地三方联合组建双核联动专项工作组，完善工作机制，推动专项工作组实现常态化运行，细化落实重庆四川党政联席会议历次会议安排部署，务实推进成渝“1+5”合作协议，在共建国际性综合交通枢纽、世界级先进制造业集群、西部科学城、西部金融中心、现代化国际都市等重点领域取得积极成效，双核联动进程不断提速。', '成渝“一家亲”，山水同源、人文同脉、发展同向。随着成渝地区双城经济圈建设的深入推进，成渝交往更加密切、合作更加紧密。', '2021年12月，重庆市与成都市签署了“1+5”合作协议。其中《落实成渝地区双城经济圈建设重大决策部署唱好“双城记”建强都市圈战略合作协议》，内容涉及国际性综合交通枢纽、世界级先进制造业集群、西部科学城、西部金融中心、现代化国际都市等重点领域。', '《成渝地区双城经济圈建设规划纲要》提出，构建一体化综合交通运输体系，打造国际航空门户枢纽；共建成渝世界级机场群。加快打造成渝世界级机场群，是成渝地区双城经济圈建设的重要任务之一。', '神鸟展翅，成渝添翼。本月27日，成都天府国际机场就将迎来通航一周年。成都是继北京、上海后，中国内地第三个、中西部首个拥有双国际枢纽机场的城市。天府国际机场是成都国际航空枢纽的主枢纽，是服务成渝地区双城经济圈的核心机场。开航以来，天府国际机场保持良好的稳定运行态势。', '如今，重庆也已开启新机场的规划建设，计划将于2030年建成。今年3月，民航局出台关于加快成渝世界级机场群建设的指导意见，明确以成都、重庆国际航空枢纽功能建设为牵引，努力将成渝世界级机场群建设成为新时代民航强国建设的战略支点。到2025年成渝世界级机场群初具规模，到2035年全面建成成渝世界级机场群。', '“依托国际航空港、铁路港枢纽，建设陆海互济、四向拓展、综合立体的国际开放通道……”成都市第十四次党代会报告描绘了未来五年的扩大对外开放蓝图，科学谋划国际门户枢纽实现新跃升的建设路径。', '目前，成渝两地沟通协作日益密切，重庆机场集团与四川省机场集团已签署战略合作协议，就共同推进成渝世界机场群建设明确总体框架。与此同时，国航、川航、重庆航等基地航空公司正积极深化研究两地市场运力投放、航线开发等协同发展。', '坚持以融入“一带一路”建设、服务新发展格局为引领，成都推动深层次改革、高水平开放，用好用活国内国际两个市场、两种资源，增强联结国内国际双循环的枢纽能级。截至目前，成都已开通通达全球五大洲的131条国际（地区）航线，稳定运行17条国际货运航线。', '成渝两地是全国开行最早、运行最稳定、影响力最大的中欧班列城市。自2021年1月1日开始，成渝两地中欧班列统一品牌——中欧班列（成渝），当年中欧班列（成渝）开行量逾4800列，占全国比例超过三成，开行线路通达欧洲百余个城市，综合运行指标保持全国第一方阵。', '聚力实施高水平开放，成都坚持做强国际铁路枢纽辐射能级，加快构建7条国际铁路通道、5条铁海联运通道。如今，成都国际班列网络布局加速四向拓展，形成中欧（亚）班列、西部陆海新通道班列、中老（越）班列等多向度班列协同运行格局，联通境外74个城市、境内25个城市。（成都日报锦观新闻记者 杨富）', '推动成渝地区双城经济圈建设，共建具有全国影响力的科技创新中心，以“一城多园”模式共建西部科学城是成渝两地的共同目标。', '去年12月，重庆市与成都签署《落实成渝地区双城经济圈建设重大决策部署唱好“双城记”建强都市圈战略合作协议》；两地有关部门和管委会签署《加强双核创新联动推进共建具有全国影响力科技创新中心合作协议》等，进一步推动成渝务实合作、双城联动、协同发展。', '围绕协同共建西部科学城，双方将共同规划布局应用基础研究、前沿技术研究重大项目，联合打造国家科技体制改革“试验田”，支持西部（重庆）科学城、西部（成都）科学城在智能制造、智慧文旅、城市大脑等领域相互开放应用场景，打造创新产品试验场。', '重庆两江新区、四川天府新区联手成立八大产业联盟；成渝两地科技部门共同发布2021年“川渝联合实施”重点研发项目申报通知，聚焦四大领域联合开展技术攻关；成渝共同发起设立总规模50亿元的双城经济圈科创母基金，成立成渝地区技术转移联盟，组建川渝科技资源共享平台……', '从0到1，从无到有，众多顶尖科技平台、科技企业加速入驻，西部（成都）科学城“一核四区”创新布局和主体功能初步形成，进入了发展新阶段。', '去年6月，西部（成都）科学城和天府实验室正式揭牌，标志着西部（成都）科学城和天府实验室进入了由谋划布局到全面建设的新阶段。紧锣密鼓地，天府实验室聚焦3大领域、4个方向组建，天府兴隆湖实验室、天府永兴实验室已揭牌运行。今年内，天府绛溪实验室、天府锦城实验室也将挂牌。', '搭平台，引人才。今年3月，川渝出台外国高端人才工作许可互认实施方案。外国高端人才在成渝地区双城经济圈范围内工作转聘，只需填报《川渝地区外国高端人才工作许可互认信息表》，免于提交工作资历证明、最高学位(学历)证书等申报材料，提高了审批效率。', '目前，西部（成都）科学城的核心区域已引进“中科系”“中核系”等国家级科研机构25家，引育清华四川能源互联网研究院等校院地协同创新平台50余个，引进海康威视、商汤科技等重点企业120余个，培育高新技术企业589家，汇聚高层次人才433名、高端科研人才5000余名。（成都日报锦观新闻记者 宋妍妍 白洋）', '日前，在“成渝经济圈指数ETF网络培训会”上，由博时基金发行的成渝经济圈ETF在会上正式亮相，这是首只以成渝地区双城经济圈指数为标的的ETF基金。值得一提的是，在稍早前首只以成渝经济圈命名的成渝双城基金也正式签约成立。', '在多只成渝双城基金发行背后，是成渝加速推进共建西部金融中心。去年出炉的《成渝地区双城经济圈建设规划纲要》提出，把成渝地区双城经济圈建设成为具有全国影响力的重要经济中心，打造西部金融中心。去年12月17日，重庆市金融监管局和成都市金融监管局签署《共建西部金融中心合作协议》，去年12月24日，中国人民银行、国家发展改革委、财政部、中国银保监会、中国证监会、国家外汇管理局、重庆市人民政府、四川省人民政府联合印发《成渝共建西部金融中心规划》，提出建成立足西部、面向东亚和东南亚、南亚，服务共建“一带一路”国家和地区的西部金融中心，标志着成渝共建西部金融中心迈向实质性阶段。', '去年12月1日，金融信用信息综合服务平台天府信用通正式上线川渝金融信用信息综合服务专区，不仅覆盖川渝306万户企业，实现川渝两地企业信用信息“一站式”归集，还接入了川渝辖内银行机构全部信贷网点，实现两地金融监管、银行机构和企业公众互联互通。', '在金融服务一体化方面，人民银行成都分行先后推出两批次11个金融服务同城化项目。其中，异地电子缴纳税费项目已于2020年11月在川渝两地实现推广，并复制到全国28个城市。成都主城区与重庆中心城区已实现公共交通手机扫码支付互通。川渝公积金互认互贷、异地就医直接结算、储蓄国债跨省兑付等金融服务同城化举措已相继落地。（成都日报锦观新闻记者 刘泰山）']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>227</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>公园城市示范区建设的成都实践</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2022-10-14</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c169603/2023-12/11/content_053cefb686b94c52ba64d96ba4946953.shtml</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['“这是一场足以载入世乒赛历史的重要赛事！”10月9日，成都世乒赛团体赛圆满落幕。国际乒联主席佩特拉·索林毫不吝惜对成都的赞美——“在这个美丽的球场里，你们让所有不可能变得可能。”国际乒联集团首席执行官史蒂夫·丹顿感慨——“成都消除了之前的一切担心，我们没想到会做得那么好。”', '作为继2022北京冬奥会和冬残奥会后我国举办的又一项国际体育赛事，世纪疫情冲击下，承办这次大赛也是对成都城市综合能力的一次全方位考验。', '从现代赛事场馆的打造运行到境外人员的快速通关入境，从闭环管理的运动员村到充满天府文化魅力的美食美景，从细致入微的生活安排到全环节的志愿者服务……运转、组织、统筹、协调、服务，一个精致严密运行的城市，以现代化风貌的全新风姿呈现于世界。', '世乒赛举办之际，正逢成都创建“全国文明典范城市”进入冲刺阶段。几个月来，文明之风吹遍城市大街小巷——从老旧院落的改造到背街小巷的整治，从“智慧蓉城”的打造到网络理政服务的精细，城市环境越来越好，市民生活越来越便利。人民城市、共建共享，一个服务2100万人的超大城市贯彻践行以人民为中心的发展思想，以现代化发展的应有之姿呈现于世人。', '站在新的历史起点上更好建设社会主义现代化城市，这是成都自身发展必须回答的重大课题，更是为超大城市现代化建设先行探路的历史使命。', '庆祝中国共产党成立100周年大会上，习近平总书记代表党和人民庄严宣告——经过全党全国各族人民持续奋斗，我们实现了第一个百年奋斗目标，在中华大地上全面建成了小康社会，历史性地解决了绝对贫困问题，正在意气风发向着全面建成社会主义现代化强国的第二个百年奋斗目标迈进。', '站位新起点，省委提出，“讲政治、抓发展、惠民生、保安全”，坚定把成渝地区双城经济圈建设作为新时代治蜀兴川的战略牵引，在新的赶考路上以上率下把四川工作做得更好。以新发展理念为“魂”、以公园城市为“形”，支持成都全面建设践行新发展理念的公园城市示范区，做优做强国家中心城市核心功能，加快建设中国西部具有全球影响力和美誉度的现代化国际大都市。', '“辨方位而正则。”党的十八大以来，成都在新时代建设发展中的一系列生动实践，每一分收获，都蕴含着一个深刻的逻辑——始终高举习近平新时代中国特色社会主义思想伟大旗帜，全面贯彻习近平总书记对四川及成都工作系列重要指示精神和党中央、省委重大决策部署，将一座城市的发展置于时代大势下审视、放在全国和全省大局下考量，明晰方位、找准方向，探索最适应时代和自身阶段性特征的路径。', '——十年破局，从“首提地”到“示范区”，在山水人城和谐相融新实践、超大特大城市转型发展新路径中持续探索，始终抓大事、看长远，努力走“具有中国特色、体现时代特征、彰显社会主义制度优势”的超大城市现代化发展之路。', '——十年奋进，经济总量连跨11个千亿台阶、达到近2万亿元，迈入超大城市行列，始终谋大局、强担当，在主动融入国家战略全局、服务治蜀兴川大局中勇担使命。', '——十年跨越，从区域中心城市到国家中心城市，再到践行新发展理念的公园城市示范区，始终观大势、明方向，深刻认识和准确把握新的历史方位，沿着总书记指引的方向前进。', '新举措，新变化，新气象。面对时代命题，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，牢记嘱托、踔厉奋发，成都将立足新发展阶段、贯彻新发展理念、构建新发展格局、推动高质量发展，准确把握“国之大者”“省之大计”，全面建设践行新发展理念的公园城市示范区，奋力走好新时代赶考之路。', '正确认识国家所处的历史方位，精准界定民族所处的发展阶段，历来都是我们党制定基本纲领和行动路线、确定奋斗目标和内外任务、规划前进方向与工作路径的重要前提和根本依据。', '习近平总书记指出，“党的十九届五中全会提出，全面建成小康社会、实现第一个百年奋斗目标之后，我们要乘势而上开启全面建设社会主义现代化国家新征程、向第二个百年奋斗目标进军，这标志着我国进入了一个新发展阶段。”总书记的重要论述，给予新发展阶段明确定位，赋予其科学内涵。', '审时度势、顺时应势。进入新发展阶段，成都开启建设社会主义现代化城市新征程，迎来了多重叠加的战略机遇。', '2018年，兴隆湖畔。习近平总书记在天府新区考察时，首次提出“公园城市”理念，明确支持成都建设全面体现新发展理念的城市，给予成都极大鼓舞与鞭策。', '2020年，在开启第二个百年奋斗目标新征程的关键节点，习近平总书记亲自谋划、亲自部署、亲自推动成渝地区双城经济圈建设，赋予成都建设践行新发展理念的公园城市示范区的时代使命，必将引领成都全方位深度融入国家区域协调发展布局，提升在战略全局中的能级位势。', '感恩奋进、起而行之，矢志不渝沿着习近平总书记指引的方向砥砺前行。市第十四次党代会上，成都对今后五年工作作出系统谋划——全面贯彻习近平总书记对四川及成都工作系列重要指示精神和党中央、省委重大决策部署，以建设践行新发展理念的公园城市示范区为统领，唱好“双城记”、建强“都市圈”、提质“幸福城”，以“五个走在前列”的奋斗姿态，奋力谱写建设社会主义现代化成都的崭新篇章。', '同日，成都市产业建圈强链工作领导小组第三次会议召开，深入推进产业建圈强链，加力加劲构建现代产业体系。目前，12个产业生态圈、20个重点产业链图谱清晰，已经形成电子信息万亿产业集群、8个千亿产业集群。2021年实现地区生产总值19917.0亿元，比上年增长8.6%。', '去年12月，市委十三届十次全会向全市党员干部发出“五个走在前列”的号召——在学思践悟、知行合一上走在前列，在改革创新、攻坚克难上走在前列，在永葆初心、为民惠民上走在前列，在高效协同、整体联动上走在前列，在遵规守纪、严于律己上走在前列，努力成为堪当治蓉兴蓉重任的骨干力量，在新时代赶考之路上展现新气象新作为。', '今年8月，成都遭遇持续高温极端天气。针对高温缺电影响，成都高效调度电力资源，开启“省电模式”，推动电力热力生产和供应业高负荷运行。汽车制造业重点企业灵活排产，8月当月行业增加值分别增长21.4%、8.0%。', '今年“8·25”疫情期间，成都推广“防疫泡泡”运行模式，指导闭环生产企业共享员工、共享产业配套，全市95%的规上工业企业实施闭环生产。1—8月，全市规上工业增加值增长5%，高于全国1.5个百分点。', '贯彻新发展理念是新时代我国发展壮大的必由之路。2015年10月，在党的十八届五中全会上，习近平总书记提出了创新、协调、绿色、开放、共享的新发展理念，强调坚持新发展理念是关系我国发展全局的一场深刻变革。', '完整准确全面贯彻新发展理念，最重要的是认识到新发展理念是统筹经济社会发展全领域全过程的一场深刻变革。', '理念是行动的先导。成都坚持创新为第一动力、协调为内生特点、绿色为普遍形态、开放为必由之路、共享为根本目的，把新发展理念贯穿到城市规划、建设、管理、运营之中。', '10月10日，成都天府国际生物城集中签约10个项目，总投资近90亿元。生物城相关负责人表示，“作为‘三个做优做强’重点片区之一，这一批项目的签约落地，将进一步推进生物医药产业‘强链补链’，做优做强产业创新策源转化。”', '这是一场提升城市整体功能的重大行动——去年开始，成都提出“三个做优做强”，持续做优做强中心城区、城市新区、郊区新城，形成多中心、网络化、组团式功能结构，促进城市内涵发展、区域差异发展、城乡融合发展……今年7月召开的市委工作会议上，成都又进一步对开展“三个做优做强”重点片区项目集群攻坚大会战作出部署，要求以项目集群建设成效推动“三个做优做强”加快突破、成势见效。眼下，首批24个重点片区正加快从“规划图”迈向“实景图”。', '提功能，调结构。去年召开的市委十三届十次全会审议通过相关决定，以空间、产业、交通、能源四大结构全方位优化调整为重点突破口，推动城市绿色低碳发展、塑造城市竞争新优势。', '单位GDP能耗累计下降20.8%，清洁能源消费占比提升至62.6%，轨道交通通车里程558公里，“5+1”区域公共交通占机动化出行分担率提高至60%，社会物流总费用占GDP的比重低于全国平均水平……以四大结构优化调整深化源头治理、扩大绿色供给、增强人口经济承载力，成都在绿色生产生活方式构建上努力突破。', '今年国庆黄金周，成都环城生态公园迎来大丰收。10万亩复耕复垦后的“环城生态带高品质农田”，迎来第一个完整种植年。春有油菜花海，夏有金色麦浪，秋季稻花香里说丰年……从荒地变良地，再从良地变良田。在农业丰产期，此举将为成都2100万人人均增加10斤粮油果蔬的供给。', '城市生态公园不光是好看的景，还要成为好用的地。环城生态公园100公里一级绿道全环贯通，不仅串联起121个公园，整个区域的10万亩农田也完全对市民开放，成为市民在家门口亲近自然、了解现代农业的科普园地。', '如今，坚持以生态价值创造性转化推动可持续发展，已成为公园城市区别于传统城市发展理念的鲜明标识，展现了新时代中国现代化城市高质量发展的生动图景。', '从两山相望的龙门山到龙泉山，从两水相依的岷江到沱江，围绕“三大示范区”建设，新发展理念引领一系列实践在蓉城大地上全面铺展。', '——建设城市践行绿水青山就是金山银山理念的示范区，率先塑造城园相融、蓝绿交织的优美格局。', '实施全域增绿项目2888个，全市森林覆盖率提升至40.3%，累计建成各级绿道5188公里，各类公园1300余个；打造天府锦城、锦江公园等10个国家级生态价值转化示范区，培育夜游锦江、沸腾小镇等380个生态价值转化场景品牌……', '家门口的好学校更多了，三级医疗机构区（市）县基本覆盖，未来公园社区建设让生活更有品质；“政策支持+投资孵化+科技服务”定向扶持组合拳催生更多创新型领军企业，人才总量达587.6万人，各类重大人才计划专家3788人……', '——建设城市治理现代化的示范区，率先探索符合超大特大城市特点和发展规律的治理路径。', '“智慧蓉城”建设让更多智慧场景融入生活、改变生活，“天府市民云”APP让1100余万市民一键享受700余项城市服务，“12345热线”架起老百姓与政府之间倾听和沟通的民心桥梁；城市治理风险清单管理制度和创新超大城市应急物资保障机制让城市防风险的基础保障不断筑牢；建设人人有责、人人尽责、人人享有的社会治理共同体，解决社区生活服务中的急难愁盼……', '2020年4月，习近平总书记提出，要建立以国内大循环为主体、国内国际双循环相互促进的新发展格局。党的十九届五中全会对构建新发展格局作出全面部署。', '在全国和全省发展大局之下，一座城市的发展，要在全局的坐标中寻找方位。融入新发展格局，关键是要找准自身在国内大循环和国内国际双循环中的独特位置和比较优势。', '今年7月24日，“莫斯科—城厢—万象—曼谷”国际班列从成都国际铁路港发车，驶向老挝万象；一周后，8月1日，首列“下诺夫哥罗德—成都—胡志明”国际班列又从成都出发，驶向越南胡志明市。由此，中欧班列与中老班列、中越班列在成都实现无缝接续，打通从欧洲到东南亚的洲际铁路直达通道。', '9月15日到22日，短短一周时间，三条首发专线——中吉乌公铁联运国际班列、跨境商品汽车专列、中欧班列铁路运邮专线，又以成都为起点，拓展沿“一带一路”向外延伸的物流地图……', '今年上半年，成都新开和加密全货机及客改货航线12条，货运航线网络覆盖到五大洲主要枢纽城市。', '成都出发，通达全球。随着“一带一路”倡议全面深化、长江经济带发展深入推进，从空中到陆地，这样的延展如雨后春笋。国家全面对外开放格局的加快形成，促进成都更加主动地融入“双循环”、服务新格局，国际门户枢纽地位日渐凸显。', '在新形势下促进区域协调发展、支撑构建新发展格局，党中央作出推动成渝地区双城经济圈建设的重大决策部署，赋予川渝两地打造带动全国高质量发展的重要增长极和新的动力源的重大使命。', '成渝地区双城经济圈和京津冀、长三角、粤港澳大湾区一起，构建起中国东南西北四个增长极。', '谋大局、强担当，作为成渝双核之一，成都必须聚焦“一极一源两中心两地”目标定位，坚定扛起区域发展极核使命和全省发展主干责任。', '2021年12月17日，初冬微寒，一支40余人的队伍带着使命与期许，踏上了开往重庆的列车，这是由市委主要领导带队赴重庆考察学习的成都党政代表团。两天行程，紧锣密鼓，成果丰硕——两市签署了“1+5”合作协议。', '如今，随着合作协议逐步落地落实，“共建”二字，越来越频繁地出现在两地及周边的深化合作中——共建国际性综合交通枢纽，共建世界级先进制造业集群，共建西部科学城，共建西部金融中心，共建现代化国际都市……紧密协作、相向而行，成渝地区双城经济圈建设按下“快进键”、跑出“加速度”。', '今年5月31日，省第十二次党代会闭幕第二天，省委书记王晓晖率领刚刚当选的省委常委班子，到成都专题调研成渝地区双城经济圈建设。中航锂电成都项目一期、天府新区清华四川能源互联网研究院……一路行来，成渝地区双城经济圈建设呈现出的蓬勃发展之势让人印象深刻。两年多来，巴山蜀水实现了许多看得见、摸得着的新的可喜变化。', '成渝两地加快打造全国综合立体交通网主骨架“第四极”和国家对外开放新支点，中欧班列（成渝）累计开行超2万列、占全国40%；川渝签署各领域合作协议300余份，滚动实施160个共建双城经济圈重大项目、完成投资达4382亿元；川渝电子信息产业实现营业收入突破2万亿元大关、汽车产值约7000亿元、装备制造业保持高增长……', '2021年，成渝地区双城经济圈实现地区生产总值73919.2亿元，比上年增长8.5%，经济总量占全国的6.5%、西部地区的30.8%，经济增速继续领跑西部，已初步显现出带动全国高质量发展的重要增长极和新的动力源特征。', '省委将成德眉资同城化发展作为唱好“双城记”的“先手棋”和实施“一干多支”发展战略的牵引性工程，促进全省发展主干由成都拓展为成都都市圈。如今，《成都都市圈发展规划》全面落地，以成都为核，联动德眉资三市加快共建立体交通通勤圈、现代化都市产业圈、开放合作朋友圈、城乡融合优质生活圈。', '从四座城到一个圈，打破的是行政区划界限，收获的是强劲发展动力。2021年，成都都市圈地区生产总值超2.5万亿元，占成渝地区双城经济圈的比重达33.8%，人均GDP迈上8万元台阶，达到全球中等收入地区水平。', '时代潮起，波澜壮阔；草木蔓发，春山可望。奋进新时代，迈步新征程，以全面建设践行新发展理念的公园城市示范区为统领，成都奋力在社会主义现代化成都建设的新征程中创造新的历史荣光。', '最特殊——六十年一遇的罕见高温，百年一遇的极端干旱。历史同期最高极端气温、最少降水量、最高电力负荷三重冲击之下，保供电、防旱情、拼经济面临严峻挑战。', '商场超市地铁的空调停下来，居民家里的空调继续转起来；众多的企业单位实行居家办公、坚守一线的机关靠冰块风扇物理降温……特殊时期，全市上下众志成城，迎难而上，迅速从“舒适”模式切换到“必需”模式。', '最及时——今年的“8·25”本土疫情中，短短20多天里，成都12345热线就受理了疫情来电来信近160万件，涉及就医、买菜、吃饭等多方面民生大事，绝大部分都是当下办结、当场回应。', '无论是被困高速公路的货车司机、需要照顾的独居高龄老人、还是急需入院的尿毒症患者……这时候，人们总是不约而同地做出了同一个动作：拿起电话，拨打12345热线。在这里，每一个群众诉求都不会被忽视，每一份信任之心都不会被辜负。', '人民城市人民建，人民城市为人民。从最特殊到最及时，从高温下与城市共渡难关的似火热情，到疫情中与城市携手同行的信任支持。这个夏秋之交，正是非凡十年间这座城市和城市中的人双向奔赴的生动定格。', '2012年11月15日，十八届中央政治局常委与中外记者见面时，习近平总书记指出，“人民对美好生活的向往，就是我们的奋斗目标。”', '十年奋进。党的十八大以来，以习近平同志为核心的党中央倾听人民呼声、回应人民期待，使发展成果更多更公平惠及全体人民，不断满足人民对美好生活的向往和需求。亿万人民同心向党，携手奋进。如今，呈现在我们眼前的，是一个坚韧不拔、欣欣向荣的中国。', '十年笃行。成都始终坚持以人民为中心的发展思想，奋力践行人民城市理念，以实践回答新时代的人民之问。如今，2100万成都市民共同拥有的，是一座日新月异、朝气蓬勃的城市。', '“致广大而尽精微”。融合自然和城市，连接历史和文化，贯通传统和现代，统筹起生态、生活、生产、治理，共同描绘出一幅“雪山下的公园城市、烟火里的幸福成都”精美画卷。', '高质量发展。经济总量近2万亿元，形成万亿级电子信息产业和8个千亿级产业集群，拥有国家级创新平台130个、国家企业技术中心54家、高新技术企业7821家……从统筹推进“四大结构”优化调整到推进产业“建圈强链”，成都加快构建竞争优势突出的现代产业体系，以城市综合实力的提升让美好生活成色更足。', '高品质生活。连续13年蝉联“中国最具幸福感城市”榜首。1300多个公园星罗棋布，133平方公里的环城生态公园全线贯通。2021年，全市普惠性幼儿园覆盖率达82.85%，城市社区养老服务设施全覆盖……从“我为群众办实事”到幸福美好生活十大工程，成都精准回应民生所需所盼，将城市发展成果不断转化为市民可感可及的生活体验。', '高效能治理。从设立城乡社区发展治理委员会，到明确构建“街道、社区、小区”三级党组织架构，再到建立起促进治理“三张清单”、全面启动实施“智慧蓉城”、创新探索社区“微网实格”治理机制……成都以社会治理体系和治理能力的不断提升，为幸福城市建设汇聚合力。', '回首十年，带着对美好生活的向往、对城市更好未来的热望，成都人以梦为马，一路昂扬。所有的奋斗，共同指向一座人民城市的价值追求——让生活更美好、市民更幸福。', '“由高速增长阶段转向高质量发展阶段，正处在转变发展方式、优化经济结构、转换增长动力的攻关期。”党的十八大以来，以习近平同志为核心的党中央对中国经济发展阶段作出重要论断。', '高质量发展，不仅是创新成为第一动力、协调成为内生特点、绿色成为普遍形态、开放成为必由之路、共享成为根本目的，全面体现新发展理念的发展，更是能够很好满足人民日益增长的美好生活需要的发展。', '而作为“双核”之一，成渝地区双城经济圈建设赋予成都打造“带动全国高质量发展的重要增长极和新的动力源”的历史使命。', '几十公里之外，国家杂交水稻工程技术研究中心成都分中心内，育种部部长匡应龙仍在带队攻关，在千分之一的可能里孕育更好的水稻种子。“以前，我们是追求优产、现在追求优质。不仅要让老百姓吃得饱，还要吃得好。”', '极米科技总部大楼，刚出电梯，一幕巨大的投影便映入眼帘，抬头向上，是一个透着科技感的“盒子”。从这个小盒子起步，靠着自主研发、创新发展，极米用了近10年的时间，彻底打破国外品牌在中国投影机市场的垄断局面。', '十年前，在深圳打拼的钟波把团队拉到成都，在创新创造的大潮之下，极米所在的先进制造业赛道方兴未艾——不只极米，越来越多的公司在成都得到了政策、获得了融资、跟上了趋势，在时代的风口迅速起飞。', '把时间拨回2021年12月10日，成都市产业建圈强链工作领导小组第一次会议召开之后，“建圈强链”行动在这座城市全面铺开。', '成都以“建圈强链”理念变革产业发展方式，产业生态集聚力、产业链建构力、高端要素运筹力再上新台阶。一大批企业和平台聚焦新技术、新产业、新业态、新模式，成为产业链供应链的重要组成部分。12个产业生态圈、20条重点产业链图谱清晰，不断生发、涌动、汇聚着新动能。', '从构筑面向世界面向未来的战略承载能力和持久竞争优势，到肩负成渝地区双城经济圈建设的极核引领使命，再到担当主干责任……经济总量近2万亿元，形成万亿级电子信息产业和8个千亿级产业集群，拥有国家企业技术中心54家、高新技术企业7821家……动力变革卓有成效，供给侧改革终端显效，结构调整深入推进。', '“我们的人民热爱生活，期盼有更好的教育、更稳定的工作、更满意的收入、更可靠的社会保障、更高水平的医疗卫生服务、更舒适的居住条件、更优美的环境，期盼着孩子们能成长得更好、工作得更好、生活得更好。” 刚刚在十八届一中全会上当选为中共中央总书记的习近平同志一番话语温暖人心、铿锵有力。', '十年来，成都把初心和使命融入推动成都发展的全过程，贯穿到具体工作的各个环节，覆盖到各个方面，以抓铁有痕的实干实绩不负人民、不负时代。', '今年9月，在2022中国幸福城市治理论坛活动上，成都再次入围“中国最具幸福感城市”候选城市名单。此前，这座城市已连续13年蝉联“中国最具幸福感城市”榜首。', '“伴随幸福美好生活十大工程的实施，城市的发展视角从宏观转向微观”……回顾这十年间，主办方对成都的评语，不难看出，高品质生活，来自城与人之间的良好互动。', '人们来到城市是为了追求美好生活，而美好生活的基础，离不开城市满足人对生活的基本需求。今年5月，成都市精神文明建设委员会（扩大）会议召开，“创建为民、创建惠民、创建靠民”的根本理念贯穿创建全国文明典范城市的始终。', '“从以前徒步爬楼到现在电梯直达，这感觉真是太好了，太方便了！”说起院落里新装的电梯，锦江区横丁字街40号院的居民干敏，激动之情溢于言表。', '院落风貌焕然一新、卫生死角变身景观小品，居民活动空间内充满欢声笑语……老旧小区改造带来的不只是物理上的变化，还有一系列“化学反应”，幸福城市的质感越来越突出。数据显示，截至目前成都已累计完成老旧小区改造4945个。', '熙熙攘攘的太古里附近，一条名为“望福”的小街，成为时下最受成都年轻人青睐的网红打卡地之一。集聚杂货铺、咖啡店、手作空间等潮流小店，涂鸦墙以色彩装点街区个性，眼前的望平街，很难让人联想到曾经的它空间狭窄、功能单一。', '背街小巷的华丽转身不仅让老居民住得更舒心，还扩展了更多闹中取静、品味生活的城市空间，看得见、摸得着的变化，切实改善着市民生活。', '今年9月16日，“中国网事·感动2022”三季度网络感动人物评选结果揭晓，成都三环路灭火救援群体上榜。紧急刹车、扛起灭火器、拿着扳手……一群素不相识的过路司机，仅用3分35秒，就从即将起火的货车里救出被困人员。', '不只是这群“川A英雄”，还有人们交口称赞的望平街“六勇士”，“铲子哥”、“牌子哥”、外卖员、路人与执勤辅警一起，合力制服持刀歹徒。', '疫情期间，还有更多的普通人逆行出征——手掌满是湿疹的防疫志愿者李峥、“疫情不退我不退”的60岁民警王剑彪、主动免费帮业主代购生活用品的快递员“勇哥”……', '实施“我为群众办实事”、幸福美好生活十大工程等多项举措，全市基本服务等民生支出占财政支出比重保持在65%以上高位水平。', '公共服务全面加强，中小学、幼儿园增至4060所，三甲医院总量居全国城市第2位，成都是唯一四度蝉联“长安杯”的省会城市和副省级城市。', '出行越发通畅便利，地铁运营里程达到518.5公里，公交线路长度增加至16799.1公里，从市中心出发去三岔湖，1小时内足以搞定。', '文化惠民成效愈加凸显，“三城三都”建设纵深推进，开展“书香成都”“乐动蓉城”等公共文化活动，文化地标和文体设施提质扩面，“15分钟公共文化服务圈”加速成形。', '党的十八大以来，以习近平同志为核心的党中央形成了我国社会治理领域最为重要的创新性理论与制度成果，是推进城市发展治理的认识论方法论实践论。', '成都深刻认识准确把握“城市的核心是人”的价值取向，准确把握“构建全民共建共享的社会治理格局”的实现路径，不断提升超大城市治理体系和治理能力现代化水平，让市民有感受，让城市有变化。', '今年以来，成都接连遭遇考验。超大城市是复杂的巨系统，如何因时因势不断回应问题？治理的效能，来自于对现实问题的快速响应，并敢于为此自我变革。', '每到需要帮助的时刻，总会有这样的铃声在成都12345接听中心响起，而这一次的铃声，来自到成都送货的宁夏人罗彦祥。', '这样的电话，这样的温暖，在成都“8·25”疫情的20多天时间里总共响起了158.79万次。电话线一头连起的是“急难愁盼”，一头连起的党委政府治理的高效能。', '当把时间拨回2021年，这样的革新早已悄然开启。11月14日，一场疫情防控专题培训会正在召开，会上对成都基层治理“划小网格”的要求，带来了一场服务于超大城市治理基层组织动员体系的革新。', '“微网实格”，这个全新的定义出现在成都基层治理的工作项中，以3小时内完成入户组织动员为标准,以30-100户居民或商家划分为一个微网格。目前，全市有14.9万名微网格员活跃在12.6万个微网格中，他们中有快递员、医生、教师等来自各行各业的市民。', '微网格之上，还有一般网格和社区总网格，三级体系上下贯通，不论是平日邻里间的诉求，还是应急状态下的快速响应，“微网实格”充分激发出了基层治理的活力。', '今年4月，成都青白江区一心社区网格员尹琴接到了街道智慧平台手机推送，她立即前往独居老人郭大爷家，查看导致燃气报警的原因。', '9月，全市超过3000个重点项目的施工进展、作业状态等情况，在成都市住建局智慧工地调度指挥中心的屏幕上实时滚动，系统直接抓拍违规操作，大大提升了监管效率。', '智慧防疫、智慧交通、智慧水务、智慧环保、智慧生活……以“智慧蓉城”建设为牵引，由“治理”到“智理”，城市的安全韧性在不断强化。城市运行“一网统管”、政务服务“一网通办”、社会诉求“一键回应”。十年来，12345热线平台年受理量增长17.3倍，诉求解决率、群众满意率均在90%以上。237万名志愿者、1.3万家社会组织在社区提供服务，3.2万个机关企事业单位、“两新”组织与社区组织联建、利益联结、资源共享。', '回首十年，人民城市幸福生活的画卷已经徐徐展开。展望前路，折射时代发展高度、承载美好生活向往的公园城市还将予人更多的期待。雪山下的公园城市，烟火里的幸福成都，必将在百年大党的坚强领导下、在民族复兴的历史进程中、在人民奋斗的铿锵足音里阔步走向更美好的未来。（成都日报锦观新闻记者 黄颖 钟文 曹宇阳 马玉宝 张帆 刘金陈）']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>227</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>成都一周发力下半年冲刺三季度成都区市县部门国企这周在忙啥</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2024-07-06</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://mp.weixin.qq.com/s?__biz=MzA4MTg1NzYyNQ==&amp;mid=2652909017&amp;idx=1&amp;sn=4fde00d6de9799f75d78e7343f535771&amp;chksm=85bb8c367c4ced15e3e17c247d86c0c4770113653978f76c878863535d64d0a469c3bda946ba&amp;scene=0&amp;xtrack=1#rd</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['牵手迪拜，签约低空经济示范应用等6大项目，坚定以高水平开放推动高质量发展；百花奖宣布8月花开成都，以会促产、以产兴城，擦亮“三城三都”的城市名片；天府智算西南算力中心正式投运，推动千行百业“智改数转”……多项动作透露下半年的重点发力方向。', '手迪拜，签约低空经济示范应用等6大项目，坚定以高水平开放推动高质量发展；百花奖宣布8月花开成都，以会促产、以产兴城，擦亮“三城三都”的城市名片；天府智算西南算力中心正式投运，推动千行百业“智改数转”……多项动作透露下半年的重点发力方向。', '本周，《成都一周》继续对成都市级部门、区（市）县党政“一把手”和市属国有企业主要领导的活动进行梳理，看一看过去这一周如何咬定工作目标，优化工作举措，拓展经济纵深。', '6月30日至7月2日，成都市委常委、宣传部部长、郫都区委书记辜学斌带队赴北京开展投资促进活动，先后拜访了首创·朗园、郭帆导演工作室、万达电影、光线传媒、腾讯视频、阿里巴巴影业、北京电视台和中国（怀柔）影视基地等产业园区和企业，深入学习北京影视文创产业发展、园区运营服务、政策支持和人才培养等方面先进经验，围绕项目立项、影视投资、资源共享等内容与企业进行探讨交流，并积极推介成都影视产业优良投资环境、产业发展布局和营商环境，诚邀影视剧作在蓉拍摄、立项，积极推进成都影视产业建圈强链，实现共赢发展。', '7月5日，郫都区委副书记、区长赵继东带队前往四川省中药饮片有限责任公司、四川杨国福食品有限公司等5家企业调研生产经营情况，督导企业安全生产、生产环保等工作，协调解决企业用电、纳税、市场拓展等方面诉求。', '6月29日，副市长、武侯区委书记许兴国主持召开八届区委常委会第99次会议，强调要聚焦发展新质生产力、推动高质量发展，持续深化科技创新、现代化产业体系建设、圈层联动发展等重点领域工作，全力推动各项任务落地落实。', '7月1日至4日，武侯区委副书记、区长景波赴上海、杭州开展营商环境推介活动，叩门拜访半导体、资产管理、低空经济、电子商务、人工智能等领域8家链主企业和行业龙头，推介武侯区营商环境、商业载体、产业政策。', '7月5日，景波在全区经济“双过半”工作分析会上强调，要坚持问题导向、目标导向，加强精准分析调度，下最大的决心、用最强的举措，对重点行业、重点产业、重点企业、重点领域针对性指导服务赋能，全力推动经济社会高质量发展。', '7月2日，四川天府新区党工委书记周先毅出席第七届天府中央法务区法商融合暨涉外法律服务人才交流活动，为天府中央法务区“法务+对外开放”工作站揭牌，见证四川天府新区管委会与盈科律师事务所共同打造“盈科全球一小时法律服务生态圈四川涉外中心”项目合作签约。', '7月3日，周先毅带队走访调研四川省“智改数转”赋能平台、天齐鑫隆科技（成都）有限公司、成都市易冲半导体有限公司等新区重点项目、企业，了解企业生产经营、科技研发、产业布局等情况，充分听取企业对新区优化营商环境的工作建议，现场协调解决有关困难问题。', '7月5日，周先毅主持召开天府新区上半年经济运行工作调度会议，听取新区重点经济指标“双过半”情况汇报，研究调度经济运行和下半年重点工作举措。', '7月2日，成都东部新区党工委书记詹庆前往三岔TOD鱼羊里商业街，调研消费场景营造情况，要求做好商业街招商相关工作，围绕世园会流量转化和新区城市侧消费需求，打造休闲消费新场景。', '7月5日，詹庆主持召开成都东部新区党工委2024年第13次委员会，研究航空物流、新材料、高端医疗器械和医美材料等领域招商投资议题，要求加力加劲，深入推进招商引资攻坚工作。', '7月1日，成都东部新区党工委副书记、管委会主任杨俊带队拜访四川省旅游投资集团有限责任公司，双方就天府未莱·临空国际购物公园项目建设、运营等方面进行座谈交流。当天，杨俊主持召开东部新区2024年第11次管委会主任会，专题研究布置东部新区推动大规模设备更新和消费品以旧换新行动方案落地工作，审议开辟国际货运航线等议题。', '7月4日，杨俊召开营商环境企业座谈会，与30余家辖区企业“面对面”交流，倾听企业真实声音，共同解决企业面临的实际问题。', '7月1日，成都高新区党工委副书记、管委会主任赵文峤主持召开上半年经济运行专题会，听取了15个“一管一”调度专班、150家重点企业和158项在库重点项目“包保服务”工作推进及稳增长系列政策落实情况，要求全区各单位聚焦“目标、重点、措施”三个方面，进一步强化重点行业服务、企业走访服务、问题解决日归集，全力协调解决企业用工用能、市场开拓、投资合作、人才等方面诉求，力促经济稳定向好。', '7月2日，赵文峤主持召开成都高新区建筑业（房地产业）企业座谈会，与区内建筑业、房地产业重点企业的负责人座谈交流，进一步了解行业发展情况和面临的问题，并鼓励企业坚定发展信心、力争多做贡献。', '7月1日，锦江区委书记池勇主持召开区委常委会会议，强调要坚持以项目为中心组织推动经济工作，加快推动天府茂业城、红照壁地块、环贸ICC、绿地468、四圣祠城市更新等重点项目。', '5日，池勇召开川剧文化主题街区打造工作调度会，要求进一步优化街区交通组织，强化重要节点风貌升级，打造更多网红打卡点，努力将流量转化为留量，持续激发文旅消费活力。', '7月1日，锦江区委副书记、区长缪晓波召开研究生物医药产业有关工作专题会，研究产业规划和有关政策措施。2日，缪晓波召开车路协同试点项目工作推进会，协调解决困难问题，推动项目加快落地；并会见京东智能产业发展集团总负责人，商谈京东产业园等合作项目。', '3日，缪晓波参加“2024年锦江区城市重点片区项目推介沙龙活动”，对四圣祠、林家坝、琉璃场三个片区进行项目推介。', '7月5日，中共成都市锦江区委八届七次全体会议召开，明确了“四个国际一流”的工作目标，十四个重点工作任务，以高水平开放推动高质量发展。', '7月2日-4日，青羊区委书记何勋先后调研拜访益丰电子、昊轶强等6家企业，现场了解企业生产经营情况，听取企业诉求，并向企业宣讲相关惠企政策，帮助解决具体问题。', '7月2日和5日，青羊区委副书记、区长冯胜先后主持召开研究大规模设备更新、消费品以旧换新工作专题会和“双过半”目标冲刺经济调度会，强调要扎实开展各领域设备更新、消费品以旧换新需求摸排和项目梳理，做好生产端和消费端的对接。', '审议通过了《中共成都市青羊区委关于以新型工业化为引领培育和发展新质生产力的实施意见》。全会提出，到2027年，全区力争经济总量突破2000亿元，高新技术产业营业收入突破1000亿元，打造一批具有全国影响力的科技创新中心（平台）和先进制造业产业集群，国家高端航空装备技术创新中心建设取得显著成效。', '6月30日，中铁二局金牛区城市更新项目正式启动。金牛区委书记周德强，金牛区委副书记、区长罗开敏出席启动仪式。', '7月2日，金牛区人民政府与西南交通大学举行全面战略合作协议签约仪式，周德强、罗开敏出席。双方将着力探索“学科+产业”创新模式，共同打造环交大校地共享文化园、科技成果就地转化一体化平台、产教融合产业人才发展基地等项目。', '7月4日，周德强率队走访调研攀钢集团国际经济贸易有限公司，详细了解了企业生产经营情况，认真听取企业发展诉求和意见建议，协调解决企业在发展过程中面临的问题。', '，审议通过了《关于服务向西开放战略高地建设以高水平开放推动高质量发展的实施意见》。全会强调，要着力建强先进技术成果转化服务新高地、助力构建“一带一路”进出口商品集散中心、持续擦亮“中国·成都·凤凰山”赛演品牌。', '7月3日，成华区委书记袁顺明走访建筑行业企业并调研重点项目，全面了解企业发展情况和项目推进情况，聆听企业诉求，为企业排忧解难，促进企业健康发展。', '7月4日，成华区委副书记、区长何兴轩主持召开全区重点经济指标调度会，对当前经济运行情况进行分析研判。同日', '，何兴轩会见招商蛇口公司华西区域总经理马军一行和华西集团公司党委副书记、副董事长、总经理马林一行，三方聚焦进一步加强协同合作，就推动土地资源开发和城市更新改造等方面进行了深入交流。', '7月2日，龙泉驿区委书记邱向东实地走访了一汽—大众汽车有限公司成都分公司、四川领克汽车制造有限公司，与企业负责人详细交流企业的竞争优势、存在的困难问题、未来转型方向及对外出口业务等情况。', '7月3日，邱向东会见中国汽车工程研究院股份有限公司党委书记、董事长周玉林，双方提出在中德智能网联测试基地运营、“车路云一体化”试点建设等方面加快协作。', '7月5日，邱向东，区委副书记、区长周健在党政班子联席会上专题研究当前经济运行情况，听取项目包干制落实情况，要求各包干区领导、促建专班要切实履行项目推进责任，加强项目策划包装、招引促建，下沉项目现场、推进问题解决，推动重大项目形成更多工作量、实物量、投资量。', '6月30日，青白江区委书记王林调研成都安利捷、上典福元等服务业企业，强调要充分发挥消费对经济发展的基础性作用，多措并举激发消费活力、增强消费能级。', '7月1日，王林主持召开县域经济高质量发展工作专题会，强调要全力以赴抓项目投资、抓制造业强区、抓服务业提质增效，推动各项经济指标保持较好的增速。青白江区委副书记、区长王海波参加会议。', '7月3日，王林调研清泉镇五爱村、五桂村等乡村振兴重点村，强调要始终把“三农”工作摆在突出位置，做优做强乡村特色产业，加快建设宜居宜业和美乡村。', '7月1日，王海波主持召开经济“双过半”工作专题会，强调要加快推动重大项目建设，进一步扩大有效投资，加强重点领域、重点企业服务指导。2日，王海波走访正西液压、思立可等制造业重点企业，强调要增强产业集聚配套能力，大力实施产业建圈强链。', '7月4日，新都区委书记王忠诚主持召开区委常委会第124次（扩大）会议，研究部署乡村振兴相关工作，安排部署7月重点工作，要求强化重点产业、重大项目、重点企业跟踪监测，深入推进制造业“智改数转”“新型技改”“升规提质”，大力促进新能源汽车、家电家装等大宗消费，紧盯暑假等消费旺季策划推出系列主题文旅和促销活动。', '7月5日，中共成都市新都区委十五届十二次全体会议召开，审议通过了《中共成都市新都区委关于以新型工业化为路径推进高质量发展的决定》。王忠诚强调，要用新型工业化的理念和方法推进工业强区，聚焦“高端化”抢占产业链条“制高点”，聚焦“智能化”打好产业升级“攻坚战”，聚焦“绿色化”提升产业发展“含绿量”，走质量更优、效率更高、动力更强的工业发展之路。', '7月1日，新都区委副书记、区长魏柯带队赴华润科伦医药（四川）有限公司就企业生产经营情况进行调研，倾听企业诉求和建议，协调解决企业发展中的困难问题。', '7月1日至3日，魏柯率队赴长春、常州等地开展投资促进活动，先后考察拜访金豆投资、嘉源生物药业、今创集团、新誉集团等重点产业链企业，就营商环境、新能源项目合作、工业上楼等事宜进行座谈交流。', '7月2日，温江区委书记马烈红走访成都再新路通二手车市场管理有限公司等4家工业、服务业重点企业，详细了解企业订单数量、市场行情、科研创新及下一步发展规划，现场协调解决企业困难和问题。', '7月3日，马烈红专题研究项目建设、策划包装等相关工作，强调要切实增强推动重大项目建设工作的责任感紧迫感，推动形成梯队转化、梯次推进的项目推进格局，为推动全区高质量发展添动能、增活力、强后劲。', '7月4日，马烈红走访成都南美农业开发有限公司等现代都市农业重点企业，详细了解企业生产经营、进出口贸易、新消费场景营建、农产品科研成果转化等情况，并协调解决存在的困难和问题。', '7月5日，温江区委副书记、区长王军走访四川蓝海智能装备制造有限公司，了解企业经营发展、业务布局、研发攻关等情况，现场协调解决企业发展过程中的困难和问题，要求积极主动做好对企服务工作，支持企业加大科技创新投入，持续增产能拓市场。', '7月5日，双流区委书记欧昭主持召开区委常委会。会议指出，要持续深化“四好农村路”建设工作，更好助力宜居宜业和美乡村建设。要以打造国际航空门户枢纽为牵引，产贸联动用好开放平台，建设环港经济区夯实城市高质量发展支撑。要科学谋划下半年经济工作，紧紧扭住项目建设这个“牛鼻子”，抓紧研究策划、储备实施一批重大项目和功能设施，以实实在在的服务促进工业经济实现质的有效提升和量的合理增长。', '7月2日，双流区委副书记、区长杨钒同中国核动力研究设计院主要负责同志调研中核核能产业园重点项目推进工作及2024核能产业创新发展大会筹备进展。7月3日，杨钒同四川发展（控股）有限责任公司主要负责同志实地调研双流环港经济区并座谈交流。', '7月5日，杨钒与成都海关主要负责同志到空客（成都）飞机全生命周期服务有限公司协同开展惠企助企活动并座谈交流。', '7月1日，新津区委书记熊艳，区委副书记、区长胡建平组织召开投资促进专题会议，听取2024年重点项目招引情况，安排部署下一步投资促进工作。', '7月2日，熊艳专题研究白鹤滩国家湿地公园招商运营工作，要求加快引进和培育具有地域特色、体现时尚品质的现代文旅产业，吸引更多市民游客前来旅游观光、沉浸体验，释放消费新活力。', '7月4日，熊艳、胡建平专题研究地铁五津站城市级商圈特色商业项目，邀请相关领域专业团队进行交流研讨。', '7月5日，熊艳实地调研中国民航飞行学院新津分院并召开座谈交流会，共同寻求发展低空经济的市场机遇。当天，熊艳还调研了成都交大铁发轨道交通材料有限公司，全面了解公司二期新项目启动建设、研发成果转化等情况。', '7月3日，胡建平主持召开区政府第73次常务会议，审议了实施新津城区重要路段环境整治提升项目、岷江大道通济堰段综合整治项目等议题。', '7月2日，简阳市委书记王凯主持召开上半年经济运行工作专题会。会议强调，要抓住有效时间再补课，狠抓经济运行调度，主动调研项目、积极拜访企业、强化服务举措，鼓足干劲奋战下半年。', '7月3日，王凯主持召开市委常委会会议，强调要聚焦重点企业、重点指标、重点项目，逐一盘点梳理，压实工作举措，加强监测调度，确保高标准、高效率、高质量完成半年目标任务。', '7月4日，简阳市2024年目标工作会召开，王凯主持会议并讲话，简阳市委副书记、市长苏呈祥出席会议。会议强调，要把今年的目标任务和去年的对标找差结果结合起来，倒排时序，细化举措，坚决确保“双过半”和全年各项目标任务全面完成。', '7月1日，苏呈祥主持召开经济高质量发展调度指标体系专题会，要求要强化竞争意识，坚持问题导向、措施导向、结果导向，推动经济运行持续向好。', '7月3日—4日，苏呈祥带队到上海、厦门开展投促工作，积极争取5家重点企业项目在简落地，目前已与4家企业达成合作意向。', '7月3日，都江堰市委书记蒋蔚炜拜访四川普什宁江机床有限公司、都江堰市欣荣汽车服务有限公司等重点企业，面对面了解企业发展情况、倾听问题诉求、协调解决困难，推动优质服务“投企所需”。蒋蔚炜强调，要围绕企业所需所盼，全力以赴解决好资金、土地、人才等方面问题，推动惠企政策精准直达，为企业做大做强保驾护航。都江堰市将持续加强政策指导，着力优化涉外服务，广泛链接外事资源，帮助企业搭建平台、创新场景、整合资源、构建生态，为企业“出海”拓市场、增订单、提份额提供支撑。7月1日，张亚丹协调企业办证和提质工作。', '7月4-5日，彭州市委书记廖暾率队赴湖南省开展投资促进活动，先后调研中南大学、长沙新消费研究院、马栏山视频文创产业园、湖南农业大学等点位。期间，与中南大学优秀科研成果转化项目基地相关负责人就拟投资的先进碳陶复合材料项目进行洽谈交流。', '7月1日，彭州市委副书记、市长蒋明主持召开研究夜间消费促服务业发展工作专题会，要求要用好暑期旅游旺季游客出行量增加以及市民外出意愿增强等良好契机，充分激活彭州夜间消费活力。', '7月2日，蒋明到5719厂走访调研，与企业负责人围绕发动机“维修+研发”提档升级、切入低空经济赛道等内容进行了洽谈。当天蒋明还专题督导重大项目建设工作，先后前往彭州市疾病预防控制中心迁建等项目现场，察看项目规划设计、施工进度等情况，协调解决难点堵点。', '7月2日，中共邛崃市委十五届七次全会召开，审议通过《中共邛崃市委关于以发展新质生产力为重要着力点推动高质量发展加快打造成都西部区域中心的实施意见》。当天，邛崃市委书记刘刚走访成都纺织高等专科学校邛崃产教园区，协调学校办学遇到的公服配套等问题。', '7月3日，刘刚走访璞泰来新能源电池材料产业基地、成都伊利乳业有限责任公司、四川达能食品饮料有限公司，协调解决企业遇到的资金短缺、产品销路不畅等问题。', '7月5日，刘刚主持召开市委常委会会议，强调要强化项目策划包装和招引促建，进一步下沉服务企业、', '7月1日至4日，邛崃市委副书记、市长王德彰率队在黑龙江省同江市开展外资外贸、跨境电商、投资促进活动，推动邛崃资源禀赋、优势产业、特色产品与同江进出口资源、渠道优势深度融合。1日，王德彰在同江市出席邛崃市政府、同江市政府深化区域合作交流会,双方签署深化区域合作共建战略合作协议。2日，王德彰出席“邛崃造”特色产品出口俄罗斯启动仪式，首批50余种邛崃产品通过同江水运口岸抵达俄罗斯。', '7月3日，崇州市委书记陈茂禄召开重点产业供应链配套服务项目招引促建调度会，部署产业建圈强链、项目全生命周期服务管理等任务，全力促进重点产业供应链配套服务项目多投快建，确保三季度新签约、新开工、新投运一批重点项目，务实推动工业经济运行回升向好。', '7月3日，陈茂禄会见京东方科技集团副总裁秦向东、日东材料科技（成都）有限公司总经理林圭治，就推动新型显示产业高质量发展进行交流洽谈，在科技创新、订单对接、扩能增产等方面达成合作意向。', '7月3日，陈茂禄专题研究宜居宜业和美乡村建设工作，深化完善白塔湖环湖提升规划方案，加强与竹艺村协调联动，优化片区交通动线组织，谋划推进路网、旅游驿站等配套设施建设，策划打造一批徒步露营、水上运动等新场景新业态，更好将游客流量转化为消费增量。', '7月2日，金堂县委书记、淮州新城党工委书记钟静远调研金沙小学扩建项目、建水实验中学川渝校本部及总部项目、星光里项目，实地查看项目建设情况。', '7月3日，金堂县委常委会第100次会议召开，钟静远主持会议并讲话，县委副书记、县长王安宁出席会议。会议研究部署当前重点经济工作，强调要围绕发展短板，积极谋划储备一批重大项目；要强化投资“放管服”改革，有效激发社会投资潜力和活力；要持续开展上门走访，主动靠前助企纾困解难；要聚力攻坚链主企业、“链上”项目，加快引进一批新能源、新材料、低空经济等优质企业。', '7月3日，钟静远率队拜访清凤集团并进行深入座谈交流，洽谈在金项目合作有关事宜，共同探索更多合作机会与发展空间。王安宁参加座谈。', '7月2日，王安宁率队赴成都拜访徽商银行成都分行，推进上述银行与金堂金融合作有关事宜。当天，王安宁还主持召开营商环境优化提升工作专题会，提出要深耕“金心办”政务服务品牌，优化完善政务服务机制，提升服务企业群众便利度。', '7月2日，大邑县委副书记、县长余戬赴安仁镇调研村集体经济发展和开展巡田巡林工作，强调要把发展壮大村级集体经济作为乡村全面振兴的关键抓手，持续强化要素保障，加快推进集体经济项目建设，全面消除集体经济年收入薄弱村，要以更高的站位深入推行田长制、林长制。', '7月3日，余戬走访调研四川鑫瑞欣金属材料有限公司、成都海螺型材有限责任公司等重点工业企业，倾听企业诉求，现场协调解决企业发展难题。本周，余戬还与中建三局一公司等企业展开洽谈，双方立足各自资源和未来发展愿景，围绕项目合作、实现共赢进行了深入交流，已初步达成合作意愿。', '7月5日，蒲江县委书记、一级巡视员蒲发友深入川藏铁路蒲江段、蒲丹路二期等重点项目建设现场，详细了解项目规划、存在问题，督导工程推进情况，强调要在确保安全和质量的前提下，加快项目建设进度，推动项目早日竣工投用见效；相关部门要与企业保持密切联系、主动提供服务保障，解决企业在推进项目中遇到的实际问题，为项目加快建设创造有利条件。', '7月2日，蒲江县委副书记、县长赵钢带队走访津锐电气（成都）有限公司、成都蜀西制药有限公司、新悦家居科技有限公司，详细了解企业生产经营、科技创新、供应链建设和产业链布局等情况，倾听企业发展需求，现场协调解决问题。', '7月4日，赵钢在蒲江会见日本东洋炭素集团公司、中国东洋炭素集团公司高层荐田尚治一行，就持续扩大东洋炭素蒲江公司产能，加快承接中国东洋炭素集团公司业务转移相关事宜进行了深入交流。', '7月1日，市委金融办常务副主任梁其洲带队拜访迪拜国际金融中心，双方就推动企业上市发债、深化金融科技交流合作、参加第二届成都金融周活动等达成合作意向，并表示将积极探讨签署合作协议可能。', '7月1日，梁其洲出席2024成都·迪拜投资合作推介会并致辞。活动中，沃飞长空海湾地区市场拓展与应用示范项目等6个项目成功签约，促进成都与阿联酋在金融服务低空经济、电子信息等领域加深合作，推动成都与中东双向金融交流再上新台阶。', '7月5日，梁其洲拜访四川证监局，就加强市委金融办与四川证监局沟通合作、完善“蓉易上”企业上市服务平台建设、研究并购重组业务、充分发挥资本市场服务功能进行座谈交流。当天，梁其洲还与光大银行成都分行讨论光大集团关于设立成渝经济圈产业基金（暂定名）事项，支持国有资本投资我市重点产业。', '7月1日，市发展改革委党组书记、主任王锋君主持召开区（市）县上半年经济工作座谈会，分析研判各区（市）县上半年经济高质量发展情况，梳理全市经济运行中的难点和堵点，研究提出推动经济稳增长、提质效的务实举措。', '7月3日，王锋君参加全市“两新”近期重点工作推进会，分析国家废旧物资循环利用体系重点城市建设有关工作推进情况，就市发改委更大力度统筹推动全市“两新”下步重点工作进行研究安排。', '7月4日，王锋君就全市经济“双过半”目标情况进行专题调度，深入分析当前目标推进过程中的堵点、难点，以及推动实现“双过半”目标需要重点关注的关键时间节点和精准发力重点。同时，对区（市）县地区生产总值及增速考评细则以及考评试算情况进行了研究细化。', '7月5日，王锋君赴双流区调研经济“双过半”工作情况，实地调研四川新易盛通信技术有限公司、纬创资通（成都）有限公司、澳康达（成都）名车广场等，就推动企业增资扩产和重点项目服务保障、生产设备更新和汽车以旧换新有关支持政策与企业进行沟通交流。', '7月1日，市经信局市新经济委党组书记赵春淦主持召开全市工业经济运行工作调度会，研判分析各区（市）县工业经济运行走势及专班走访重点企业服务工作，研究推动全市工业经济止滑回升的工作措施。', '7月2日，赵春淦带队前往成都启英泰伦科技有限公司、成都海艺互娱科技有限公司、中国移动（成都）产业研究院和阿里云西南信息科技有限公司开展调研，与企业负责人深入交流，要求做实服务保障机制，切实疏通企业发展难点，以超常规最大力度精准支持企业提能进位。', '7月4日，赵春淦主持召开党组会议，研究部署专班服务区（市）县工业稳增长工作开展情况、2025年电网重点工程建设实施计划、制造业新型技术改造城市试点工作推进情况等工作。', '7月2日，市科技局党组书记、局长丁小斌专题研究市委科技委第一次会议筹备工作，要求扎实做好会议筹备各项工作，充分发挥市委科技委总牵头、总协调、总把关作用，以科技创新塑造成都经济社会高质量发展新动能新优势。', '7月3日，丁小斌专题研究校地合作工作，深入推进与香港城市大学、西北工业大学合作，在产学研合作及科技创新平台建设、科技成果转化、引进培育人才等方面达成了共识，形成了合作协议，并报市政府常务会审议通过。加快推进与北京航空航天大学新一轮合作洽谈，围绕人工智能、低空经济、航空航天等领域，带领四川天府新区、青羊区、龙泉驿区、彭州市等与北航对接，形成了《成都市人民政府北京航空航天大学全面深化合作协议》（初稿）。', '市财政局党组书记、局长高翔召开专题会议，研究大规模设备更新和消费品以旧换新资金保障工作。目前，市财政局已配合相关部门在工业领域、农业领域、交通运输领域等出台7个专项行动方案，并对照政策条款逐一开展资金需求测算,下一步将根据各领域政策出台和实施情况，动态更新资金需求测算，统筹做好资金安排，确保市“两新”工作相关政策落地落实。', '7月1日，市人社局党组书记、局长王道明主持召开智慧人社建设专题调度会，围绕就业领域智慧应用场景建设，全面梳理下一步建设的重点任务和难点工作，要求依托数字化、智慧化手段，精准掌握企业用工需求，高效调度重点企业用工保障，助力企业高质量发展。', '7月4日，王道明带队赴TCL王牌电器（成都）有限公司调研企业生产经营和用工保障情况，面对面了解企业发展需求，针对性解决企业用工难题。', '7月4日，王道明带队赴成都京东方光电科技有限公司调研人才评价和用工保障等情况，针对企业提出的“高端人才引进”“校企合作育才”“高技能人才自主评定”等需求，现场办公解决企业实际困难。', '7月1日，市规划和自然资源局党组书记、局长胡斌专题调度建设用地报批半年工作，特别对部分报件进度滞后问题进行逐一研究，提出工作措施和办理时限，明确开通绿色通道加快审查、会审发现问题一次性告知等工作机制。截至目前，全市2024年新报部省审查项目用地面积1.7万亩。', '7月2日，胡斌召开住宅用地供应工作研究会议，对2024年“12+2”区域第二批次住宅用地供应规模、时序安排等工作进行了研究。会议依据当前土地市场运行形势，结合宗地周边公服配套、产业人群集聚、市场接受度等情况形成了供地清单，要求加快推进上市前期工作，确保清单内宗地按期推入市场。', '7月3日，胡斌专题研究上市公司走访问题解决工作，对海特高新、德龙汇能、航发科技等8家上市公司在项目推进中存在的困难和问题进行深入研究，逐项分析症结，确定解决途径。', '7月3日，市生态环境局党组书记、局长张军出席第二届永定河绿色发展论坛暨深化气候适应型城市建设试点研讨会，并在主论坛围绕“以公园城市理念引领气候适应型超大城市建设”作交流发言。会上，张军表示将以参与国家试点为契机，聚力打造具有全国影响力的气候适应型公园城市示范区，为建设更具韧性的气候适应型社会提供超大城市支撑、贡献成都方案力量。', '7月1日，市住建局党组书记、局长夏先义召开住建领域设备更新专题会议，要求进一步完善市政基础设施、建筑节能改造、老旧电梯更新等专项行动方案。', '7月4日，夏先义组织对建筑业企业反馈问题进行研究，对共性问题进行集中解答，梳理发布2024年住建领域第二批机会清单，帮助企业争取更多机会。', '7月5日，夏先义组织召开座谈会，强调要全面准确把握中央关于房地产市场供求关系发生深刻变化的重要判断，以“稳市场、增信心”为目标，围绕“去库存、防风险、强监管”要求，统筹好“市场+保障”“购买+租赁”“存量和增量”等关系。', '7月4日，市交通运输局党组书记、局长张涛主持召开“成都市交通运输局道路运输安全百日攻坚行动”专题会，研究成都市交通运输局道路运输安全百日攻坚行动工作推进情况，要求进一步细化完善行动方案，明确工作机制和措施，认真开展道路运输安全百日攻坚行动，坚决守住不发生重特大事故底线，坚决维护人民群众生命财产安全。', '7月5日，张涛带队到双流区调研四川路凯物流有限公司，了解企业生产经营情况，协调解决存在的困难问题。', '7月5日，张涛带队赴蒲江县调研川藏铁路引入成都枢纽线、蒲丹快速路（二期）等重点项目建设和成蒲快铁公交化运营情况，并与蒲江县主要负责同志共同会商蒲江县综合交通运输发展规划和“十五五”重大项目谋划争取有关工作。', '7月3日，市口岸物流办党组书记、主任曾虎主持召开成都航空货运能力提升及进口危险品保障工作专题会议，传达省政府研究成都航空枢纽“两场一体”运营发展有关工作专题会议精神，研究高质量推动成都航空货运枢纽建设的对策举措。', '7月3日，曾虎会见德国汉莎货运航空中国首席代表糜冬梅一行，双方就推动成都至法兰克福货运航线稳定运行、推动成都航空货运枢纽高质量建设等内容进行了深入交流。', '7月4日，曾虎带队赴简阳市开展项目调度及助企服务工作，现场走访传化东中心供应链智慧枢纽、中通快递西南总部等项目，了解项目建设情况和困难诉求，督促企业做好相关安全生产工作；与简阳市临空经济产业园管委会围绕物流项目招引促建、临空商务区建设、空铁联运规划等进行座谈交流。', '7月3日上午，市水务局党组书记、局长刘贵恒率队检查久隆水库工程“双过半”任务完成情况，详细查看了枢纽工程导截流、主坝开挖和灌浆及充水工程盾构隧洞掘进施工进展情况，久隆水库工程提前完成挡水围堰填筑、超额完成充水隧洞盾构掘进至2.75km（计划2.5km），圆满完成“时间过半、任务过半”目标。', '7月3日下午，刘贵恒组织召开沱江流域成都段水生态环境综合治理公益性项目和河湖管理项目专题会议，推动相关项目加快前期论证和建设。', '7月3日，市农业农村局党组书记、局长古建桥前往简阳市连山村、安全村等地调研低收入脱贫人口增收工作，实地入户了解脱贫群众和监测对象生产生活、收入构成及政策保障落实情况，要求严格落实“一户一策”、动态跟踪机制，及时发现消除返贫致贫风险，确保按期实现“三个动态清零”目标。', '7月3日，市公园城市局局长刘嘉聪走访调研2024成都世园会郫都分会场运营情况，现场踏勘春天花乐园花魔方展馆、国际花卉品牌馆、成渝地区花卉产业成就馆、蝴蝶村等点位，实地调研金品花卉公司种苗产业、台丽庄园兰花科创园等项目，提出要围绕打造“花卉供应链中心、花卉科研创新中心、花卉展示交流服务中心”，依托行业组织、花木进出口园区和郫都、温江等区（市）县的花卉骨干企业，重视行业人才培养，发挥龙头企业引领功能，做大做强成都花卉产业和品牌。', '7月4日，市商务局党组书记张金泉带队走访成都客车股份有限公司和四川省丹丹郫县豆瓣集团股份有限公司，详细了解企业当前销售经营情况、下半年市场预期和企业“走出去”发展计划，鼓励企业借大规模设备更新之机，推动“智改数转”、产贸联动拓展海外市场，在传承川菜文化、传播川菜故事上持续发力，进一步擦亮国际美食之都招牌。', '7月3日，市商务局局长何丽带队调研英特尔产品（成都）有限公司、鸿富锦精密电子（成都）有限公司、鸿富成精密电子（成都）有限公司、业成科技（成都）有限公司、准时达国际供应链管理有限公司，实地了解企业经营情况、运行态势、存在的问题和建议，鼓励外贸龙头企业坚定信心，加大在蓉布局，稳定订单和产能。', '6月25日-7月2日，市投促局党组书记、局长陈华赴沙特、阿联酋开展投资促进活动，参加成都工业企业沙特行市场对接会，调研迪拜中建光热发电厂项目，举办2024成都·迪拜投资合作推介会。中阿50余家企业参加推介会，活动坚持“走出去、请进来”相结合，组织沃飞长空、鼎桥通信、AG电竞等成都企业赴阿开拓市场，促进M6投资公司、黑槐公司等迪拜企业来蓉投资，现场签约低空经济、金融投资等领域合作项目6个，外资项目签约金额3000万美元。', '7月3日，陈华召集邛崃市座谈，安排部署2024中国锂电材料大会筹备工作，对持续围绕链主企业举办的供应商大会、生态伙伴大会借势赋能、以会招商进行了深入交流。', '7月4日，陈华召集全市投促系统，安排部署第三季度重大项目集中签约和项目招引工作，研究应对反向招商工作，策划推动联动招商、区域协同招商、供应链招商。', '7月5日，陈华会同相关部门，调研龙泉驿区新能源商用整车等重大项目促引促建工作，并同相关企业座谈，宣传区域协同发展政策，推介成都投资环境，提振企业投资成都信心。', '先后拜访“柏林爱乐在上海”系列品牌策划机构吴氏策划董事长吴嘉童、蓬皮杜艺术中心中国区代表Paul Freches、携程集团高级副总裁王韦等，就引进国际顶尖交响乐队来蓉演出合作打造国际音乐之都、成都美术馆引入蓬皮杜馆藏精品展，以及携程集团与成都联手打造“全球合作伙伴峰会”，跨界探索“文旅+”研发多形式的文旅融合创新产品，持续深化成都入境游合作等事宜进行深入沟通交流，多方达成深化合作意向。', '详细了解企业经营情况和发展诉求，为企业讲解相关政策措施，鼓励企业把握数字音乐、区块链、5G互联网发展契机，加强音乐科技创新和版权保护，扩大应用消费场景，发挥链主企业“头雁”作用，助力成都音乐产业发展和国际音乐之都建设。', '7月2日，市委国资国企工委书记，市国资委党委书记、主任李长文率队赴成都体育学院，对成都兴城集团三国蜀汉城项目进行调研和现场督导。', '7月1日-4日，李长文召集分管负责同志和处室负责人，对落实以案促改、以案促建、以案促治，着力推动国资国企高质量健康发展有关工作进行研究部署，制定《落实以案促改促建促治，进一步加强廉洁国企建设的措施》，从提升监管综合效能、从源头上防贪治腐、营造浓厚干事氛围等方面拟定了16条具体措施，并在市政府专题会议上进行汇报和讨论。', '7月1日-4日，李长文主持推动市属国企基金管理相关工作，进一步修订完善《成都市属国有企业基金业务管理暂行办法》，着力健全基金“募投管退”的全流程监管体系，确保基金业务健康有序发展。', '7月2日，市体育局党组书记、局长王毅率队走访成都乐动信息技术有限公司，详细了解企业经营情况和未来发展，面对面听取企业需求，现场办公解决企业实际困难和问题，鼓励企业坚定发展信心，支持企业发挥体育产业链主优势在城市IP赛事营销打造、自行车产业链深度融合、体育产业新质生产力发展和智慧体育场景应用等方面深化业务合作，在企业融资贷款、产品服务出海等方面予以支持。', '7月1日，市统计局党组书记、局长王永新召开局长办公会安排部署近期重点工作。会议要求全力做好上半年主要指标统计工作，加强报表期间数据跟踪监测，加大服务指导力度，确保应统尽统；全力做好第五次全国经济普查收官工作，加强数据核实修正和审核验收，切实夯实数据质量，确保普查数据真实准确。', '6月25日至7月2日，市城市运行和政务服务办党组书记、主任冯秀富分别到青羊区政务中心、金牛区智慧治理中心、市政务服务中心、12345热线企业诉求提速处置专班调研，实地督促青羊区“高效办成一件事”运行情况、金牛区数据授权运营情况，以及市政务中心24小时自助服务区、12345亲清在线直播间惠企服务专区、企业开办和简易注销一件事服务专区运行情况，并到12345企业诉求提速处置专班了解企业诉求的提速提级办理情况。', '冯秀富要求，要进一步做优做强惠企政策解读直播间，要持续优化惠企服务专窗专区建设，要深入推进国办13个“一件事”高效落实，要站在企业角度想企业之所想把企业诉求办实办好。', '7月1日，市博览局党组书记、局长潘雪松率队赴成都高新区管委会，专题研究第十八届中国—欧盟投资贸易科技合作洽谈会筹备和场馆设备更新工作。', '7月2日，潘雪松与四川天府国际会展集团有限公司座谈交流，就政企联动推动全市会展产业高质量发展进行了深入交流。3日，潘雪松与崇州市就第27届成都国际车展期间在崇州市设置房车营地分展进行洽谈。4日，潘雪松与市对外开放合作促进中心就共同组织实施“开放成都”合作伙伴计划进行深入研讨。', '7月4日，潘雪松会同市商务局专题研究国际消费中心城市会展博览消费场景建设有关工作。', '7月5日，成都城投集团党委书记、董事长赵卫东主持召开城市生命线安全工程项目推进专题会，调度项目策划包装、技术准备、产业培育等工作。', '当天，他还主持召开凤凰山体育公园工作专题会，研究部署赛事活动保障、文体产业发展等工作，强调要做深做细赛事保障各项工作，加大文体消费场景营造力度，全力将赛演活动“流量”转化为发展“增量”。', '7月1日，集团党委副书记、副董事长、总经理刘城到集团所属东鑫公司调研，督导调度项目建设、产业园区运营等工作，协调解决经营发展中存在的困难和问题。', '调研CCIC智慧交通城市产业中心项目建设推进情况及安全生产工作，要求坚持安全生产问题“清零”的心态，坚决防范和遏制各类事故发生；科学谋划项目业态，强化要素保障，确保项目推进过程中各项工作按时序高质高效推进。', '7月4日，刘毅参加研究成都市域铁路公交化运营改造二期工程站房设计相关方案专题会议。成都交投集团将锚定初步设计、施工图设计、开工建设3大关键任务节点，全力推动项目尽快开工建设。', '7月1日至3日，集团党委副书记、副董事长、总经理聂斌率工作组赴甘孜州新龙县开展托底性帮扶专题调研。工作组一行先后来到G227沿线灾害隐患点、县城新能源充电桩项目、拉日马镇、措卡湖改造提升项目现场调研，协调解决项目推进问题。', '7月2日，成都文旅集团党委书记、董事长张海彤主持研究拟纳入省市“十五五”规划的项目，要求各子公司全力内部挖潜，联动外部拓展，精心谋划、包装、储备重大项目，全力争取纳入省市“十五五”规划，为全市经济发展贡献文旅动能。', '7月3日，张海彤与成都文旅集团党委副书记、副董事长、总经理覃聚微围绕宽窄巷子二期项目合作、“文旅+金融”合作，先后与中国旅游集团、成都农商行开展洽谈交流。', '7月4日，张海彤与香港富德集团董事长潘家德一行围绕引入全球高能级文旅IP项目落地成都展开深入磋商与论证，瞄准行业头部强链补链，助力成都建设世界旅游名城。', '成都轨道集团党委书记、董事长胡庆汉先后带队与成都东部新区、市规划和自然资源局、青羊区主要负责同志开展工作对接，重点围绕三岔TOD项目高质量推进，轨道交通在建项目用地、规划建管手续办理，扩大有效投资等事宜进行深入沟通并达成共识。', '胡庆汉主持召开研究TOD经济指标有关工作专题会，对TOD综合开发项目经济指标进行逐个分析。会议要求，合理铺排开发计划，优化项目实施方案，挖掘降本提质增效空间；紧扣全年目标任务，在提前兑现“双过半”目标基础上，全力以赴推动已开工项目加快建设、未开工项目尽快开工、储备项目提早策划，积极抢抓政策窗口期机遇，全面挖掘投资潜力。', '7月3日，成都轨道集团党委副书记、副董事长、总经理崔浩先后调研四川师大TOD项目建设，地铁世纪城站等车站商业二次开发工作。', '7月2日，成都环境集团党委书记、董事长张雄正主持召开集团2024年二季度市场拓展工作调度会，集团党委副书记、副董事长、总经理王正丹参加会议。', '7月3日，张雄正主持召开2024年上半年科技、制造、数字“三大”强企调度会，王正丹参加会议。会议强调，要认清形势、以更大决心更大力度推进“三大”强企，围绕培育新质生产力及资源化、能源化、低碳化目标，找准差距对标提升；要注重质效、以更快速度更多举措推进“三大”强企，进一步强化调度、协同攻关，切实加快工作进度、实现成果转化；要夯实支撑、进一步强化“三大”强企保障，在人才引育、经费配套、载体建设、机制创新等方面发力，进一步激活发展的动力和潜能。', '7月1日，成都兴城集团党委书记、董事长李本文主持召开“天府文化公园商务区”专题会，研究设计策划、项目定位等工作。2日，李本文陪同调研成都市首批城市更新重点文旅项目三国蜀汉城项目，推动项目模式调整，加快项目开发，助力城市文化场景更新升级。3日，李本文调研兴城人居集团长岛荟城等6个项目，督导保租房建设，研究存量房去化工作。', '7月1日，成都兴城集团党委副书记、副董事长、总经理陈大用主持召开“存量房去化”专题会，研究“一盘一策”去化方案，推动存量房应售尽售、应租尽租。2日-5日，陈大用带队赴无锡、上海、杭州等城市，调研“泰康之家·申园”等6个康养项目，考察学习医养产业先进经验模式，拓展经营视野，进一步打造“兴城康养”品牌，提升城市康养服务功能。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>227</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>成都一周丨半年经济收官战打响成都区市县部门国企这周在忙啥</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2024-06-29</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://mp.weixin.qq.com/s?__biz=MzA4MTg1NzYyNQ==&amp;mid=2652902948&amp;idx=1&amp;sn=5d7171db18eaf4f89dea631b76888972&amp;chksm=8597c44230d5d009ef9217aaaa29787e1e3a57dcbb2863ab43f9b3eb30290aeff8fd1b732545&amp;scene=0&amp;xtrack=1#rd</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['全国首个亚蓉欧“空铁联运”国际班列发车，巍巍蜀道，商旅不绝；巴西驻成都总领事馆正式开馆，开放合作，再添伙伴；科创生态岛迎来人形机器人创新中心等多个重磅项目，华为全国首个数字服务创新中心、华为（西南）数字机器人创新中心、华为（四川）人工智能与智改数转创新推广中心落户成都，建圈强链，产业扛旗……招项目、兴产业、拓通道，经济热力加速升温。', '本周，围绕“双过半”目标，各市级部门、区（市）县、市属国企以最实举措推动经济运行回升向好。《成都一周》继续对本周成都市级部门、区（市）县党政“一把手”和市属国有企业主要领导的活动进行梳理，看一看过去这一周如何汇聚经济发展合力。', '6月22日，市委常委、宣传部部长、郫都区委书记辜学斌主持召开郫都区经济运行工作专题会，听取调度重点经济指标完成情况，要求抓实抓好重点企业服务、重大项目招引、有效投资促进、消费品以旧换新、政策精准供给等工作，全力以赴冲刺“双过半”目标任务。', '6月22日，辜学斌前往四川新华西乳业有限公司、四川天味家园食品有限公司、东方氢能产业园、四川金星清洁能源装备股份有限公司调研企业生产运营情况等，面对面听取企业需求，现场办公解决企业实际困难和问题，鼓励企业坚定发展信心，大力实施“智改数转”，以智能化数字化赋能产业转型升级，加快培育发展新质生产力，为全区高质量发展提供有力支撑。', '6月26日，郫都区、西南交通大学与蜀道集团就共建西南交通大学郫都先进制造科创园项目举行三方合作协议签约仪式。市委常委、宣传部部长、郫都区委书记辜学斌，郫都区委副书记、区长赵继东出席签约仪式。', '6月24日，华为（西南）数字机器人创新中心、华为（四川）人工智能与智改数转创新推广中心落户郫都区，赵继东出席揭牌仪式。', '6月27日，赵继东主持召开经济运行及固定资产投资“双过半”工作会议，分析研判重点行业、重点区域、重点项目运行情况，确保实现“双过半”目标。', '6月25日，副市长、武侯区委书记许兴国赴北京开展投资促进活动，从区域优势、人才科教资源、产业链生态等多维度，向大数据、移动互联网、人工智能等领域链主企业，全面推介成都市及武侯区的投资优势与发展机遇，推动合作项目落地成都、布局武侯。', '6月25-27日，景波先后拜访四川大学华西医院、成都燃气集团股份有限公司、成都京东世纪贸易有限公司等11家企事业单位，面对面听取意见、了解诉求，帮助解决实际问题。', '6月25日，四川天府新区党工委书记周先毅带队走访中铁城市发展投资集团有限公司、四川华西集团有限公司等辖区部分重点企业，与企业负责人面对面交流，认真倾听企业反映的问题和诉求，并现场予以解决回应，鼓励企业强化“城市合伙人”角色担当，延伸产业链条、扩大产值规模，不断培育政企携手共进新动能、塑造高质量发展新优势。', '6月28日，周先毅主持召开四川天府新区经济运行工作专题会议，专题研究调度新区近期经济运行工作，听取各级各部门重点经济指标预计完成情况、走访解决企业问题情况。', '6月24-27日，四川天府新区党工委副书记、管委会主任陈历章带队走访攀钢集团成都钒钛资源发展有限公司、万华集团、成都建工集团、成都京东惠加贸易有限公司，了解企业生产经营等情况，协调解决企业诉求和困难。', '6月22日，成都东部新区党工委书记詹庆，成都东部新区党工委副书记、管委会主任杨俊分别到国际空港经济区（东部新区片区）和简州新城，调研经济运行情况，详细了解项目建设、企业运行情况，现场协调解决企业面临的困难和问题。', '6月24日，杨俊主持召开研究大规模设备更新和消费品以旧换新行动方案及支持工业企业提质增效政策专题会。', '6月25日，詹庆调研中铁十五局三岔片区创新孵化园及配套设施项目，详细了解项目规划建设情况，协调解决工作推进中的困难和问题，积极推进中铁十五局在成都东部新区设立企业总部。杨俊主持召开重点片区产业标准地推进情况工作专题会，推动提升土地利用效益，大力开展工业用地“熟地”“标准地”打造工作，实现带地招商，保障产业项目落地。', '6月26日，杨俊主持召开成都东部新区2024年“双过半”短板指标调度工作专题会，牵头制定稳运行、提速度、优结构、保目标的工作重点和措施。', '6月27日，天府国际机场通航三周年，詹庆前往天府国际机场，了解机场运行情况，协调解决机场运行过程中服务保障事项，推动新区做优做强国际门户枢纽功能、现代服务业集聚功能。', '6月27日，成都高新区党工委副书记、管委会主任赵文峤率队调研成都快购科技有限公司、腾讯科技（成都）有限公司、成都华联（SKP）百货有限公司等区内服务业重点企业，了解企业经营发展情况，现场协调解决企业面临的困难和问题，并就支持企业稳定发展、落地新业务、布局新的增长点等深入沟通交流。', '6月24日，锦江区委书记池勇带队走访国家级高新技术企业四川凝思软件有限公司，实地察看了解企业经营发展情况，协调解决企业在用人招聘、市场拓展等方面困难，鼓励企业持续做好软件国产化替代工作，不断提升市场占有率。', '6月24日，池勇实地调研成都锦江数智人力资源服务产业园，走访园区入驻企业，鼓励企业发挥自身优势，不断集聚不同行业产业链优秀人才，构建人力资源服务产业与锦江特色产业互促发展新格局。', '6月25日，池勇召开经济工作调度会，针对性调度社消零、固定资产投资等重点指标，研究部署走访服务重点企业等工作，明确要求主动靠前服务，“一企一策”制定方案，切实解决企业困难和问题。', '6月28日，池勇召开研究春熙路商圈建设工作专题会，要求要加快策划系列打卡“爆点”活动，切实将网络关注“流量”变为旅游消费“增量”。', '6月24-27日，锦江区委副书记、区长缪晓波带队先后走访成都蓝色极氪、万花春熙、维智科技、成都太古里、成都IFS等企业，了解企业经营状况；会见四川中烟工业、四川能投建工集团、深圳云天励飞、四川永辉超市等公司负责人，协调解决困难问题，鼓励企业扩产增效。', '6月24日，青羊区委书记何勋主持召开八届区委常委会第101次会议。会议强调，要靠前服务解决实际问题，要进一步强化服务企业，区领导带队“一对一”服务好重点企业，要聚焦企业的具体问题诉求，切实地帮助企业解决问题；要精准发力，抓住当前重点关键，全力以赴确保“双过半”，要讲究方法，采取精准务实举措，科学高效筑牢发展底板，要进一步修改完善产业政策，统筹好政策兑现流程，加强政策实施过程中的评估问效。', '会议强调，要靠前服务解决实际问题，要进一步强化服务企业，区领导带队“一对一”服务好重点企业，要聚焦企业的具体问题诉求，切实地帮助企业解决问题；要精准发力，抓住当前重点关键，全力以赴确保“双过半”，要讲究方法，采取精准务实举措，科学高效筑牢发展底板，要进一步修改完善产业政策，统筹好政策兑现流程，加强政策实施过程中的评估问效。', '6月26-28日，何勋率队赴浙江省宁波市、上海市、江苏省常州市开展招商引资活动，先后考察拜访了中国航空无线电电子研究所（615所）、奥琳斯邦装备科技股份有限公司等多家重点企业，与企业负责人就航空科技创新、新材料产业等事宜进行座谈交流。', '6月25日，金牛区高质量发展暨新型工业化大会举行。金牛区委书记周德强，金牛区委副书记、区长罗开敏出席活动。活动中发布了金牛区大规模设备更新和消费品以旧换新工作方案，以及金牛区2024年《政府性投资项目机会清单》《政府采购机会清单》《土地资源机会清单》《产业载体投资合作机会清单》。', '6月25日，周德强带队实地察看企业运营现状，在岚庭集团听取企业经营情况介绍，指出相关部门街道要增强服务意识，拿出具体措施为企业纾困解难，实打实为企业解决问题，让企业切身感受到党和政府的关心关爱就在身边。', '6月26日，罗开敏出席中医智能创新产业园项目开工仪式。现场，成都中医药大学、金牛区人民政府、电子科技大学进行了中医智能创新产业园项目合作签约，项目总投资30亿元，聚焦解决制约智能中医设备研发及应用的关键问题，将建设成为中医药领域新质生产力发展的新平台。', '6月25日，成华区委书记袁顺明走访成都市见福便利店管理有限公司、成都鸿源蒙牛乳业有限公司、成都印象川之味餐饮有限公司、成都市乾元新景新能源汽车服务有限公司等区内重点商贸企业，深入了解企业经营状况，“面对面”倾听企业声音，征求企业意见建议，帮助企业排忧解难，要求采取更加务实的举措提振企业信心，帮助企业不断提高服务水平、创新营销方式，保持新型消费方式热度不减。', '6月25日，成华区委副书记、区长何兴轩走访辖区国网四川电力送变电建设有限公司、中铁房地产集团西南有限公司，倾听企业诉求及意见建议，帮助企业解决生产经营中遇到的困难和问题，要求相关部门要当好企业的“服务专员”，精准落实系列惠企政策，全力助推企业做大做优做强。', '6月25日，龙泉驿区委书记邱向东陪同成都市委常委、高新区党工委书记曹俊杰赴北京深入重点企业、重大项目一线开展走访跟踪服务，开展投资促进工作，走访了紫光集团与航天五院。在紫光集团，双方就未来产业创新联合体、未来产业孵化基地、标志性产品及特色产业链等方面进行深入交流，并就拟合作项目进行深入探讨。在航天五院，与总体设计部总会计师赖龙飞一行深入交流，并就推动空天未来应用联合实验室项目进行座谈。', '6月27日，邱向东会见东风集团总裁助理、神龙公司总经理陈彬一行，双方就加快推进东风汽车在龙泉驿区新项目相关事宜深入交流，并明确尽快推进双方高层会晤、加快项目落地。', '6月25日、6月28日，龙泉驿区委副书记、区长周健先后召开专题会议研究部署汽车消费补贴发放、企业走访服务等工作，要求全区各级各部门锚定“双过半”目标拿出务实举措，下沉一线服务，持续用力为企业送政策、解难题、拓市场。', '6月23日，青白江区委书记王林前往粮食加工（贸易）企业调研，了解企业经营现状、面临的困难以及未来发展规划，勉励企业积极应对当前形势，通过降成本、促转型、强合作等方式，不断提高企业竞争力，要求管委会及相关部门加强对企业的服务和支持，为企业营造良好发展环境。', '6月25日，王林参加高质量共建亚蓉欧大通道暨亚蓉欧“空铁联运”国际班列首发仪式。该新发班列无缝衔接成都航空港、铁路港，有效扩大了成都在全球的影响力，实现了亚蓉欧大通道提质扩容。', '6月26日，王林参加与青白江海关座谈会，强调要进一步加强关地合作交流，共同推进青白江营商环境优化提升，推动外贸实现质升量稳。', '6月25日，青白江区委副书记、区长王海波走访蜜雪冰城、茶百道、丰科等重点企业，深入了解企业项目进展、外贸业务、销售情况等，听取诉求及建议。', '6月26-27日，王海波到上海、浙江桐乡开展投资促进活动，与相关企业负责人就新能源商用车、新型复合材料等拟合作项目进行深入沟通交流。', '6月26日，新都区召开经济运行和重点项目建设工作专题会，新都区委书记王忠诚主持会议并讲话，新都区委副书记、区长魏柯参加会议。会议听取了全区当前经济运行情况，有关产业部门紧扣实现“双过半”，围绕产业建圈强链、项目招引促建等方面作工作汇报。', '6月24-25日，魏柯带队赴山西、北京开展投资促进活动，先后考察山西美锦能源股份有限公司、中航建设集团有限公司、北京航辰机载智能系统科技有限公司、联东U谷金桥产业园，就建设氢能动力产业园项目、产业投资运营、城市基础设施建设、智慧城市与绿色规划等方面合作进行交流。', '6月26日，魏柯主持召开区人民政府与成都医学院座谈交流会。会议听取了成都医学院新院项目建设推进情况，要求坚持“抓质量、提速度、控预算”原则，确保如期高质量完成新院区建设。', '6月28日，魏柯到重点企业微网优联进行走访，深入了解企业生产经营、创新发展等情况，协调解决企业问题诉求。', '6月24-26日，温江区委书记马烈红走访成都顶津食品有限公司等12家工业、服务业重点企业，详细了解企业生产经营、设备更新、技术创新、新产品研发销售、增资扩产项目建设、未来发展规划、科研成果落地转化等方面情况，协调解决企业发展过程中面临的难点问题，要求以更大力度、更实举措支持企业发展，把营商环境的各项承诺落到实处，真心实意护航企业发展壮大。', '6月25日，马烈红走访科伦药业并召开座谈会，详细了解企业生产研发、技术创新、市场开拓、平台建设等情况，强调要靠前服务、主动作为，打造一流营商环境。', '6月28日，马烈红实地督导凤凰立交、金马污水处理厂等重点项目推进情况，强调要进一步增强抓好项目建设的紧迫感、责任感，高标准、高质量、高效率推动项目早日竣工投用见效。', '6月29日，温江区召开全区经济运行工作专题会，马烈红主持会议，温江区委副书记、区长王军参加。会议强调，要铆足干劲、强化担当，重点围绕“强力量、优方式、重实效”深度服务企业，用实实在在的行动全力以赴帮助企业解难题提信心、扩需求拓市场，有力促进温江经济运行平稳有序。', '6月25日，双流区委副书记、区长杨钒走访服务了特锐德川开电气有限公司、纬创资通（成都）有限公司等辖区重点企业，前往通威高效晶硅太阳能电池智能工厂项目现场，倾听企业心声，了解发展需求，聚焦难点堵点，帮助解决问题，全力保障企业平稳健康运行，为双流经济高质量发展蓄势聚能。', '6月27-28日，杨钒赴青岛市、北京市开展招商引资活动，拜访青岛特锐德高压设备有限公司、斯坦德检测集团股份有限公司、北京澳丰源科技股份有限公司等重点产业链目标企业，双方就持续深化合作，加大在双流订单投放，在新经济新赛道上实现共赢发展等内容进行深入交流。', '6月24日，新津区委书记熊艳，新津区委副书记、区长胡建平分别走访中储粮油脂（成都）有限公司、中央储备粮四川新津直属库有限公司、四川周黑鸭食品有限公司，详细了解前期问题落实情况，现场收集企业诉求与困难，研究解决方案和具体举措。', '6月27日，熊艳主持召开第六期蓉易见·新津区政商恳谈会，围绕轨道交通企业如何“抱团出海”主题，与成都中车长客、川发磁浮、格力钛新能源等22家轨道交通企业代表“面对面”沟通交流，并就助力企业提升对外开放合作水平、链接重点客户、对接合作伙伴、拓展国际市场等进行安排部署。', '6月28日，熊艳、胡建平专题研究现代服务业高质量发展专项政策，要求通过政策赋能，充分释放现代服务业在稳增长、保就业、扩消费、促开放方面的作用。', '6月24日，胡建平主持召开“抓项目促投资”百日攻坚促建会，实地督导中弘景光伏发电节能门窗智能制造产业基地、天府牧山学校小学部等重点项目推进情况。', '6月25日，受简阳市委书记王凯同志委托，简阳市委副书记、市长苏呈祥主持召开上半年经济运行工作专题会。会议逐项研究重点经济指标完成情况，针对问题制定追赶措施；要求持续深化“一项目一专班”工作机制，坚持精细调度、科学调度、每日调度，全力以赴完成半年各项工作任务。', '6月26日，苏呈祥赴唯品会、海底捞、港通医疗等重点企业、重点项目调研，了解企业运行、问题诉求及项目进度，现场协调解决企业在用工招聘、产品推广、基础设施完善等方面的实际困难，要求相关职能部门严格落实“一企业一专员”工作制度，靠前服务，主动作为，限期办结。', '6月27日，苏呈祥前往四川能投天府云数据产业基地调研，了解企业生产经营、电力保障等情况，要求相关部门按照“一产业链一专案”工作要求，全力支持企业加快向智算方向转型发展，共同打造人工智能算力供给、算法研究、应用场景等产业生态，共同释放东数西算天府集群节点城市战略机遇。', '6月24日，都江堰市召开上半年经济运行工作专题会。都江堰市委书记蒋蔚炜强调，要切实增强等不起的紧迫感、慢不得的危机感，把经济工作摆在重中之重的位置来抓，要加强终端问效，主动拜访服务，及时有效调度，抓紧提升内功，科学应统尽统，聚焦差距、找准症结，破釜沉舟、背水一战，以更大决心、更强力度、更实举措冲刺“双过半”。市委副书记、市长张亚丹指出，要每日调度，加强走访，压实责任，倾听企业心声，收集企业诉求，千方百计为企纾困解难，聚焦关键指标加强分析研判，围绕问题成因精准施策、补齐短板，跳起摸高、创优争先。', '6月25日，成都高新区、锦江区与都江堰市结对联动推进工作（都江堰市）领导小组召开第4次会议。会议听取结对联动总体推进、专班工作开展以及合资公司首批领投、新招引项目等情况，审议青城合作片区管委会投资促进有关事宜、2024年青城合作片区基础设施及公服配套项目（首批）建设计划。都江堰市委书记、领导小组组长蒋蔚炜强调，要强化规划引领作用，专业高效授权审批，持续转作风提状态，进一步突出重点、整合资源、精准发力，齐心协力推动各项工作由点连线成面，持续激活高质量发展新动能。', '6月25日，彭州市委书记廖暾率队走访调研华融化学股份有限公司、川西气田6号平台、四川石化有限责任公司、中顺洁柔（四川）纸业公司、四川新绿色药业科技发展有限公司、彭州太萌新材料有限公司等点位，通过实地查看、交流座谈，倾听企业发展诉求，强调要当好“企业保姆”，帮助企业拓市场、扩生产、解难题，为企业发展和项目建设提供服务保障，助力全市经济高质量发展。', '6月26日，廖暾率队前往濛阳街道，到四川民福记食品有限公司、京华制管有限公司、九溪灼夜和永辉供应链现代产业园等点位，就成都国际陆港彭州片区发展工作进行调研。', '6月25日，彭州市委副书记、市长蒋明走访彭州华润燃气有限公司、中合镍业有限公司等重点企业，就冲刺“双过半”、稳增长、安全生产等工作开展调研。', '6月26日，蒋明走访调研四川省福强包装有限责任公司、成都科美特特种气体有限公司等重点企业，深入了解企业诉求，并现场协调解决企业发展遇到的难点堵点。', '6月24日，邛崃市委书记刘刚主持召开市委常委会会议，传达成都市上半年经济运行工作专题会议精神，安排部署近期经济工作。会议强调，要加强项目招引促建，推动工业提质增效，加快提振服务消费，促进农业增产增收，奋力实现“双过半”工作目标。当天，', '刘刚还走访巴克斯酒业（成都）有限公司，了解企业生产经营状况，协调解决企业稳产扩产面临的问题。', '6月25-27日，刘刚率队拜访山东省泰安市泰山生力源集团、菏泽市步长制药股份有限公司，与企业就在邛扩大投资进行座谈交流。', '6月25日，邛崃市委副书记、市长王德彰召开低空经济工作专题会，研究产业发展布局，谋划应用场景，明确近远期目标任务和重点工作。', '6月26日，王德彰带队走访天台山制药、金忠食品、融捷锂业等重点企业，现场协调解决产品供需对接、要素配套、原料供应等问题，帮助企业稳定生产。', '6月27日，王德彰召开“高效办成一件事”营商环境优化提升工作专题会和消费新场景打造工作专题会，并现场调研临济镇消费新场景打造。', '6月24日，崇州市委书记陈茂禄调研全市服务业经济运行情况，走进崇州中鑫海实业集团主动服务企业，深入分析服务业经济指标运行存在问题，部署重要指标运行调度、找准发展增量等下一步工作。', '6月25日，陈茂禄调研全市工业经济运行情况并召开专题调度会。陈茂禄走进成都比亚迪电子、喜临门家具、鹰诺实业等企业，了解企业生产经营、产品研发、安全生产相关情况，现场询问企业困难诉求，一线协商解决问题，鼓励企业加大科技创新力度，加快推进“智改数转”。', '6月26日，陈茂禄主持召开全市固定资产投资和企业“四上”工作调度会，要求深化落实“五个一”工作机制，促进崇州“四上”企业数量和质量齐升。', '6月24日，崇州市委副书记、市长饶程专题研究崇州—喀什友好合作工作，助力崇州造家居、建材、绿色食品等产品加速出海，拓展海内外市场。', '6月25日、26日，饶程深入华西绿舍、营门电缆、四川展新等重点工业企业一线，详细了解企业生产经营、科技创新、发展规划等情况，并召开重点工业企业座谈会。', '6月25日，金堂县委书记、淮州新城党工委书记钟静远开展专题研究淮州新城上半年经济运行和武金结对等工作，要求紧盯目标、全力冲刺，千方百计实现“双过半”，加力加劲、无缝衔接，快速推进武金结对联动。', '6月26-28日，钟静远带队赴北京、湖南开展目标客商“大走访”，拜访洽谈新能源、新材料、低空经济等产业链重点目标企业5家，促进在谈重大项目4个，签约落地重点项目1个，持续深化招商引智攻坚、推进产业建圈强链。', '6月26日，金堂县委副书记、县长王安宁率队拜访上海银行成都分行、上海浦发银行成都分行、哈尔滨银行成都分行，推进上述银行与金堂金融合作有关事宜。', '6月27日，王安宁率队前往淮州新城，深入调研走访成都金堂时代新材料科技有限公司、四川金尚环保科技有限公司等重点企业，了解企业经营发展情况，现场协调解决企业发展过程中遇到的困难和问题。', '6月27日，大邑县委副书记、县长余戬前往大邑县蜀之源酒业、龙宇酒业等酒类企业，倾听企业发展情况和企业诉求，指出要进一步做好全县白酒产业发展规划、强化企业发展生产要素保障、加大产业发展扶持力度，加快推动白酒产业发展。', '近日，余戬还率队走访调研冶金实验厂、成高阀门、六汇鑫邦等重点企业，与企业负责人深入交流，听取企业在生产销售、科研投入、未来发展等方面情况，协调解决企业在发展过程中面临的难点问题。他鼓励企业家们要以科技创新为引领，加快发展新质生产力，助推企业做大做强；行业主管部门、功能区管委会要持续优化企业服务机制，建立定期走访联系制度，全力支持企业上台阶、提产能、抢订单、拓市场，推动企业提质发展。', '6月26日，蒲江县委副书记、县长赵钢走访调研四川光速白酒销售有限责任公司、四川泉源堂大药房连锁有限公司、蒲源电器等商贸服务业企业运行情况，倾听企业诉求并现场办公，就企业现场反馈发展、生产过程中面临的问题，当场协调、安排部署，要求企业服务专班“一对一”跟踪问题办理情况,同时鼓励企业要坚定信心，抢抓大规模设备更新和消费品以旧换新政策机遇，不断拓宽销售渠道，持续增强企业核心竞争力，共同为蒲江经济持续健康发展贡献力量。', '6月27日，赵钢在蒲江会见意大利忠利农业集团中国总代表、上海华饮贸易公司董事长刘强一行，双方就前期赵钢率队赴意大利拜访集团总部时达成的合作意向进行进一步深化，对推动忠利农业在蒲江投资，加快项目落地，加大合作相关事宜开展了深入座谈交流。', '6月24日，市发改委党组书记、主任王锋君召开专题会议，落实全市上半年经济运行工作专题会议精神，分析上半年经济形势及存在问题，研究推动实现经济“双过半”工作目标的具体措施。', '6月25日，王锋君在重庆市参加重庆成都双核联动联建会议第三次会议筹备工作会议，推动落实成渝地区双城经济圈建设重庆四川党政联席会议第九次会议精神，研究重庆成都双核联动联建会议第三次会议筹备工作、深化双核联动联建等事项。会前，王锋君一行还实地考察学习了重庆市在打造智能网联汽车、综合门户枢纽建设的相关经验。', '6月27日，王锋君带队赴简阳市调研经济“双过半”工作情况，并实地调研唯品会西南物流中心、四川能投天府云数智产业园，了解掌握企业运营情况，就我市拟申建商贸服务型国家物流枢纽、数据标注产业发展有关事宜与企业进行沟通交流。', '6月28日，王锋君召开专题会议，研究上半年投资工作推进情况及目标任务预期完成情况，并就数据标注产业发展有关事宜进行研究部署。', '6月24-25日，市经信局市新经济委党组书记赵春淦带领工作专班赴双流区、郫都区、成都高新西区、新都区、青白江区，摸底调研工业经济运行情况。赵春淦一行先后深入通威太阳能成都公司五期项目、东方电气（成都）氢能科技有限公司、TCL王牌电器（成都）有限公司等重点企业，详细了解企业产能产线布局、生产经营、产品研发、市场动态、未来发展规划等情况，并现场宣贯“智改数转”“工业互联网”“氢能产业”等相关产业政策，积极帮助企业研究解决具体问题。', '6月24日，赵春淦部署成都工企代表团出访沙特阿拉伯拓市场、促招引工作。27日，在沙特举行的“成都工业企业沙特行市场对接会”上，希迪智驾（成都）科技有限公司、成都无人机产业协会、四川蕃坊清真食品有限公司与沙特相关企业签约共计3.035亿美元，涉及智能新能源车、无人机、食品等领域。', '6月28日，赵春淦出席成都虚拟电厂管理平台全业务流程演练活动。本次演练达到预期效果，成功验证了虚拟电厂管理平台负荷监测、调度指挥、需求响应等全流程业务能力。成都虚拟电厂正式上线投运。', '6月26日，市科技局党组书记、局长丁小斌带领高新区数字经济局、策源资本等单位赴清华大学计算机系、自动化系，与戴琼海院士团队、孙富春教授团队，以及清华孵化的面壁智能、智谱华章、生数科技、聆心智能、荷湖科技、元潼科技6家企业对接交流，推动开展人工智能研究合作，相关项目来蓉落地。', '6月26日，市科技局会同高新区等单位组织开展“数智启新·生成未来”AI大模型技术创新研讨会暨生成式人工智能服务备案政策解读会，为芯华创新中心、民航二所、海光、晓多、明途、海艺等70余家AI大模型、算力、高校院所创新主体进行详细政策解读，搭建行业内对接交流平台，组织开展生成式人工智能关键核心技术、重点行业应用等深度交流，进一步推动我市人工智能产业发展。', '6月27日，丁小斌陪同川渝两地全国人大代表联合调研组，围绕推进“成渝地区高新技术企业高质量发展”，赴成都京东方光电科技有限公司、迈克生物股份有限公司、中国东方电气集团有限公司、创意信息技术股份有限公司调研，了解企业面临的主要困难和问题，解决企业发展实际需求。', '本周，市财政局党组书记、局长高翔组织召开全市财政收支运行工作布置会，传达全市上半年经济运行工作专题会议精神，加强上半年财政收支分析研判，明确自6月24日起，市财政局对区（市）县财政运行开展逐日监控、逐日研判、逐日调度，夯实相关部门和区（市）县主体责任。同时，靠前指导督促市级部门采取有力措施加快预算执行和资金分配，推动政策应出尽出、资金应下尽下。', '6月25日，市财政局召开“蓉采贷”政策推进落实情况座谈会，邀请市委金融办、人行四川省分行营管部、市再担保公司及成都银行、建设银行等18家合作银行，围绕开展“蓉采贷”业务的工作措施、进展成效，存在的困难和问题，优化意见建议等内容进行了全面深入的座谈交流。', '6月26日，高翔召集与四川银行成都分行座谈，会议围绕强化银政合作、加大风险防范应对等内容进行深入交流。', '6月24日，市规划和自然资源局党组书记、局长胡斌率队与成都轨道集团开展重大项目推进工作座谈。会上，双方就轨道交通第四期、成德线、成眉线等重大项目推进工作开展交流，对项目开展存在的规划手续办理、建设用地报批等6个方面15项问题进行逐项研究，即刻确定解决措施，提高项目审批效率，强力推进项目建设。', '6月25日，胡斌召开专题会研究提升城市控规管理效率相关事项，推动实现从“控制性规划”向“治理型规划”的转变。会后，市规划和自然资源局向各区（市）县政府（管委会）发函明确城市基本单元控规优化和动态维护使用清单。控规优化以服务高质量发展、支持产城融合和产业创新、促进建设实施为导向，形成了6大类25项清单，今后符合清单要求的控规调整由区（市）县负责审批，优化提升了项目审批效率。', '6月27日，胡斌召开重大项目用地保障专题调度会，会上逐项目梳理难点堵点，研究解决措施，明确责任主体，倒排工作周期，尽快推进项目用地获批。会议要求重大项目采取“边组件边审查并行办理”模式，实行“用地保姆服务机制”，全力缩短行政审查和资料完善周期。本周，多个重大项目用地审批取得新进展。', '6月25日，市住建局党组书记、局长夏先义带队前往中海、越秀、远达和华润等房地产企业进行实地走访，并于27日陪同市政府分管领导走访五冶集团，详细了解当前建筑业企业项目承揽和经营情况、房地产企业销售和资金情况，听取并吸收企业关于助企发展、降低税负等建议意见，鼓励企业积极努力应对行业下行周期，深练“内功”提升“高精尖”业务承揽能力、多方开展推介促销活动激发住房需求。', '6月25日，夏先义组织召开住建领域重大项目专题会议，对上半年重大住建项目推进情况进行研判，并要求局内部门组成6个督导组，聚焦进度滞后项目、计划新开工项目，于6月26-27日对全市住建领域重点项目进行全覆盖督导，', '保障性住房项目开工仪式于6月28日举行，推动我市保障性住房项目全部在上半年启动建设。', '6月25日，市交通运输局党组书记、局长张涛主持召开会议专题研究“十五五”重大项目包装策划和重点项目建设有关工作，要求抢抓国家启动“十五五”规划编制契机，围绕全国“交通极”定位，强化项目包装策划，落实“一项目一专班”推进机制，坚持“日督查、周通报、月考核”，及时协调解决项目推进面临的问题和困难，推动形成更多投资实物量。', '6月25日，张涛主持召开《五环路规划优化方案》专题会，研究五环路规划优化方案及工作推进情况，要求进一步完善《五环路规划优化方案》，加快推进项目规划建设工作，尽快实现全环贯通。', '6月28日，张涛主持专题会议传达市政府常务会议精神，安排部署机动车停车场管理工作，要求认真贯彻落实《成都市机动车停车场管理条例》，抓紧制定条例实施意见，进一步规范机动车停车场行业管理。', '6月25-30日，市口岸物流办主任曾虎率团赴新疆开展商务考察活动。考察团一行参加了在乌鲁木齐市举办的第八届中国—亚欧博览会，并与中国东方电气集团等单位开展招商对接；受邀出席在霍尔果斯举办的“魅力自贸、开放四川”链动全球之向西开放交流推荐活动，向相关参展企业推介分享成都物流新质生产力发展中的投资机遇；组织“成都物流供应链招商引智走进新疆”专场活动，推动成都市现代物流产业联盟与乌鲁木齐成渝商会签订《共建“一带一路”服务站合作协议》。', '围绕中欧班列集结中心建设、综合保税区发展、商贸物流园区运营，考察团调研了乌鲁木齐国际陆港区以及霍尔果斯、阿拉山口、喀什的口岸、综保区、物流园区等，并与当地政府部门和新疆商贸物流集团等龙头企业进行座谈交流。', '6月24日，市农业农村局党组书记、局长古建桥开展招商引资活动，同上海君匠大农科技公司就陆地海洋牧场项目合作事宜举行座谈，针对用地规模、合作模式、运营方式等进行了沟通交流，下一步将持续推进项目洽谈、加快达成合作意向。', '6月25日，古建桥主持召开2024年上半年全市农业农村经济运行暨项目投资专题会，第一时间传达省市经济运行工作专题会议精神，集中调度了农业农村重大项目招商引资和老旧农业机械大规模设备更新等工作推进情况，要求紧盯“双过半”目标，铆足干劲、加压奋进，全力以赴抓好农业生产、千方百计稳定生猪产能、多措并举推动项目开工，确保各项工作出真绩、见实效。', '6月26日，古建桥参加全市宜居宜业和美乡村提升建设项目评审会，会议组织有关部门和专家对9个区（市）县申报的19个宜居宜业和美乡村提升建设项目进行评审。会议要求，整合资源力量、强化资金保障，集中支持最终入选的10个村（涉农社区）提升宜居品质、做强宜业功能、厚植和美底蕴，以点带面推动全市宜居宜业和美乡村建设整体提升。', '6月28日，市商务局领导班子专题研究支持商贸行业增量提质措施，结合市场主体以及群众诉求建议，优化传统能源汽车更换为新能源汽车奖励政策实施细则。当天，市商务局还会同武侯区研究新“十二月市”六月香市策划工作。', '6月25日，市商务局党组书记张金泉带队走访四川海王星辰健康药房连锁有限公司和国药集团西南医药公司，详细了解企业经营情况、下半年市场预期和企业创新发展计划，听取企业关于拓展医药线上零售渠道、简化批发许可审批和换证流程等诉求建议，并就药品流通体制改革、医药零售数字化和冷链物流绿色化转型等工作进行深入交流。', '6月27日，市商务局局长何丽带队走访攀钢集团国际经济贸易有限公司、中国石油天然气股份有限公司西南化工销售分公司等重点批发企业，详细了解企业经营情况和未来发展预期，听取企业问题诉求和优化营商环境的意见建议，鼓励企业把握成都建设低空经济中心、大规模设备更新和消费品以旧换新等契机，培育布局新增长点，提升核心竞争力。当天，何丽还主持开展成都市商场超市有限空间作业应急救援及消防应急演练活动，实地检验商场超市有限空间作业应急救援和消防演练的针对性、科学性、实用性。', '6月25日，市委宣传部副部长、市文广旅局党组书记、局长邱伟一行走访调研了明宇商旅股份有限公司等商贸旅游链主龙头企业，并召开座谈会，详细了解住宿业发展趋势以及企业运营现状、面临难题等，会议详细介绍了我市促进旅游业发展和文旅设备更新的有关政策措施，鼓励企业进一步加大产品创新力度、扩大品牌影响力、提升酒店服务品质，为成都市文旅经济发展作出更大贡献。', '6月25日，邱伟带队走访了四川省中国国际旅行社有限公司、中国广电四川网络股份有限公司等重点文旅企业,深入了解企业运营中面临的问题，鼓励企业参与承办大型文旅展会活动、拓展票务代理等业务，不断提升旅游产品品质和服务水平。', '6月26日，邱伟带队走访成华区瑞源新蓉文旅中心、天府国际动漫城等重大文旅项目，详细了解项目开工落地和招商入驻情况，并现场进行调度。', '6月27日，邱伟会见去哪儿网、华可集团及七维国际旅行社代表并召开座谈会，详细了解去哪儿网联合国内外各大航空公司及国际旅行社推出“引进来”和“留更久”的系列产品，鼓励企业进一步针对细分市场开发144小时过境免签旅游产品，丰富成都入境旅游产品与服务的供给。', '6月25日，市委国资国企工委书记，市国资委党委书记、主任李长文率队深入金牛区陆家桥片区城中村改造项目东华门遗址（一期）项目进行现场调研督导，详细了解项目建设进展和下一步工作安排等，协调解决相关问题困难。', '近期，市国资国企全力以赴推进重点项目建设，千方百计扩大有效投资。市国资委成立以委主要领导为组长的市属国有企业投资及重点项目工作领导小组，组建10个工作专班，综合运用企业驻点、工作提示、考核督导等措施督促企业统筹调配工作力量，抓项目、促投资。委主要负责同志、各分管负责同志带头赴项目现场察实情、找问题；选派6名专业骨干人员赴市属国有企业蹲点，加快项目实施中问题困难梳理。针对需协调解决的问题，与市政府督查室、市发改委等单位建立常态化联络机制，推动成都环境集团实施的龙泉驿区150万吨/年建筑废弃物资源一体化示范项目和成都市第五再生水厂二期及调蓄池项目顺利完成相关节点工作。截至2024年6月底，市属国有企业重点项目预计完成投资260亿元，完成进度约55%，达成重点项目投资“双过半”目标。', '6月25日，市税务局党委书记、局长李杰生主持召开全市优化出口退税专题会议。会议要求，全市税务系统要进一步树牢为民服务意识，聚焦优化离境退税服务和护航2024成都世园会顺利举办目标，加快推进退税商店扩圈扩围，不断深化“事前、事中、事后”全流程税费优惠政策提醒服务和上门辅导，提升世园会离境退税服务中心运作效能，不折不扣落实好各类税费优惠政策。', '6月26日，李杰生会见重点企业，听取企业经营情况介绍，专题研究行业经济运行规律、税收政策适用等相关工作。', '6月28日，李杰生主持召开专题会议，研究优化纳税信用工作。会议强调，要以预警提醒为核心，创新打造全省首个纳税信用服务品牌——“蓉易信”纳税信用管家，不断提升信用结果增值效应，进一步为企业发展“输血供氧”。截至目前，成都纳税人凭借优质的纳税信用获得银税互动授信共4.76万笔、授信金额达433.58亿元。', '6月25日，市博览局党组书记、局长潘雪松陪同副市长吴皓与成都世纪城会展集团座谈交流，详细了解企业生产经营情况及面临的困难和问题，并围绕调整优化会展业支持政策、招引培育展会项目、吸引知名企业落户、加强会展人才培养等内容展开深入讨论，鼓励和支持企业发挥“链主”优势，引领全市会展企业集群式发展。', '6月26日，潘雪松带队赴西博城调研第5届中国环博会成都展举办情况。展会紧扣新质生产力发展主题，上万件环境污染治理装备和前沿技术集中亮相。', '6月27日、28日，潘雪松带队赴北京拜会商务部欧洲司、中国国际商会、中粮（北京）会展公司，会商第十八届中国—欧盟投资贸易科技合作洽谈会筹备工作、第112届全国糖酒商品交易会展城融合活动筹备工作、“云糖”项目落地相关事宜，利用展会平台深化经贸交流合作、精准对接供采需求、刺激城市消费活力，进一步放大展会综合效应。', '6月24日，成都城投集团党委书记、董事长赵卫东主持召开2024年上半年经营分析暨重大项目调度会，强调要坚决扛牢稳增长政治责任，主动对标对表全年目标任务，积极应对挑战，不断加压奋进、靶向施策、创新作为，全力以赴抓项目、扩投资，确保全年经济指标按期兑现，充分发挥好市属国企促投资、稳增长“压舱石”作用。', '6月27-28日，赵卫东赴深圳与华为公司开展考察交流和项目对接工作。双方围绕智慧城市物联感知体系建设、数字能源、企业数字化转型等方面进行了深入沟通交流。双方将深化战略融合，充分发挥各自优势，持续推动更高层次、更高水平协同合作。', '6月25日，成都城投集团党委书记、董事长赵卫东，成都城投集团党委副书记、副董事长、总经理刘城与金牛区召开陆家桥片区城中村改造项目调度会，研究解决项目推进中存在的问题，加力加速推进项目建设。', '6月24日，成都传媒集团董事长、成都传媒产业集团党委书记、董事长母涛调研四川网络文学产业园建设情况，要求高质量完成园区业态入场装修和整体景观打造收尾工作，确保园区按照既定日期顺利开园，推动我市网络文学产业资源聚集发展。', '6月27日，母涛与国家广播电视总局机关服务局原党委书记、局长, 中国广播电视社会组织联合会常务理事张朴宽一行座谈交流，双方就在成都构建全国性音乐产权交易平台、联手打造“微短剧产业基地”、落地全国微短剧年度盛典等项目进行沟通洽谈，努力以新的合作成果为全市文化产业经济发展添砖加瓦。', '6月28日，母涛召开研究设立成都市文化大数据中心专题会，听取第三方合作公司关于中心设立的论证咨询报告，要求认真领会国家文化数字化战略，对标中央及四川省相关要求，厘清数字文化相应公共服务职能，以更好赋能文化数据资源流通，推动全市文化新消费场景创新。', '6月26日，成都传媒集团副董事长、成都传媒产业集团总经理罗静召开专题会议，研究与成都大学、成都职业技术学院合作筹办成都数字媒体职业学院相关事宜，要求加强前瞻谋划，尽快落实办学路径。', '6月25日，金简仁快速路沱江大桥索塔首吊宣布吊装成功。成都交投集团党委书记、董事长刘毅，集团党委副书记、副董事长、总经理聂斌一行前往金简仁快速路沱江大桥项目施工现场，现场督导吊装施工，要求项目全体参建人员再接再厉，按计划稳步推进项目施工进度，严抓安全、科学施工，努力将项目建成优质精品安全工程。大桥所在的金简仁快速路建成后，将串联淮州新城、简州新城、空港新城，成为通向天府国际机场的又一条交通要道，有效助力成渝地区双城经济圈建设。', '6月25日，刘毅召开城中村改造项目工作推进会，听取关于龙泉驿区十陵片区城中村改造项目各项工作推进情况的汇报，要求项目推进下功夫、下深水，加快推进项目片区城市一体化设计方案编制工作，为打造高标准、高品质的现代化宜居生活片区奠定规划基础，切实推动片区经济持续发展，为城市发展建设添砖加瓦。', '6月24日，成都文旅集团党委书记、董事长张海彤主持召开集团高管例会，传达学习市委、市政府近期重要会议精神，围绕深化改革、扩大开放、项目投资、成渝合作等，谋划部署下步重点工作。会议强调，要加速下属公司深化改革工作，建立健全旅游业务标准化管理体系；要加大出入境旅游营销力度，抢抓多国免签政策契机，助力成都出入境旅游市场复苏；要加快推进宽窄巷子二期等重大项目建设，持续推动固定资产投资，发挥投资对经济的拉动作用；要加强成渝双城合作交流，深化双方在项目建设、旅游营销等方面合作，共建巴蜀文化旅游走廊，服务成渝地区双城经济圈建设。', '6月25日，张海彤主持召开研究City Walk城市营销工作、城市文创产品IP矩阵建设工作专题会。要求加速促进天府文化创造性转化和创新性发展，为城市打造消费新地标，推动城市营销“出圈”。', '6月26日，成都文旅集团党委副书记、副董事长、总经理覃聚微随副市长、武侯区委书记许兴国，赴北京拜访国家体育总局网球运动管理中心，深入沟通中国网球巡回赛筹备落地工作，大力推进中国网球自主IP品牌赛事建设。', '6月24日，成都环境集团党委书记、董事长张雄正主持召开静脉产业园工作专题会，研究讨论园区管理机制、园区基础设施建设、园区项目建设等工作。会议要求，要紧紧围绕成都“无废城市”建设工作目标和重点任务，抓项目、强保障、夯基础，高质量、高标准推进成都市长安静脉产业园中相关项目实施，助推构建绿色低碳循环经济体系，全力增强发展潜力和后劲。', '6月27日，张雄正调研成都市第六再生水厂二期、凤凰河二沟再生水厂工程项目，深入现场督导项目建设进度、安全质量管理、“双过半”目标完成情况，协调解决存在的困难和问题。', '6月25日，成都兴城集团党委书记、董事长李本文调研成都医投华西国际肿瘤治疗中心（重离子质子）项目，与四川大学华西医院开展洽谈，就推进合作共建国际化、高能级、引领性肿瘤全周期诊疗中心进行深度交流，合力助推城市优质医疗资源扩容和区域均衡布局。', '6月28日，李本文召开“6·30”成都蓉城足球俱乐部主场赛事工作专题会，围绕赛事筹备、赛事服务保障等内容进行讨论部署，强调以高水平足球赛事运营助推体育经济发展。', '6月24、25日，成都兴城集团党委副书记、副董事长、总经理陈大用调研兴城人居地产沁川林语等项目，研究项目销售策略，督导项目销售去化工作。', '6月26-28日，陈大用调研集团下属上市公司天津红日药业股份有限公司、中化岩土集团股份有限公司，考察两家上市公司业务发展情况，督促上市公司提升管理质效，挖掘经营潜力，发挥技术优势，助推成都市绿色建筑产业、医疗健康产业发展。', '6月24日，市公交集团党委书记、董事长沈卫平与成都交投集团座谈交流，双方商定共同加快推动24宗公交场站项目开发建设，力争年内启动建设公交停车位1000余个。', '6月25日，沈卫平主持召开公交场站提能工作会，专题研究推进场站运维功能优化、服务保障提质增效、智慧场站系统建设、大规模设备更新等重点工作，进一步筑牢新一轮线网优化场站支撑，助推城市“内畅”效率提升。', '6月28日，市公交集团总经理全钢赴隆星公司召开现场会，调度推进报废车辆回收再利用、动力电池梯次利用、汽车后市场等公交车电产业支撑项目。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>227</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>中国共产党成都早期组织的建立</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.chengdu.gov.cn/cdsrmzf/c148026/2023-12/22/content_55b4fed3add149a49aa873b4a3a9c7c4.shtml</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['“关于团的工作应深入到工人中去教育、发动工人，建立工人的革命组织”的指示，在推进学生运动的同时，将工作的重点转移到工人运动方面，努力地使学生运动与工人运动结合起来，共同汇集成浩浩荡荡的革命洪流。', '1877年，四川机器局在成都开设后，成都才算有了近代工业。到1913年时，成都七人以上的工商业总计85个，生产设备有蒸汽机三台，发电机两台，各种手工操作的机器，如印刷机、纺织机、缝纫机等470余台。工人总数约4800人，其中在机械、化工、发电、制革、火柴、印刷等行业的产业工人为数不多，占大多数的是手工业工人。', '在半殖民地半封建社会性质下，中国无产阶级身受帝国主义、封建主义的重重压迫。在成都地区，工人遭受的压迫剥削尤甚，工人的人身权利没有任何保障。有的老板任意打骂工人，甚至肆意杀害工人。此外，成都的工人阶级还要遭受由老板和工贼控制的封建行会向工人勒索盘剥的', '1904年，四川机器局兵工厂工人600余人为反对工头克扣工资，举行罢工。1915年，长机工人反对厂主残酷剥削而举行怠工斗争。1919年4月，成都外东惠昌火柴厂女工数百人，要求增加工资，厂方不允，还打伤女工代表。全体女工愤而罢工。同年4月，成都南门外模范丝厂的女工，也举行了长达半个月的全体罢工。1922年，四川机器局兵工厂工人因数月未领到工资，无法生活，在厂门口围着厂长，要求发放拖欠的薪水。厂长竟命令随从开枪，打死一名工人代表，引起工人愤怒，全厂罢工。此外，其他行业的工人因要求改善工作条件和增加工资，也发生过一些零星的怠工和罢工，但都因为缺乏组织领导和力量分散，被资方强行压服。尽管如此，这些早期的斗争，在封建军阀残酷的统治下仍非易事。反抗和斗争训练了工人队伍，使工人阶级逐步认识到，只有团结起来才有力量，它为以后工人运动的开展奠定了初步基础。', '北京爆发的五四运动的消息传到成都后，成都人民立即组织外交后援会，全力支持北京学生，成都工人在这次爱国运动中作为一支政治力量也展现了自己的力量。5月25日，全市人民在少城公园集会声援北京五四运动，数千工人参加了集会。从5月底到6月初，成都工人发表了三次敬告同胞书，声援北京五四运动。6月8日，成都工人参加了成都各界数万人举行的反帝爱国群众大会。6月12日，成都高等师范学校校工袁志成、张兴发等发起组织“工役外交后援资助会”。这些活动显示了工人的爱国热情。', '北京爆发的五四运动的消息传到成都后，成都人民立即组织外交后援会，全力支持北京学生，成都工人在这次爱国运动中作为一支政治力量也展现了自己的力量。', '5月25日，全市人民在少城公园集会声援北京五四运动，数千工人参加了集会。从5月底到6月初，成都工人发表了三次敬告同胞书，声援北京五四运动。6月8日，成都工人参加了成都各界数万人举行的反帝爱国群众大会。6月12日，成都高等师范学校校工袁志成、张兴发等发起组织“工役外交后援资助会”。这些活动显示了工人的爱国热情。', '五四运动后，成都印刷业工人和学校校工，首先接受新文化新思想的洗礼，政治觉悟得到不断提高。', '1920年2月15日，成都印刷业工人组织召开了成都印刷界劳工互助团成立大会，到会代表一百余人。成都印刷界工人互助团，在会上提出的口号表明，印刷工人具有了比较鲜明的观点和宗旨，反映出成都工人阶级已初步接受并实行新的革命主张，虽然这仅仅是一个开始，但对以后的成都工人运动产生了很大影响。', '1920年5月，袁志成、雷碧波、牟涌泉等组织成立了成都劳动自治会，提出了“劳动界同人起而解决自身一切问题，进而促成民治精神”的口号。6月，劳动自治会集会讨论形势，商讨如何开展工作，唤起工人觉悟等问题。自治会总干事袁志成提出了“公共投资”、“公共实业”、“公共储蓄”、“设立劳工招雇处”、“设立夜课学校”、“设立医药所”等切合当时工人利益和工人觉悟的六条要求。此后，成都劳动自治会常在陕西街、皇城内、外南三圣宫和国学巷等地组织会员开展失业救济、筹办《劳动周刊》、发展会员等工作。', '1922年春，马克思读书会在吸收工人参加的同时还指派钟善辅、刘亚雄、孟本斋等负责工人运动工作。1922年，中国社会主义青年团成都地方组织建立后，工人运动在团组织的领导下得到迅速发展。王右木等团的领导人到工人集中的地方宣传马列主义，在成都高等师范学校、省立师范学校和四川法政学校内办起了三所工人夜校，还在茶社办起临时工人夜校，为工人传授文化知识，讲解革命道理。马列主义在工人中的广泛传播，使成都工人运动由开始幼稚的、自发性的经济斗争，逐渐转向较成熟的、有组织的政治斗争。', '1922年9月，军阀刘成勋、邓锡侯等以早已发起成立的四川自治会名义，通电省制宪筹备会进行制定四川省宪法的工作。省制宪筹备会决定自12月8日起开始起草省宪法，同时召开军事、民事善后会。通电引起了全川人民的关注。11月22日，成都劳动自治会致函省制宪筹备会，要求参与劳动立法和制定工会立法。1923年1月21日，劳动自治会召开大会商议参与立法问题，一致通过向省宪法起草委员会和省宪法审查委员会请愿，提出将有关劳工利益的五条要求列入省宪法，并要求省宪法在未公布之前，须由劳动团体选举工人参与省宪法审查会议，否则无效。省宪法筹备会后来采纳了劳动自治会的意见，正式要求劳动自治会选派工人任省宪法审查员，参加省宪法的审查工作。此举显示了成都工人阶级的政治觉悟和气魄。', '1922年10月，北京、上海、广州、长沙、济南、武汉、南京等地的学生、教师、工人发起民权运动，争取民主自由权利。成都工人受此影响，也掀起了本地的民权运动。1923年2月12日，成都劳动自治会发表了争取民权运动宣言，提出了保护劳工法案，并要求列入省宪法的条文。劳工法共有十五条，提出了诸如工人有受教育的权利；男女实行同工同酬，雇主不得歧视女工，不得雇佣童工；劳动者老有所养，病有所助；妇女孕育期间工作、工资应得到保障；限制劳动时间；保障劳动收入；政府设立失业救济；实行普遍选举，保障工人政治权利等。民权运动宣言，从国际国内，一直谈到成都工人奋斗方向和目的，并部分地提出了成都工人争取解放斗争的具体要求；保护劳工法案是四川最早的劳动保护法案，既有政治主张，又有经济权利要求。它们提出的条件对成都工人运动的开展具有现实指导意义，成为成都及全川工人的斗争纲领，推动了全川工人运动的发展。王右木在给团中央的报告中曾说：在民权运动中发表的宣言，达到了打击敌人，教育群众的目的。', '1922年冬起，王右木为落实团中央关于深入开展工人运动的指示，并根据他在组织、指导群众革命运动中的感受，认为非常有必要进一步加大团组织开展工人运动的力度，进一步把马克思主义传播到工人中去，以提高工人阶级的革命自觉性，而革命运动不与工人阶级相结合也是很难发展壮大的。考虑到成都的工人大多数来自破产农民，缺乏文化知识；而成都的产业工人又很少，他们所在的兵工厂、造币厂、机械厂、丝厂等又被军警严密控制，不易开展工作，而一般手工业工人比较零星分散等情况，王右木首先选择了历史较长、人数众多、苦大仇深、曾开展过斗争的织锦业 (即长机帮)工人进行工作。王右木揭下博士帽，脱去西装，换上工人装，深入到工人集中的茶馆与他们促膝谈心，还与一些工人结为兄弟，又在明远学校开办了工人夜校。', '1923年2月7日，京汉铁路工人罢工遭到武力镇压。二七惨案发生后，中国社会主义青年团为二七大屠杀发表宣言。消息传来，王右木以成都社会主义青年团员和读书会员为骨干，落实团中央的指示，发动成都工人举行了声援京汉铁路工人的全市性政治大罢工。在少城公园召开的大会上，团员、工人运动骨干钟善辅痛斥了英帝国主义勾结军阀吴佩孚镇压与屠杀铁路工人的罪行，介绍了京汉铁路工人阶级团结战斗的情况，以及共产党员、工人领袖林祥谦和施洋英勇壮烈牺牲的动人事迹，使在场群众悲愤落泪。会后，进行了声势浩大的示威游行，还组织以团员为核心的宣传队走上街头，声讨军阀镇压工人运动的罪行。这些都充分展示了成都工人阶级的觉醒和力量。', '1923年4月，王右木介绍工人孟本斋、徐云程加入了社会主义青年团，并指派孟本斋、徐云程为工人教育会组长。准备将在成都工人中有影响的三个组织——工党委员会、劳动自治会、工人教育委员会，合并组建为“劳工五一运动首脑部”。但因当时的工党委员会中的封建行会势力太大，发起“劳工五一运动首脑部”的事未能得到通过，于是王右木决定以工人教育委员会为主，成立成都劳工联合会。5月1日，在成都团地方执行委员会组织下，以长机帮、生绉帮、牛骨帮和刺绣工人为骨干，召开了成都劳工联合会的成立大会，工人们喜气洋洋，以成立自己的劳工联合会来庆祝“五一”国际劳动节。遍街张贴了由王右木和团员蒋雪村、彭仕弥分别写的《唉!劳工不得不做“五一”运动啊!》和《诅咒劳工做“五一”运动的人请看这好罢》两种醒目的印刷品，给死气沉沉的蓉城增添了新活力。各行业工人组织选派代表出席会议，劳动自治会也派代表赴会祝贺。会上散发了由恽代英和蒋雪村为工人写的《人日宣言》和《劳动五一纪念游行大会宣言》的传单。会议通过了关于维护工人正当利益的四项提案。成都劳工联合会是团组织直接领导下的四川第一个工会性质的组织，《川报》称劳工联合会是“成都破天荒之工人盛举”，是为工人谋利益的“真正工人的工会。” 《川报》1923年5月8日。成都劳工联合会的成立，成为成都工人运动的新起点。', ',成都团地委为培训工人运动骨干，遂在成都高师设立工人学校，由谢国儒任主任，王右木、张良卿担任教员，帮助工人提高革命觉悟和文化水平。钟善辅也在监狱学校、康明惠在外东农校开设了平民教育学校。', '6月15日，在成都团地委的领导下，成都农工商学联合会筹备处成立。大会推举学生联合会理事、高师学生、马克思读书会员段平泰为临时主席，会议决定由各团体选出八人筹备会务，起草章程，规定“凡是农工商学各团体均得入会”。 7月1日，按成都团地委的意见，四川民权运动大同盟（1922年秋成立）在成都东大街公所召开改组会议，到会数十人，陈毅（仲宏）也以“四川留法勤工俭学同学会四川代表”的名义参加了这次会议，并担任会议文书，会上，傅双无报告会议筹备经过与这次会议的目的要求。会议选举王右木、裴子琚任文书股主任，康明惠、钟善辅为庶务股主任，钟协安、孟本斋为交际股主任，刘亚雄、罗荣周为宣传股主任，选出钟协安、刘亚雄为联系会议的正副主席，并决定通电各地。10月，重庆民权运动大同盟发表宣言，表示要和成都的四川民权运动大同盟“携手进行”工作。', '成都工人阶级从早期的自发斗争，到在五四运动的革命洪流中接受了马列主义理论后，他们中的积极分子成为社会主义青年团员，并在革命运动不断深入发展的条件下，建立起属于自己的工会，标志着成都的工人阶级开始以新的姿态走上政治舞台。这为中国共产党组织在成都建立奠定了重要的政治基础。', '王右木在得知中国共产党在上海诞生的消息后，就萌生了在四川建立地方党组织的想法，并开始为此进行了一些准备工作。他有意识地在成都扩大马克思主义的宣传，开展工人运动，不断加强成都社会主义青年团的工作，以及工人入团，努力地为党在成都的建立奠定一定的政治思想基础和组织基础。', '1922年6月30日，时任中共中央执行委员会书记的陈独秀给共产国际的报告说：现在党员人数计上海有50人……四川党员三人。这三人都在成都。王右木在1923年10月10日给团中央负责人的信中曾这样明确地写道：成都旧有加入成都共产党分子，有茶务讲习所曾慕沂（威远县人）、刘敬思（武胜县人）、任洪济（南川县人），但他们都到江浙考察制茶业去了，实质上这三个党员在成都的活动没有什么记载。', '1923年春已发展到30余人，建党的条件已经具备。王右木在1923年5月成都团地委举行纪念马克思诞辰会后，写信给党中央表达了在成都建党的愿望。信中说，“不知此地有‘共学社’（即共产党组织）否，木愿加入；如果没有，能不能组织。” 6月，中国共产党在广州召开了第三次全国代表大会，会议确定了国共合作的总方针。8月，王右木决定动身前往上海，又将四川的工作和建党事宜当面向党中央汇报请示。不久，王右木从上海到了广州，向党中央汇报了四川革命的发展情况，再次郑重地请示在四川成都建立党组织的计划。以后，党中央正式批准了王右木在四川成都建立党组织的请求。', '9月下旬，王右木回到成都，立即召开了全体团员会议，传达了国共合作的方针，要求大家坚决按党的决定去做。但一般同志对国民党在四川的表现很不满意，尤其是在教育经费独立运动中受过国民党摧残的人们，对国民党更为愤慨，几乎一致反对国共合作。王右木认为，这是党中央的决策，应当遵守党的纪律。他又向大家反复讲解中国无产阶级革命策略问题，阐述国共合作的伟大意义，要求大家要以大局为重，坚决贯彻中央决议。会后，他又找一些团的骨干做工作，使大家对国共合作的策略逐步有了认识。王右木还以身作则，带头以个人的身份加入国民党，被聘请担任国民党总支部的宣传科副科长。四川国共合作的情况，王右木及时地向中共中央作了汇报，所以陈独秀在1923年11月24日至25日召开的中共中央第三届一次中央执行委员会议作的《中央局报告》中展望国共关系时说：“四川国民党本有组织，对于我们的同志加入工作者颇信任。”', '王右木在贯彻落实中共中央国共合作指示的同时，还开始秘密筹建中国共产党在成都的组织。', '1923年10月，王右木在团员中选拔了一批斗争中涌现出来的团员优秀分子刘亚雄、钟善辅、黄钦、梁国龄等先后转为共产党员，组成中国共产党在四川的最早组织——成都独立小组，直属中央领导，王右木暂任书记，独立小组下分学生组和工人组。工人组开会的主要内容是由王右木作通俗的政治报告，讲一些社会科学中的问题，结合讨论工会的活动方向等问题。', '1923年11月，当俄国十月革命胜利纪念日来临之际，王右木决定以团的名义召开纪念会，筹备事宜中的重要问题，王右木召集团的负责人康明惠、黄钦到家中通宵研究，决定在7日借明远学校地点开会，并安排党、团员通知团体和登报宣传开会时间。是日各界到会的有四川民权运动大同盟、女权运动同盟、劳工联合会等组织的诸多人员，其中学生、工人占多数。王右木、刘小卿、钟善辅、康明惠、秦政树在会上作了讲演。', '1923年冬，中共中央正式决定由王右木任成都党组织的书记，同时要求他辞去团内的职务。王右木得到中央的通知后，想到成都各地正在发展和扩大团组织的工作，又考虑到学校学生的寒假即将来临，团组织的改选可能会影响组织的发展与稳定。因此，决定推迟到次年春天开学后再进行改选，他继续专心致志地领导着党、团组织的工作。', '这年冬天，四川军阀杨森占领成都后，被北洋政府封为四川督理，独揽军政大权。为了收买人心，杨森提出了所谓', '“建设新四川”的口号，并委督署秘书秦正树（又名秦伯卿）全权筹办报纸为他的“新政”呐喊。秦正树原是留日学生，和王右木有深厚的交往；回国返川后，又加入了成都的社会主义青年团。在接受杨森的办报任务后，他即找王右木汇报。王右木很快召开党员和社会主义青年团骨干会议，商量如何利用该报进行革命宣传。有的同志担心，该报是杨森叫办的，恐怕难以利用来为革命服务的目的，搞不好，反而会招来更多的麻烦。王右木认为，利用反动派搞的东西来为革命事业服务是有先例的，因为我们的力量太单薄了，没有力量自办报纸，即使办起来也难以维持下去。如谋发展本团和把革命理想传播到群众中去，一部分党、团员和积极分子可以也需要参与其中。经过讨论研究，大家的意见统一了，决定将办报的事承担下来，至于报纸的名称，就以当年是甲子年而取名《甲子日刊》。社址选在成都三倒拐原川汉铁路公司旧址。由秦正树任社长，王右木任总编辑，刘亚雄任助理编辑，党、团员廖划平、邹进贤、刘孝祜、吴汝伯、窦勤伯、黄君尧（黄钦）、李盛虞等参加；邹进贤、赵维屏任东南门外普通访员（即通讯员）。这样“似乎报纸成了我们党办的一样”。因此，成都党、团组织的主要力量都投入到办报中去了。同时，利用杨森所谓“建设新四川”的口号，把报纸的宣传方针定为：宣传反对防区制、反对军阀混战；主张还政于民。有时也在报纸上宣传马克思主义的思想，颂扬苏联革命的成功，介绍社会主义制度等新事物。这样办报当然不合军阀心意，很快就被杨森迫令停刊。', '杨森占领成都后，还制定了延揽人才计划。杨森深知王右木在成都学生工人中有很高的威望，派人到王右木家中，想利用高官厚禄来收买王右木，王右木心里明白，若马上拒绝，必遭暗算，假意应酬，送走来人。过后，王右木立即通知党、团员骨干开会，在党、团员会上轻蔑地说：杨森想用高官厚禄来收买我，简直是痴心妄想。我和他的主义是水火不容的，我怎能去做他的官。王右木向党、团员们说：决定暂别成都去上海。在走之前落实中央要其辞去团的职务的指示，将团组织改选，同时对团的工作作一个交待。', '成都团地委的改选工作落实后，王右木即离开成都去了上海，不久又到革命运动的领导中心广州，在广州参加了党的重要会议，几个月后，王右木启程返川。为了节约路费，他决定来一次沿途实地考察，往广东、广西、贵州步行回成都。', '1924年中秋节前夕，王右木在贵州赤水县土城给家中和同志们写信，说他不久就要回到成都。可是，从那以后，王右木就没有了音讯，后来有消息说王右木在路过贵州土城宣传革命时，被当地反动派秘密杀害，为革命献出了他宝贵的生命。', '王右木创建了成都的党、团组织，他始终是建党初期成都革命活动的倡导者和领导者，为成都革命运动发展作出了不可磨灭的贡献。', '20世纪20年代的中国，一批马克思主义者在探索如何建立无产阶级政党的问题。由于当时的信息、交通的限制，以及分散各地的人们思想认识的不尽一致，在建立党组织的形式、名称、人员上都不太统一，所以在四川地方党、团组织创建的前后，在成都的吴玉章、杨公又创建了以马克思主义为指导的中国青年共产党，该组织曾在全国，特别是在四川、在成都起过非常重要的作用。', '就在王右木秘密建成中国共产党成都地方组织之后不久，时任成都高等师范学校校长的吴玉章和杨公等筹建起了中国青年共产党。吴玉章，四川荣县人，早年留学日本，是孙中山建立同盟会时的重要骨干，辛亥革命时期，在四川甚至全国都是首举武装反清义旗并取得胜利的领导人，辛亥革命失败后，接受了马克思主义理论。五四运动后，中国的革命运动更加风起云涌，他进一步迫切地感到，为了推进新的中国革命的健康发展和取得最终胜利，必须建立一个政党来领导革命运动。他曾资助四川内江青年廖划平等去俄国考察，学习十月革命经验，为建立青年共产党组织做准备。在开始酝酿、筹备时，吴玉章并不知道中国无产阶级的政党', '1922年春，吴玉章在北京会见刚从苏联归国的王维舟，已有会合同志、组织新政党的酝酿，开始联络青年，成立“赤心社”。1922年8月，吴玉章到成都，任成都高等师范学校校长，支持校内社会主义青年团、马克思主义读书会活动，聘请共产党人恽代英来高师任教，自己也在学生中宣传社会主义。这时，信奉社会主义的杨公、刘伯承、廖划平和高师学生童庸生等与吴玉章成了志同道合的革命战友，他们不仅在校内进行革命活动，还派人到工农群众中开展工作。在这个过程中，建立无产阶级政党的组织也逐渐萌发并强烈起来。这期间，吴玉章、王维舟在北京成立的赤心社活动也没有完全终止。在北京读书的川籍学生刘仲容、萧华清、李嘉仲、吕寒潭、孙壶东等，也经常在同盟会会员刘云门家中聚会，研究革命理论，继续酝酿建立革命政党，甚至还准备派人到苏联与共产国际联系。当知道陈独秀、李大钊已经与共产国际联系上，建立了中国社会主义青年团与中国共产党后，他们的考虑是：“陈独秀干他们的，我们干我们的。他们接好了头，我们就做他们的别动队吧！”他们曾把这个意见告诉了在四川的吴玉章，吴玉章这时没有提出异议。', '1924年1月12日，中国青年共产党（简称YC团）成立。这天，在成都娘娘庙街24号杨公寓所里，悬挂着马克思、恩格斯、列宁的画像，20多人参加了会议。经过将近三小时的讨论，通过了中国青年共产党章程和几个决议案，选举吴玉章、杨公、刘仲容、张保初、廖划平、傅双无六人为负责人。《章程》共二十六条，是对照中国社会主义青年团1923年8月第二次全国代表大会通过的第一次修正章程起草的，主要内容基本一致。如入团须团员两人以上介绍，经所在地之执委会批准，服从章程决议，听从指挥并缴纳团费，领取团员证书。组织分三级，有团员10人以上成立支部，50人以上设立干部，中央设执行委员会为全团最高机关。还规定中央执委为六人，干部执委六人，支部执委三人，任期均为一年。各级执委设总务、宣传和劳动三股。每半月至少开会一次，每月须将“办事经过情况”通报下属执委及直辖团员，同时向上级执委报告。组织原则是民主集中制，少数服从多数，下级服从上级。对各级执委决议，有五分之一的人不同意者，可提出抗议和要求上级执委会判决，但在未解决前，仍得服从决议。凡不履行团纲、团章和议决案者，可取消其团员资格等。不同的是社会主义青年团团章规定有16岁以上至28岁以下的年龄限制，YC团章程则没有年龄限制的规定，吸收成员可以不限于青年，但实际上除吴玉章外，其他都是青年学生。吴玉章、杨公还设想把YC团建成一个全国性的组织。其《章程》第六条不仅对支部、干部没有省区限制，而且明确指出中央部“现设于成都，于必要时得移往上海或北京等处”。1924年下半年，北京YC团成立，以吴玉章为领导，但在组织上并不直接隶属于成都的YC团中央部。北京YC团曾决定在成都、重庆、广州、上海、长春等地发展成员，后因形势变化未着手进行。', 'YC 团是一个独立的中共早期组织。虽名冠“青年”，却不是附属于某个政党的青年团体。但为什么不公开称“党”而称“团”呢？据北京YC团成员刘弄潮说，主要是为了减少目标，避免引起军阀当局的注意。', 'YC团建立后，吴玉章和杨公即着手在成都筹办机关刊物《赤心评论》，由于YC 团是秘密组织，故以“赤心评论社”的名义向政府申请立案。4月22日，四川省会军事警察厅批准发给执照，5月1日《赤心评论》正式创刊。YC团视《赤心评论》为红色天使。他们宣布《赤心评论》宗旨“是在助革命派的同志，与反革命党作战，以求全世界的赤心集合拢来，造成一个赤心的世界”。祝愿“赤心复萌！赤化的流行！赤世的造成！”，自称是“无数被压迫阶级的喉舌，许多男女同志的化身，列宁先生的功夫，使赤化之光普照人们未来之世界！”，吴玉章、杨公十分重视《赤心评论》。吴玉章在创刊时捐赠50元大洋作为印刷费，并撰写重要文章《人类生活当如何解决》，连续登载于创刊号及第二期。杨公把《赤心评论》称为YC的化身，后来他离开成都，仍以书信指导其工作，为其撰写文章。', '8页16开铅印刊物，原拟定每周出一期。后来因“本刊各种反动势力之压迫，暂改为月出一次”。从创刊号到1926年10月共出16期。在国内外公开发行，北京、上海、天津、广州、武汉等大城市和巴黎中国书社、东京丸善书局都设有分售处，故广泛产生了影响。中国早期马克思主义理论家肖楚女曾在《中国青年》第36期介绍《赤心评论》说：“这是一种急进的青年刊物。第一期为追悼列宁号，介绍列宁很见热情。”恽代英主办的《新建设》也称其为“大胆来解决政治经济根本问题的《赤心评论》”。', '在创办《赤心评论》的同时，为了罗致人才，扩大开展马克思主义宣传教育活动，吴玉章、杨公还建立了', '“成都社会主义研究会”亦称“马克思主义研究会”。参加发起的还有刘愿庵、杨衡石等20余人。成立那天，到会者有70余人。杨公任总务干事。吴玉章在成立会上发表了《马克思派社会主义的势力》的演说，热情地赞颂了“轰动世界的社会主义运动，特别是马克思派的社会主义，因为经过苏联的试验，人人已知道有实现的可能性”。讲演还科学地论述了世界法西斯主义产生，帝国主义对中国的侵略和中国实行社会主义革命的必要性，号召“第四阶级奋起，与苏维埃俄国联盟，大联合于波尔希维主义（即布尔什维克）旗帜之下，实行暴力革命。”吴玉章满怀信心地预言：“20世纪光明的世界为期不远了。”“最后的胜利必归于劳动阶级。”这个讲演前后在不同场合共进行了七次，并连续刊载在“社会主义研究会”主办的《追悼列宁纪念号》上，随后成都的《国民公报》也作了连载。', 'YC团的领导人吴玉章、杨公等十分注重工人运动，他们指导赤心社社员、社会主义研究会会员深入工人群众，做了大量的宣传和组织工作。编辑出《工友需知》的小册子，用通俗易懂的语言，向工人讲清了劳动者的地位，工人所受的苦难，如何组织起来，如何开展罢工斗争等，并支持和组织成都各行业工人建立起属于自己的工会——成都职工总会。', '1924年5月1日，成都的中国青年共产党和成都团地委在少城公园联合召开了追悼列宁的群众大会。会议遭受军阀的强烈压制。会后，吴玉章、杨公被迫离开成都。他们走后，YC团的实际负责人是傅双无，他不再用YC团的名义而直接用“赤心社”的名义活动。6月，杨公到上海试图与中国共产党中央联系，争取承认YC 团。他曾和恽代英会晤，但YC团未能得到团中央和党中央的承认。8月，杨公返回四川重庆后，参加了中国社会主义青年团，与团重庆地委负责人童庸生等致力于争取YC团与党、团合作统一之事。而吴玉章离开成都后回到荣县老家，不久即去了北京，1925年3月，吴玉章在北京会见国民会议促成会全国代表大会的四川代表、YC 团重要成员童庸生。这时童庸生已是共产党员，吴玉章要求他引见中共领导人，表示愿意加入中国共产党。随后吴玉章又会见了赵世炎。吴玉章的要求，经过组织考察，很快便由童庸生、赵世炎介绍其加入了中国共产党。吴玉章入党后，感到YC团已无必要继续存在了，决定加以解散，然后按照中国共产党章程要求，个别争取加入中国共产党。他把这个意见写信告诉杨公等人，并召集北京YC团成员加以讨论。北京YC团成立后，在北京中共地方组织及李大钊的指导下，做过许多有益的工作，说到解散，大家一时还接受不了。经过吴玉章的耐心开导，多数人拥护吴玉章的主张，不少成员先后加入了共产党。1926年“三一八”惨案后，北京YC团自行解体。', 'YC团的解散有一个与傅双无斗争的过程。1925年冬，成都团地委负责人刘愿庵和傅双无、郭祖', 'YC 团和赤心评论社的人个别申请加入共产党，预备期可以缩短，但傅双无还是要求集体转党。1926年2月，中共重庆地方执行委员会成立，作为地委主要领导人的杨公继续做傅双无的工作。在11月召开的国民党（左派）四川省第一次代表大会上，成都代表为刘愿庵、傅双无。杨公再次委派刘愿庵、任白戈对傅双无进行说服，坚持按中国共产党章程的入党手续个别入党，傅双无仍不同意。杨公后来亲自找傅商谈也未能奏效，结果只达成了在革命斗争中合作，共同组成国民党成都市党部的协议。1927年初，吴玉章又派出肖华清、孙壶东专程到成都做说服工作，但傅双无等仍坚持解散YC团、赤心社的三个条件：(一)全部加入共产党；(二)成都党务由他们接办；(三)调走成都党的负责人刘愿庵。这三条理所当然地遭到党组织的拒绝。傅双无之所以顽固坚持小团体分裂立场，是有其深刻的思想原因的，他早已从初步的科学社会主义思想转向国民党右派的戴季陶主义了。同年重庆“三三一”惨案后，党曾派张克勤到成都解散赤心社，得到多数社员的赞同。不久蒋介石发动四一二政变，黄季陆奉蒋介石命回成都清党，傅双无投靠黄季陆，企图出卖赤心社。郭祖', '等挺身反对，与吕寒潭、刘辅之等研究，决定解散赤心社，孙宏图等人到傅双无住处强迫他交出赤心社的一切印信文件，由郭祖', 'YC团，从筹备诞生到解散虽然只有五年左右的时间，但是，它在四川、北京等地，特别是成都地区产生了巨大的影响。它广泛地宣传了马克思主义，聚集了一批革命的中坚分子，开展了群众革命运动。由于它和中共党、团组织都是以马克思主义为旗帜，信仰和目标是一致的。因此，它同成都、重庆的共产党和社会主义青年团组织之间，成员有所交叉，行动上密切配合；随后它的主要领导者吴玉章、杨公和重要成员刘伯承都先后参加了共产党，并构成大革命时期四川党的领导核心。中国青年共产党在四川地方党史上占有重要地位，是极具四川地方特色的历史篇章。', '由于成都地处内陆，远离全国经济、政治中心，交通不便等区位特点，使成都社会经济的发展步伐比较缓慢，资本主义经济及新兴阶级', '——民族资产阶级和工人阶级的发展相对薄弱，但新思想（无政府主义）的传播，尤其是马克思主义的传播还比较早。中国共产党成都地方组织无论是中共成都独立小组，还是成都中国青年共产党的正式建立都不得不经历的一个曲折的过程。中国共产党成都地方组织的诞生，中国共产党成都地方组织的建立，是成都社会开天辟地的大事件。从此，成都人民就在中国共产党的领导下，投入到中国人民反帝反封建的革命洪流，成都人民的革命斗争面貌为之一新。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>227</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>成都市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>成都一周丨全力冲刺双过半成都区市县部门党政一把手这周在忙啥</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2024-06-22</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://mp.weixin.qq.com/s?__biz=MzA4MTg1NzYyNQ==&amp;mid=2652897088&amp;idx=1&amp;sn=50420a73c4903bbf6db9e18af0db145c&amp;chksm=8537cc62e390f3cedba0337cb70458461675b51dee063d82b556b595efb43eeb8bffc2b6b7d2&amp;scene=0&amp;xtrack=1#rd</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['本周，成都开启全国首例城市直升机试飞机场到中心城区短途运输场景，在低空经济场景应用迈出“一大步”；推动人工智能产业高质量发展出台行动计划和配套措施，锚定年内再造一个千亿产业的目标。两大战略性新兴产业向“新”而行，涌动市场热力。', '与此同时，围绕“双过半”目标，各市级部门、区（市）县、市属国企以最实举措推动经济运行回升向好，包括', '本周起，成都发布《成都一周》栏目全新改版。我们将集中报道区（市）县党政“一把手”、市级部门“一把手”的一周经济工作动态，看一看过去这一周他们在忙些什么，哪些重点工作又有新进展。', '6月17日，市委常委、成都高新区党工委书记曹俊杰带队前往高新西区调研重大产业项目推进情况，深入京东方光电科技有限公司、京东方第8.6代AMOLED生产线项目等点位走访调研，通过问需问计、破难解题，全力促进项目提速，持续激发高质量发展新活力。', '6月21日，曹俊杰主持召开成都高新区党工委会议，传达学习近期中央、省、市重要会议和重要指示精神，研究成都高新区贯彻落实措施。会议强调，要深入贯彻落实全市上半年经济运行工作专题会议精神，要瞄准目标坚定信心，成都高新区要在全市范围内“挑好大梁”，锚定“双过半”目标不松劲，确保完成上半年经济发展任务。要聚焦重点精准施策，狠抓企业服务，进一步提升服务质效；狠抓政策提效，现有政策快兑现，新发布政策快生效，未来政策快跟进；狠抓经济调度，抓好项目谋划储备、审批推进、开工建设，积极形成发展增量。要迅速行动抓落实，全方位做好企业生产要素保障，冲上火线抓落实，积极帮助企业协调问题、解决困难。要坚守发展红线，坚持依法统计，守住统计底线红线，统筹发展和安全，严守环境保护和耕地保护红线。17日，管委会主任赵文峤召开工业座谈会。', '6月21日，武侯区召开经济“双过半”工作专题会，传达市委市政府会议精神，安排部署重点项目建设、企业走访服务、市场活力提振等工作，全力推动“双过半”各项目标任务落实落地。', '6月19日，副市长、武侯区委书记许兴国，武侯区委副书记、区长景波出席“2024玉林路民谣音乐季”发布会，启动“乐动蓉城”成都音乐坊仲夏音乐节暨“音乐365”活动，要求以文旅活动培育消费新场景，推动节会流量转化为消费增量。', '6月19日，许兴国调研双凤片区规划建设工作，围绕策划规划、土地供给等工作现场办公，要求强化片区综合开发理念，全力攻坚克难，推动重点片区建设加快成势。', '6月18日，景波赴机投桥TOD片区现场办公，研究部署片区规划、地块拆迁和项目建设等工作。6月20日，景波走访成都联帮微波通信工程公司、成都远望雷芯电子技术有限公司，了解企业产品研发、生产经营等情况。6月21日，景波调研华为（成都）感知源谷、京东产业生态城建设情况，要求严把工程质量关，前瞻谋划推进项目招引，确保早竣工、早达效。', '6月17日，四川天府新区党工委书记周先毅，四川天府新区党工委副书记、管委会主任陈历章带队拜访蜀道集团主要负责同志，并召开交流座谈会，推动建立健全常态化沟通交流机制。会上，双方就深化政企高质量合作发展进行深入交流，重点聚焦城市片区开发、工业楼宇、智能制造、科技创新及成果转化等方面达成合作共识，努力以新的合作成果为全省全市经济发展大局多作贡献。', '6月18日，周先毅、陈历章率新区全体班子成员前往民航科技创新示范区考察学习，与民航二所就加强低空管服平台共建，合作打造覆盖低空经济基础设施、飞行器及零部件制造、应用场景等多领域的产业集群进行深入沟通交流。', '随后，周先毅、陈历章一行来到位于四川天府新区的成都市低空交通管理服务中心，实地督导全市低空交通管理服务平台建设推进情况，要求严格做好平台功能调试，务必保障平台如期上线试运行，着力提升低空飞行管控服务能力，加快构建更加丰富的低空应用场景与服务新业态，全力打造新的经济增长点。', '6月20日，成都东部新区党工委书记詹庆，成都东部新区党工委副书记、管委会主任杨俊共同出席成都东部新区投资促进全员攻坚大会，启动招商引资五大攻坚行动，全面掀起新一轮“大抓招商、大抓项目、大抓发展”的热潮，形成全员招商、全员攻坚的工作氛围，加快推进新型工业化、推动产业“建圈强链”，努力以高质量招商引资为新区高质量发展强筋健骨、蓄势赋能。', '6月21日，詹庆、杨俊共同出席成都东部新区经济运行工作专题会议，重点围绕做大经济总量、活化航空流量、夯实投资增量、激活人口留量，全力以赴抓经济、稳增长，研究实施“1+9”攻坚行动方案，聚焦有效投资提振、特色功能提升、企业服务提质三大方向，全力抓好枢纽提能、项目促建、扩大消费、招商引资、政策兑现、要素保障等9项重点工作，确保项目建设有力有序推进，为新区经济社会高质量发展注入新的动力活力。', '6月22日，詹庆、杨俊分别到国际空港经济区（东部新区片区）和简州新城，深入顺丰物流园、东方航空四川分公司天府基地、帝欧家居集团股份有限公司、蜀道轨道交通工程智能装备总部研发制造项目、四川海大橡胶集团有限公司等，调研项目投产和企业生产经营情况，督促新区相关行业部门积极主动作为，及时了解企业需求，做好精细化服务，确保项目有力有序推进，推动重点片区加快成型成势。', '本周，锦江区委书记池勇召开锦江区半年经济工作推进会，要求成立工作专班，每日调度经济工作，以超常规手段全力冲刺“双过半”；抓好企业服务，及时解决问题困难；抓好政策提效，加快推动大规模设备更新和消费品以旧换新等政策落地；加强统筹、守牢底线，全面抓好经济社会发展各项工作。', '6月17日，池勇召开川剧文化主题街区打造工作调度会，听取华兴戏坊策划方案及运营思路、街区产业推进情况等工作，要求明晰发展定位，做强街区核心功能，建立健全长效机制，真正让街区延续文化、焕发活力。', '6月19日，池勇督导锦东商圈建设推进情况，现场调研成都伽地社区音乐厅升级改造、成都光环中心项目建设、东大路U型空间设计方案推进等情况。同日，', '池勇还召开推介春熙路时尚商圈座谈会，倾听企业建议，邀请各位企业家代表对锦江商圈建设积极建言献策。', '6月17日，锦江区委副书记、区长缪晓波召开招商引资项目调度会，逐个调度招商引资项目推进情况。', '6月19日—21日，缪晓波带队赴深圳市开展招商引资活动，拜访嘉里集团、深圳减字科技、华润集团、新世界、华为、鸿蒙等重点产业链目标企业，大力推介水璟塘、四圣祠、林家坝等项目，吸引企业到锦江区投资兴业、深化合作。', '6月18日，成都市青羊区－郫都区－都江堰市文化产业和旅游产业融合发展推介会在北京举办。青羊区委副书记、区长冯胜出席推介会。冯胜表示，三地文旅资源富集，已“串珠成链”形成天府文化场所、景观的旅游消费聚集带，邀请各类文旅企业、金融机构来美丽的天府之国投资兴业、度假旅行，共同绘就古蜀文明传承创新的新图景。', '推介会上，三地融合发展规划《古蜀文明传承创新文旅融合发展示范区文化产业和旅游产业融合发展规划》正式发布，宽窄巷子二期项目现场推介，将打造成彰显中华文明魅力、天府文化特色的世界级城市文化地标，预计2025年阶段性呈现，2026年完整呈现。', '6月19日，金牛区委书记周德强率队调研全区就业工作，指出就业见习基地为促进青年就业发挥了重要作用，相关部门街道要及时关注，支持企业创新发展，特别是中小微企业稳岗扩岗；培训机构要精准服务，帮助求职者提升就业技能，增强就业竞争力；要重点做实做细失业人员、高校毕业生等重点群体就业创业服务工作，兜牢民生底线；要切实围绕区内重点行业企业职业技能人才培育需求，开展人力资源和用工保障服务，促进各类人才高质量就业；要加强政策支持，扩大就业帮扶覆盖面，为广大群众提供更多就业机会，助力区域经济稳步发展。', '6月20日，成华区委书记袁顺明调研全区智能制造企业运行情况，倾听企业心声诉求，帮助企业纾困解难。一行先后走访矽瞻科技（成都）有限公司、四川省天泽贵金属有限责任公司、四川航电微能源有限公司三家企业，走进企业办公区域、生产车间，与企业负责人深入交流，详细了解企业生产经营、订单销售、发展规划等情况，听取企业发展需求、存在困难和意见建议，勉励企业要坚定发展信心，深耕细分领域，持续加大智能化改造和数字化转型，加大力度引育技术研发和经营管理人才，为企业高质量发展提供有力支撑。', '6月21日，龙泉驿区委书记邱向东主持召开全区上半年经济运行工作专题会，传达全市上半年经济运行工作专题会议精神，第一时间统一思想认识并作出安排部署，研究冲刺“双过半”具体工作举措。会后赓即印发《龙泉驿区企业走访服务方案》《龙泉驿区项目包干服务方案》，成立由11个区领导、20个区级部门为成员的企业走访服务工作专班，聚焦145个重点企业、182个包干项目明确牵头区领导和责任部门，下沉一线、实地走访、解决问题，掀起全区上下拼经济、搞建设、抓项目、促发展的热潮。', '6月21日、6月22日，邱向东分别实地走访白家食品、中创新航2家企业，了解企业生产经营情况和面临的问题困难，针对企业提出的公共交通配套等5个问题，现场研究解决方案，加快推动解决。', '6月20日，青白江区委书记王林主持召开全区工业经济提质增效专题会，重点就提升工业经济质效做工作部署。', '6月21日，王林主持召开研究全区上半年经济运行工作会议，传达学习全市半年经济运行工作专题会议精神，总结上半年全区经济运行情况，分析研判当前形势，部署下半年经济重点，强调要狠抓工业经济，加强企业走访联系服务，做好统筹规划，加大招商引资力度，集中精力推动在谈项目快签约、签约项目快开工、开工项目快建设、在建项目快投产，推动各项工作加力提速。', '6月22日，王林到重点企业走访，深入了解企业生产经营、创新发展、市场推广等情况，鼓励企业放眼未来、进军前沿，推动人才、技术等要素集聚，大力开展新产品开发和市场推广，加快关键核心技术攻关，拓展更多新场景新领域，充分发挥自身优势，打造高水平现代化产业链、价值链和供应链，助力青白江加快构建现代产业体系。', '6月22日，青白江区委副书记、区长王海波走访欧洲产业城重点企业，深入了解企业发展情况与问题诉求，鼓励企业要以新质生产力为引领，不断增强技术创新，催生出更多新技术、新产品，为全市、全区经济发展做出贡献，并要求管委会及相关部门要聚焦企业关心关切，精准有力提供服务，全力破解企业发展难题，为企业提供全生命周期、全产业链条、全生产要素的综合服务保障，助力企业降本提质增效。', '6月21日，新都区与湖南中嶒能源有限公司成功签约，总投资30亿元的年产4GWh钛锂高能动力、2GWh钛锂高能数码电池生产项目正式落户新都。双方将在钛锂高能电池领域开展深度合作。这对新都打造经济发展新引擎、增强发展新动能、拓展新质生产力具有重要意义。新都区委书记王忠诚，区委副书记、区长魏柯，湖南中嶒能源有限公司董事长陈斌出席仪式。', '6月21日，温江区召开新型工业化、银发经济工作推进会，温江区委书记马烈红主持会议，温江区委副书记、区长王军参加。会议深入梳理存量企业发展现状、在建项目推进情况，对进一步优化产业规划、加大靶向招引、提升功能配套水平进行了重点部署。', '6月22日，马烈红主持召开全区经济运行工作会，重点研究产业建圈强链、项目招引促建、企业深度服务等工作，强调全力抓项目促投资、抓工业促回升、抓服务业促消费，要求专人专班全覆盖对接服务企业，提级提速回应办理企业困难诉求，全面开展升规提质专项行动，推动企业“四上一增”；深化基金招商、以商招商、全员招商等模式，全力招引链主企业、关键配套企业和顶尖人才团队，优化项目全生命周期管理，推动项目快投快建、竣工投产，以项目梯次接续形成更多实物投资量，以最实举措推动经济运行回升向好。', '6月21日，王军专题研究项目土地要素保障和片区控制性详细规划方案，强调要靠前服务提速项目建设，全力帮助解决问题困难，推动项目早开工、快建设、早竣工。同时，对康泉凤栖片区城市规划建设导则编制和城中村补短板项目推进等工作进行部署，强调要坚持片区思维，系统谋划配套建设，提升城市价值。', '6月23日，双流区委书记欧昭主持召开区委常委会会议，传达学习习近平总书记近期有关重要指示精神以及市委有关文件精神、专题会议精神，研究双流区上半年经济运行工作。会议要求，要认清严峻形势，以更足劲头抢时间赶进度，切实增强紧迫感和责任感，深入研究目标、听取进度、解决问题，奋力实现“时间过半、任务过半”。要聚焦重点攻坚，以更大力度拼经济搞建设，持续做好惠企助企工作，及时回应企业发展诉求，聚力做好服务业升规提质工作，紧紧抓住项目这个“牛鼻子”，让“跑项目、抓项目”成为工作常态，助力企业高质量发展。要细化完善举措，以更实作风出真招见实效，加快推进政策提效，推动经济稳增长各项政策措施落地落实，全力做好经济调度，服务项目建设、企业发展，挖掘更多经济增量，不遗余力冲刺“双过半”，抓好重点领域安全风险隐患排查整治，严格把关项目审批核准全流程，以高水平安全保障高质量发展。', '6月23日，双流区委书记欧昭主持召开区委常委会会议，传达学习习近平总书记近期有关重要指示精神以及市委有关文件精神、专题会议精神，研究双流区上半年经济运行工作。会议要求，要认清严峻形势，以更足劲头抢时间赶进度，切实增强紧', '6月19日—22日，双流区委副书记、区长杨钒主持召开双流区“惠企助企”专题会，调度重点企业包联服务工作开展情况，并带队走访了空中客车（成都）飞机全生命周期服务有限公司、成都中升之星汽车销售公司、京东方显示科技有限公司、昊超电子商务有限公司等区内重点企业8家，提出全区各部门、各园区要以企业诉求高质量办理为抓手，千方百计帮助企业稳订单、稳生产、稳经营，推动经济稳定增长。', '当地时间6月19日，“活力郫都·创新之城”成都市郫都区（巴黎）投资推介会在法国首都巴黎举行。法国友谊互助会、世界旅游组织、法国汉吉斯物流中心、中法孵化器联盟相关负责人、法国总统府法国战略与发展部代表以及因塔利奥数据处理公司等30余家法国企业负责人参加此次推介会。郫都区委副书记、区长赵继东出席推介会并致辞。', '6月19日至6月20日，熊艳赴江苏苏州和常州开展投资促进工作，实地考察了重点目标企业，并就发展机遇、政策优势、营商环境、项目合作等事宜与企业负责人进行了沟通交流。', '6月21日，熊艳组织召开上半年经济运行工作专题会，区委副书记、区长胡建平主持会议。会议传达了全市上半年经济运行工作专题会议精神，研究分析全区经济运行“双过半”情况，安排部署下半年工作，要求全区上下要形成合力、主动作为、精准施策，全力以赴冲刺“双过半”，确保高质量完成全年目标任务。', '6月22日，熊艳走访了中粮（成都）粮油工业有限公司、成都市新津时代新能源科技有限公司等重点企业，现场协调解决企业证照办理、能源保障、资质申报等方面遇到的困难和问题。', '6月18日，胡建平赴北京开展投资促进活动，实地考察了瞻望世纪航空企业管理集团有限公司等企业，并就小型通航机场建设、飞机制造产业导入以及双方合作契机等方面与企业负责人进行了交流。', '6月20日，胡建平主持召开营商环境建设工作领导小组会议，要求创新开展蓉易见·政商恳谈会、津商茶叙、周三企业服务日，蓉易享·政策找企业免申即享、易申快享等工作，以一流营商环境擦亮“中国民营经济摇篮”品牌。', '6月22日，胡建平走访了成都希望食品有限公司、纳爱斯成都有限责任公司等重点企业，并现场协调解决企业在稳产量、拓销路、促增长方面遇到的困难和问题。', '6月18日，简阳市委副书记、市长苏呈祥主持召开简阳市政府第86次常务会议。苏呈祥表示，要深入学习贯彻习近平总书记关于“三农”工作的重要论述，全面落实中央、省委、成都市委农村工作会议部署要求，深入学习运用“千万工程”经验，立足自身资源禀赋和发展现状，因地制宜、久久为功，以现代农业为抓手，打造乡村文旅融合业态，在推进乡村振兴上全面发力，持续巩固脱贫攻坚成果，努力走出一条特色发展之路，推动宜居宜业和美乡村建设取得更大突破。要切实在大格局中找准方向定位，明确目标路径，确保简阳发展更加契合大局、符合实际、顺应人民期盼，全力推进城乡融合高质量发展。', '6月18日，都江堰市召开工业企业升规提质座谈会。都江堰市委书记蒋蔚炜出席会议并讲话，都江堰市委副书记、市长张亚丹主持会议。会议通报2021年、2022年工业企业上规都江堰市本级配套扶持资金企业名单，解读成都市升规提质工作部署和相关扶持政策、2024年都江堰市工业企业升规提质工作方案和“智改数转”实施方案，发布大规模设备更新、“智改数转”、升规提质政策电子手册。', '6月19日，张亚丹率队赴大理市开展投资促进活动，先后考察了大理理想邦旅游度假小镇、大理路极主题公园项目，与株式会社美动（韩国）董事长陈国清就拟合作事项进行深入洽谈。', '6月20日—6月21日，张亚丹率队赴广东省深圳市开展招商引资活动，先后考察拜访了深圳云天励飞技术股份有限公司、深圳大族机器人有限公司等企业，与企业负责人就智慧城市建设、智慧场景打造、人工智能及低空经济等事宜进行座谈交流。', '6月18日，彭州市委书记廖暾主持召开彭州市经济工作专题会，研究部署“双过半”目标任务冲刺工作。彭州市委副书记、市长蒋明出席会议。', '会议指出，要全力以赴抓实抓细抓好经济工作，集中精力确保上半年全市经济运行顺利实现“双过半”。要着力提升消费能级，抢抓国家大规模消费品“以旧换新”政策机遇；要结合彭州新商圈的开业，举办各类高品质消费活动形成消费热潮；要做好对企业的主动服务、精准服务、增值服务，强化水电气等要素保障，提振企业信心。要科学制定发展目标，既要实事求是，也要“跳起摸高”；要加力加劲抓项目促投资，牢固树立“抓经济就要抓投资”“抓项目就是抓发展”的理念；强化进取意识、责任意识、担当意识，完善运行机制，形成上下联动、条块结合、左右协同的工作合力。', '6月19日，蒋明出席2024中日（成都·彭州）产业合作交流会，该活动旨在吸引更多优质日企落户彭州，促进双方更大范围、更宽领域、更深层次的交流合作。', '6月20日，蒋明带队走访调研彭州太萌新材料有限公司、成都第一制药有限公司等重点企业，听取企业发展需求和意见建议，并现场协调解决企业发展遇到的难点、堵点问题。', '6月21日，邛崃市召开上半年经济运行工作专题会，邛崃市委书记刘刚，市委副书记、市长王德彰出席会议并讲话。', '会议要求，要突出重点，把握关键。始终围绕新能源新材料、邛酒、农业、种业、食品等关键领域和重点行业，推动招商引资提质增效。抓住项目建设这个“牛鼻子”，全力推动项目建设提速增效。要转变作风，真抓实干。以更加务实的态度投入到经济工作中，真正帮助企业解决实际问题和困难。持续优化营商环境，增强企业发展信心和动力。要强化底线思维，压实工作责任。抓好防风险、保安全、促发展各项措施，主动防范化解各领域风险隐患，抓实抓细安全生产、防汛防灾、社会治理等工作，以高水平安全保障高质量发展。', '6月17日，崇州市委书记陈茂禄调研北部片区宜居宜业和美乡村建设工作，督导木玩村、天府米村、盆景村首开区建设，部署推进城乡人居环境整治、优化交通动线组织、加强专业化运营管理等重点工作，加快推动北部片区建设成型成势，持续激活乡村文旅消费市场。', '6月20日至6月21日，陈茂禄赴北京开展投资促进活动，前往中国证券报有限责任公司、北京首都创业集团有限公司考察交流，推介崇州桤木河乡村总部基地，希望与企业发挥各自资源禀赋，加快落地成都低空经济产业基金、首创集团西南总部等合作项目，推动桤木河乡村总部经济示范带成型成势。', '6月21日，崇州市委副书记、市长饶程主持召开研究全市经济运行工作专题会暨企业“四上”工作专班第3次会议，传达成都市研究全市上半年经济运行工作专题会议精神，研究部署崇州市“双过半”重点工作；研究分析崇州市企业“上规”“上榜”“上云”“上市”推进情况，形成了企业“四上”培育总体方案和“五个一”工作机制，并对下步工作进行安排部署。', '6月21日下午，金堂县召开上半年经济运行工作专题会。县委书记、淮州新城党工委书记钟静远主持会议并讲话，县委副书记、县长王安宁出席会议。', '特别是“一把手”要牢固树立正确政绩观，坚决扛起经济发展重大责任，下沉一线抓落实，冲上火线抓落实，坚决把高质量发', '展各项要求落到实处；要严格实行项目全生命周期管理，促进项目加快落地、加快建设、加快竣工、加快投产，为经济高质量发展提供坚实的项目支撑。要亲赴一线、强化调度，各县领导要勇于担当、自觉带头，坚持亲自招商、亲自接洽、亲自协调、亲自服务；要坚持“一企一策”抓好企业服务，精准快速狠抓政策提效；要成立“双过半”工作专班，实行“日调度周分析月研判”。要求真务实、一抓到底，守牢统计数据质量线，坚持如实统计、依法统计，确保应统尽统、颗粒归仓；守牢安全底线，抓好重点领域安全风险隐患排查整治，以极限思维做好主汛期物资储备、监测预警、应急救援', '6月21日，经过大邑县委、县政府的牵线搭桥和积极沟通协调，成都中车电动汽车有限公司与四川省客车制造有限责任公司成功“联姻”，双方将在大邑县联合打造绿色智能产业园区，建成具备年产2000辆新能源商用车的专业生产线。大邑县委副书记、县长余戬出席签约仪式。', '本次双方签约，是大邑县以商招商取得的又一成果。“中车电动、川客”联合体的成功构建，引进新能源汽车头部企业对成都本地企业整合，建设新能源商用车产业集群，将为大邑新能源产业发展注入新活力，进一步助力成都乃至全川在公交、环卫、渣土、城市物流配送等领域车辆的新能源化。', '6月21日，蒲江县委书记、一级巡视员蒲发友率队赴河南郑州开展招商引智活动，先后考察郑州屏荣食品有限公司、UIOT超级智慧家研发中心和生产基地、河南左盾实业有限公司，就合作事宜进行座谈，并和深圳市优必选科技股份有限公司负责人就合作意向进行了沟通交流。', '6月18日，蒲江县委副书记、县长赵钢到百岁山（成都）饮料公司、永安制药公司、金富包装公司、郑源生化科技公司等企业，了解企业发展经营状况、市场订单情况等，详细询问企业诉求并现场办公，协调解决企业生产和发展中存在的困难和问题，鼓励企业抢抓大规模设备更新等政策机遇持续扩能增产。同时，对企业安全生产、环保等工作进行督导。', '6月18日，市发改委党组书记、主任王锋君聚焦推动四大结构优化调整和产业建圈强链，赴青白江区调研四川省首批新能源商用车生产资质企业重汽王牌，听取在双核联动背景下推动氢能产业融合发展的意见，鼓励和支持企业积极参与成渝氢走廊建设，推动新能源汽车产业协同发展。', '6月18日，王锋君带队赴成粮集团青白江国家粮食储备库开展有限空间安全生产专项督导，并组织开展有限空间应急演练，深入推进有限空间安全生产专项整治“四个全覆盖”。', '6月19日，王锋君牵头筹备并推动召开成都市推进民营经济发展领导小组会议，聚焦民营企业诉求期盼，研究部署下半年民营经济重点工作，做强“蓉易见·民企会客厅” 成都市民营经济高质量发展座谈会品牌效应，持续用力推动全市民营经济高质量发展。', '6月20日，王锋君陪同国家发展改革委产业司领导，前往龙泉驿区调研领克汽车、高原汽车、沃尔沃汽车、美奢锐新材料等重点企业，积极向国家推介成都企业、项目、产品，争取更多超长期特别国债、中央预算内资金、汽车窗口指导等政策支持。', '6月18日，市经信局市新经济委党组书记赵春淦主持召开全市工业经济运行“双过半”工作调度会。会议要求，各区（市）县、各产业链责任处室、各服务专班，要在走访企业、推动项目、兑现政策、培育增量、精准服务、营造合力等六个方面动真格、下功夫。要积极向上争取，密切横向协同，加强市区联动，各级各部门形成工作合力，共同挖掘增长空间，奋力冲刺“双过半”。', '6月21日，市经信局市新经济委与市商务局召开产贸联动对接会。双方将建立经新商务联动工作机制，定期召开联席会议，聚焦目标、理清思路、明晰任务、压实责任、务求实效，针对重点产业、重点企业、重点产品和重要活动，优化政策、强化产销对接，促进成都工业经济和对外贸易提能增效，推动“成都造”产品出川、出海。', '6月18日上午，市交通运输局党组书记、局长张涛组织召开全市低空经济发展工作专题会议，研究部署成都市短途载人验证飞行活动、低空经济工作专班领导小组2024年第1次会议筹备、低空经济工作专班2024年第5次会议筹备相关工作。', '6月18日下午，张涛主持召开“5+1”区域巡游车经营企业和个体经营者整合工作专题会，研究部署中心城区巡游车经营权整合有关工作，要求借鉴北京、上海等先发城市经验，进一步完善工作方案。', '6月20日上午，张涛赴四川天府新区调研低空交通管理服务平台建设，要求系统开发建设要以公众安全、信息安全为重点，要加强在人才政策等方面试点，通过应用场景测试系统，在空域划设中推动场景集成，加强低空交通管理服务体制机制建设。当日，成都市城市低空载人出行验证飞行任务完成。', '6月21日下午，张涛传达学习全市上半年经济运行工作专题会议精神，研究部署全省高速公路突破10000公里暨天邛高速建成通车活动汇报展板准备工作，协调调度五环路等跨区道路建设，研究天府机场二期工程等规划储备项目对上争取工作。', '这一周，为确保实现“时间过半、任务过半”，市商务局召开全市商务系统专题调度会，强调要紧抓重点区域、重点行业、重点销售平台、促消费活动、激励政策出台，综合施策全力推进各项目标任务。', '6月21日，市商务局党组书记张金泉、局长何丽带队与市经信局开展产贸联动工作对接，围绕强化联动机制、打造“成都造”品牌、深化自贸改革赋能等内容进行深入交流，合力推动企业拓展海外市场，促进对外贸易提能增效。', '6月19日，张金泉带队走访成都蔚然汽车销售服务有限公司、成都东创国城实业有限公司，详细了解公司经营情况、销售情况以及面临的困难和问题，就打造汽车消费节、支持车企打造消费新场景等内容进行研讨，鼓励企业加大创新力度、提升品牌影响力，为消费者提供更加优质的产品和服务。', '6月18日，何丽带队调研云新天府跨境保税仓、澳蓉天猫跨境保税仓等跨境电商进口供应链企业和中国（四川）出口商品世界播直播基地，了解企业发展现状及下一步发展计划，听取企业对促进全市跨境电商发展的意见建议，鼓励企业大力发展跨境电商等外贸新业态新模式，为外贸高质量发展多做贡献。']</t>
         </is>
